--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869073198946187</v>
+        <v>0.9869073198946174</v>
       </c>
       <c r="D2">
-        <v>1.008957166676407</v>
+        <v>1.008957166676406</v>
       </c>
       <c r="E2">
-        <v>0.9945594128232516</v>
+        <v>0.9945594128232508</v>
       </c>
       <c r="F2">
-        <v>1.0051982827521</v>
+        <v>1.005198282752098</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.041349133006118</v>
       </c>
       <c r="J2">
-        <v>1.009486809361281</v>
+        <v>1.00948680936128</v>
       </c>
       <c r="K2">
-        <v>1.020293108597036</v>
+        <v>1.020293108597035</v>
       </c>
       <c r="L2">
-        <v>1.006095067683416</v>
+        <v>1.006095067683415</v>
       </c>
       <c r="M2">
-        <v>1.016585669196805</v>
+        <v>1.016585669196803</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9942114161791777</v>
+        <v>0.9942114161791781</v>
       </c>
       <c r="D3">
         <v>1.014708430382003</v>
@@ -477,10 +477,10 @@
         <v>1.043991829722012</v>
       </c>
       <c r="J3">
-        <v>1.01486113742862</v>
+        <v>1.014861137428619</v>
       </c>
       <c r="K3">
-        <v>1.025156510505457</v>
+        <v>1.025156510505458</v>
       </c>
       <c r="L3">
         <v>1.011257172376699</v>
@@ -500,7 +500,7 @@
         <v>0.9987927465308394</v>
       </c>
       <c r="D4">
-        <v>1.018317155181628</v>
+        <v>1.018317155181629</v>
       </c>
       <c r="E4">
         <v>1.004447469237396</v>
@@ -521,7 +521,7 @@
         <v>1.028199422682964</v>
       </c>
       <c r="L4">
-        <v>1.014492511960095</v>
+        <v>1.014492511960096</v>
       </c>
       <c r="M4">
         <v>1.027474175049602</v>
@@ -538,7 +538,7 @@
         <v>1.000686008127246</v>
       </c>
       <c r="D5">
-        <v>1.019808705543084</v>
+        <v>1.019808705543083</v>
       </c>
       <c r="E5">
         <v>1.006025413422003</v>
@@ -556,7 +556,7 @@
         <v>1.019617319084229</v>
       </c>
       <c r="K5">
-        <v>1.02945503577772</v>
+        <v>1.029455035777719</v>
       </c>
       <c r="L5">
         <v>1.015828867341585</v>
@@ -582,7 +582,7 @@
         <v>1.006288878353662</v>
       </c>
       <c r="F6">
-        <v>1.019887290757765</v>
+        <v>1.019887290757766</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1.019849254185118</v>
       </c>
       <c r="K6">
-        <v>1.029664508406098</v>
+        <v>1.029664508406099</v>
       </c>
       <c r="L6">
         <v>1.016051889299706</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988181705211282</v>
+        <v>0.9988181705211269</v>
       </c>
       <c r="D7">
-        <v>1.018337183972573</v>
+        <v>1.018337183972572</v>
       </c>
       <c r="E7">
         <v>1.004468653770691</v>
       </c>
       <c r="F7">
-        <v>1.017609943114906</v>
+        <v>1.017609943114904</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045642750734381</v>
+        <v>1.04564275073438</v>
       </c>
       <c r="J7">
-        <v>1.018246054227994</v>
+        <v>1.018246054227993</v>
       </c>
       <c r="K7">
-        <v>1.02821629147428</v>
+        <v>1.028216291474279</v>
       </c>
       <c r="L7">
-        <v>1.014510460176351</v>
+        <v>1.01451046017635</v>
       </c>
       <c r="M7">
-        <v>1.027497446118137</v>
+        <v>1.027497446118135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9894070138832084</v>
+        <v>0.9894070138832107</v>
       </c>
       <c r="D8">
-        <v>1.010925074240348</v>
+        <v>1.01092507424035</v>
       </c>
       <c r="E8">
-        <v>0.9966364533020617</v>
+        <v>0.9966364533020637</v>
       </c>
       <c r="F8">
-        <v>1.007801858780821</v>
+        <v>1.007801858780823</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042256828990896</v>
+        <v>1.042256828990897</v>
       </c>
       <c r="J8">
-        <v>1.011327022999456</v>
+        <v>1.011327022999458</v>
       </c>
       <c r="K8">
-        <v>1.021959064405427</v>
+        <v>1.021959064405428</v>
       </c>
       <c r="L8">
-        <v>1.00786217955946</v>
+        <v>1.007862179559462</v>
       </c>
       <c r="M8">
-        <v>1.018877175925747</v>
+        <v>1.018877175925749</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971615397379578</v>
+        <v>0.9716153973795778</v>
       </c>
       <c r="D9">
-        <v>0.9969292868206533</v>
+        <v>0.9969292868206531</v>
       </c>
       <c r="E9">
-        <v>0.9818833940770096</v>
+        <v>0.9818833940770091</v>
       </c>
       <c r="F9">
-        <v>0.989283774459794</v>
+        <v>0.9892837744597938</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.035730958419832</v>
       </c>
       <c r="J9">
-        <v>0.9982119036359407</v>
+        <v>0.9982119036359405</v>
       </c>
       <c r="K9">
-        <v>1.010072381446365</v>
+        <v>1.010072381446364</v>
       </c>
       <c r="L9">
-        <v>0.9952774022885502</v>
+        <v>0.9952774022885498</v>
       </c>
       <c r="M9">
         <v>1.002553141105831</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9587866110685177</v>
+        <v>0.958786611068517</v>
       </c>
       <c r="D10">
-        <v>0.9868575656241465</v>
+        <v>0.9868575656241459</v>
       </c>
       <c r="E10">
-        <v>0.9712902184892767</v>
+        <v>0.9712902184892759</v>
       </c>
       <c r="F10">
-        <v>0.9759482785975325</v>
+        <v>0.9759482785975321</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030944981501736</v>
+        <v>1.030944981501735</v>
       </c>
       <c r="J10">
-        <v>0.988736501372756</v>
+        <v>0.9887365013727554</v>
       </c>
       <c r="K10">
         <v>1.001468235590353</v>
       </c>
       <c r="L10">
-        <v>0.9861979340514746</v>
+        <v>0.9861979340514738</v>
       </c>
       <c r="M10">
-        <v>0.9907658110802873</v>
+        <v>0.9907658110802869</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9529608651714431</v>
+        <v>0.9529608651714434</v>
       </c>
       <c r="D11">
-        <v>0.982290845884045</v>
+        <v>0.9822908458840449</v>
       </c>
       <c r="E11">
-        <v>0.9664924064920745</v>
+        <v>0.9664924064920749</v>
       </c>
       <c r="F11">
-        <v>0.9698966800270876</v>
+        <v>0.9698966800270874</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028753676719125</v>
       </c>
       <c r="J11">
-        <v>0.9844304674240383</v>
+        <v>0.9844304674240388</v>
       </c>
       <c r="K11">
-        <v>0.9975546409792382</v>
+        <v>0.9975546409792384</v>
       </c>
       <c r="L11">
-        <v>0.9820751547784249</v>
+        <v>0.9820751547784252</v>
       </c>
       <c r="M11">
-        <v>0.9854095416150308</v>
+        <v>0.9854095416150304</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9507521322345951</v>
+        <v>0.9507521322345944</v>
       </c>
       <c r="D12">
-        <v>0.9805607193185707</v>
+        <v>0.9805607193185704</v>
       </c>
       <c r="E12">
-        <v>0.9646755111930276</v>
+        <v>0.9646755111930275</v>
       </c>
       <c r="F12">
-        <v>0.9676029737128392</v>
+        <v>0.9676029737128389</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.027920302589018</v>
       </c>
       <c r="J12">
-        <v>0.9827975680168657</v>
+        <v>0.9827975680168651</v>
       </c>
       <c r="K12">
-        <v>0.9960700682084614</v>
+        <v>0.9960700682084611</v>
       </c>
       <c r="L12">
-        <v>0.9805122759990503</v>
+        <v>0.9805122759990501</v>
       </c>
       <c r="M12">
-        <v>0.9833783312706023</v>
+        <v>0.983378331270602</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9512280121841301</v>
+        <v>0.9512280121841334</v>
       </c>
       <c r="D13">
-        <v>0.9809334207585305</v>
+        <v>0.9809334207585337</v>
       </c>
       <c r="E13">
-        <v>0.9650668693073435</v>
+        <v>0.9650668693073468</v>
       </c>
       <c r="F13">
-        <v>0.9680971316944276</v>
+        <v>0.9680971316944307</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028099970583373</v>
+        <v>1.028099970583374</v>
       </c>
       <c r="J13">
-        <v>0.9831493955420797</v>
+        <v>0.9831493955420829</v>
       </c>
       <c r="K13">
-        <v>0.9963899585713166</v>
+        <v>0.9963899585713197</v>
       </c>
       <c r="L13">
-        <v>0.9808489924143711</v>
+        <v>0.9808489924143744</v>
       </c>
       <c r="M13">
-        <v>0.9838159837307947</v>
+        <v>0.9838159837307979</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9527792301767529</v>
+        <v>0.952779230176752</v>
       </c>
       <c r="D14">
-        <v>0.9821485420246453</v>
+        <v>0.9821485420246442</v>
       </c>
       <c r="E14">
-        <v>0.9663429501349244</v>
+        <v>0.9663429501349233</v>
       </c>
       <c r="F14">
-        <v>0.9697080438882387</v>
+        <v>0.9697080438882379</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028685195803985</v>
       </c>
       <c r="J14">
-        <v>0.9842961921520793</v>
+        <v>0.9842961921520784</v>
       </c>
       <c r="K14">
-        <v>0.9974325725260866</v>
+        <v>0.9974325725260857</v>
       </c>
       <c r="L14">
-        <v>0.9819466265024913</v>
+        <v>0.9819466265024905</v>
       </c>
       <c r="M14">
-        <v>0.9852425144329956</v>
+        <v>0.9852425144329948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9537289187477984</v>
+        <v>0.9537289187478004</v>
       </c>
       <c r="D15">
-        <v>0.9828926384286626</v>
+        <v>0.9828926384286644</v>
       </c>
       <c r="E15">
-        <v>0.9671244780551673</v>
+        <v>0.967124478055169</v>
       </c>
       <c r="F15">
-        <v>0.9706943650176992</v>
+        <v>0.9706943650177011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029043148049847</v>
+        <v>1.029043148049849</v>
       </c>
       <c r="J15">
-        <v>0.9849982448129831</v>
+        <v>0.9849982448129849</v>
       </c>
       <c r="K15">
-        <v>0.9980707826152386</v>
+        <v>0.9980707826152405</v>
       </c>
       <c r="L15">
-        <v>0.9826186528674017</v>
+        <v>0.9826186528674034</v>
       </c>
       <c r="M15">
-        <v>0.9861158064084921</v>
+        <v>0.9861158064084939</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9591672035497553</v>
+        <v>0.959167203549755</v>
       </c>
       <c r="D16">
         <v>0.9871560689158967</v>
       </c>
       <c r="E16">
-        <v>0.9716039358872532</v>
+        <v>0.971603935887253</v>
       </c>
       <c r="F16">
-        <v>0.9763437150946559</v>
+        <v>0.976343715094656</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031087777132926</v>
+        <v>1.031087777132925</v>
       </c>
       <c r="J16">
-        <v>0.9890177580896158</v>
+        <v>0.9890177580896155</v>
       </c>
       <c r="K16">
         <v>1.001723789950768</v>
       </c>
       <c r="L16">
-        <v>0.9864672921607429</v>
+        <v>0.9864672921607428</v>
       </c>
       <c r="M16">
         <v>0.9911156653581769</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9625032705734156</v>
+        <v>0.9625032705734144</v>
       </c>
       <c r="D17">
-        <v>0.9897733985304007</v>
+        <v>0.9897733985303995</v>
       </c>
       <c r="E17">
-        <v>0.9743552655648811</v>
+        <v>0.9743552655648797</v>
       </c>
       <c r="F17">
-        <v>0.979810377463798</v>
+        <v>0.9798103774637968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032337440374429</v>
+        <v>1.032337440374428</v>
       </c>
       <c r="J17">
-        <v>0.9914827652246304</v>
+        <v>0.9914827652246291</v>
       </c>
       <c r="K17">
-        <v>1.003963145000934</v>
+        <v>1.003963145000933</v>
       </c>
       <c r="L17">
-        <v>0.988828394195553</v>
+        <v>0.9888283941955518</v>
       </c>
       <c r="M17">
-        <v>0.9941819131855962</v>
+        <v>0.9941819131855951</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9644233198956944</v>
+        <v>0.9644233198956924</v>
       </c>
       <c r="D18">
-        <v>0.9912804249722422</v>
+        <v>0.9912804249722407</v>
       </c>
       <c r="E18">
-        <v>0.9759399506972308</v>
+        <v>0.9759399506972292</v>
       </c>
       <c r="F18">
-        <v>0.9818059875671524</v>
+        <v>0.981805987567151</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033054986969862</v>
+        <v>1.033054986969861</v>
       </c>
       <c r="J18">
-        <v>0.9929011817197985</v>
+        <v>0.9929011817197966</v>
       </c>
       <c r="K18">
-        <v>1.005251386441182</v>
+        <v>1.00525138644118</v>
       </c>
       <c r="L18">
-        <v>0.9901873311155657</v>
+        <v>0.9901873311155642</v>
       </c>
       <c r="M18">
-        <v>0.9959463417853853</v>
+        <v>0.9959463417853842</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9650737428345721</v>
+        <v>0.9650737428345725</v>
       </c>
       <c r="D19">
-        <v>0.9917910378666627</v>
+        <v>0.991791037866663</v>
       </c>
       <c r="E19">
-        <v>0.9764769619696125</v>
+        <v>0.9764769619696126</v>
       </c>
       <c r="F19">
-        <v>0.9824820739395365</v>
+        <v>0.9824820739395367</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033297768680865</v>
+        <v>1.033297768680866</v>
       </c>
       <c r="J19">
-        <v>0.9933816203893301</v>
+        <v>0.9933816203893305</v>
       </c>
       <c r="K19">
-        <v>1.00568767592704</v>
+        <v>1.005687675927041</v>
       </c>
       <c r="L19">
-        <v>0.9906476749005176</v>
+        <v>0.9906476749005177</v>
       </c>
       <c r="M19">
-        <v>0.9965439906533676</v>
+        <v>0.9965439906533679</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9621480409250724</v>
+        <v>0.9621480409250756</v>
       </c>
       <c r="D20">
-        <v>0.9894946330531112</v>
+        <v>0.9894946330531141</v>
       </c>
       <c r="E20">
-        <v>0.9740621759134545</v>
+        <v>0.9740621759134569</v>
       </c>
       <c r="F20">
-        <v>0.9794412003720688</v>
+        <v>0.9794412003720717</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032204549008199</v>
+        <v>1.0322045490082</v>
       </c>
       <c r="J20">
-        <v>0.9912203177959047</v>
+        <v>0.9912203177959077</v>
       </c>
       <c r="K20">
-        <v>1.003724756671628</v>
+        <v>1.003724756671631</v>
       </c>
       <c r="L20">
-        <v>0.9885769770835104</v>
+        <v>0.9885769770835129</v>
       </c>
       <c r="M20">
-        <v>0.993855448102814</v>
+        <v>0.9938554481028166</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9523237075124615</v>
+        <v>0.9523237075124609</v>
       </c>
       <c r="D21">
-        <v>0.9817916791281373</v>
+        <v>0.9817916791281369</v>
       </c>
       <c r="E21">
-        <v>0.9659681630361322</v>
+        <v>0.9659681630361316</v>
       </c>
       <c r="F21">
-        <v>0.96923497362442</v>
+        <v>0.9692349736244197</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.028513411393595</v>
       </c>
       <c r="J21">
-        <v>0.9839594380084011</v>
+        <v>0.9839594380084006</v>
       </c>
       <c r="K21">
-        <v>0.997126424565699</v>
+        <v>0.9971264245656986</v>
       </c>
       <c r="L21">
-        <v>0.9816242940669027</v>
+        <v>0.9816242940669022</v>
       </c>
       <c r="M21">
-        <v>0.9848236193212855</v>
+        <v>0.9848236193212851</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9458851266597234</v>
+        <v>0.9458851266597247</v>
       </c>
       <c r="D22">
-        <v>0.976750939671069</v>
+        <v>0.97675093967107</v>
       </c>
       <c r="E22">
-        <v>0.9606760830072686</v>
+        <v>0.96067608300727</v>
       </c>
       <c r="F22">
-        <v>0.9625499539568239</v>
+        <v>0.9625499539568249</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026079317184174</v>
+        <v>1.026079317184175</v>
       </c>
       <c r="J22">
-        <v>0.9791989564588008</v>
+        <v>0.9791989564588021</v>
       </c>
       <c r="K22">
-        <v>0.9927974758075402</v>
+        <v>0.9927974758075412</v>
       </c>
       <c r="L22">
-        <v>0.9770689878445992</v>
+        <v>0.9770689878446002</v>
       </c>
       <c r="M22">
-        <v>0.978901690237106</v>
+        <v>0.9789016902371072</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493246700608102</v>
+        <v>0.9493246700608118</v>
       </c>
       <c r="D23">
-        <v>0.9794429580779745</v>
+        <v>0.9794429580779761</v>
       </c>
       <c r="E23">
-        <v>0.9635019100018961</v>
+        <v>0.9635019100018976</v>
       </c>
       <c r="F23">
-        <v>0.9661207815129457</v>
+        <v>0.9661207815129474</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027380997265642</v>
+        <v>1.027380997265643</v>
       </c>
       <c r="J23">
-        <v>0.981742177725173</v>
+        <v>0.981742177725175</v>
       </c>
       <c r="K23">
-        <v>0.9951104118731966</v>
+        <v>0.9951104118731984</v>
       </c>
       <c r="L23">
-        <v>0.9795022949457599</v>
+        <v>0.9795022949457612</v>
       </c>
       <c r="M23">
-        <v>0.9820654722415438</v>
+        <v>0.9820654722415457</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9623086334066281</v>
+        <v>0.9623086334066263</v>
       </c>
       <c r="D24">
-        <v>0.9896206555787895</v>
+        <v>0.9896206555787876</v>
       </c>
       <c r="E24">
-        <v>0.9741946724560185</v>
+        <v>0.9741946724560172</v>
       </c>
       <c r="F24">
-        <v>0.9796080969898291</v>
+        <v>0.979608096989827</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032264631889439</v>
+        <v>1.032264631889438</v>
       </c>
       <c r="J24">
-        <v>0.9913389661666154</v>
+        <v>0.9913389661666137</v>
       </c>
       <c r="K24">
-        <v>1.003832529329018</v>
+        <v>1.003832529329016</v>
       </c>
       <c r="L24">
-        <v>0.988690637860772</v>
+        <v>0.9886906378607707</v>
       </c>
       <c r="M24">
-        <v>0.9940030377019869</v>
+        <v>0.9940030377019848</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763729807605595</v>
+        <v>0.9763729807605592</v>
       </c>
       <c r="D25">
         <v>1.000669100942399</v>
       </c>
       <c r="E25">
-        <v>0.9858214934222932</v>
+        <v>0.9858214934222929</v>
       </c>
       <c r="F25">
         <v>0.9942327729481609</v>
@@ -1319,7 +1319,7 @@
         <v>1.013257038852822</v>
       </c>
       <c r="L25">
-        <v>0.9986439736930584</v>
+        <v>0.9986439736930582</v>
       </c>
       <c r="M25">
         <v>1.006921282328535</v>

--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869073198946174</v>
+        <v>0.9869073198946187</v>
       </c>
       <c r="D2">
-        <v>1.008957166676406</v>
+        <v>1.008957166676407</v>
       </c>
       <c r="E2">
-        <v>0.9945594128232508</v>
+        <v>0.9945594128232516</v>
       </c>
       <c r="F2">
-        <v>1.005198282752098</v>
+        <v>1.0051982827521</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.041349133006118</v>
       </c>
       <c r="J2">
-        <v>1.00948680936128</v>
+        <v>1.009486809361281</v>
       </c>
       <c r="K2">
-        <v>1.020293108597035</v>
+        <v>1.020293108597036</v>
       </c>
       <c r="L2">
-        <v>1.006095067683415</v>
+        <v>1.006095067683416</v>
       </c>
       <c r="M2">
-        <v>1.016585669196803</v>
+        <v>1.016585669196805</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,7 +459,7 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9942114161791781</v>
+        <v>0.9942114161791777</v>
       </c>
       <c r="D3">
         <v>1.014708430382003</v>
@@ -477,10 +477,10 @@
         <v>1.043991829722012</v>
       </c>
       <c r="J3">
-        <v>1.014861137428619</v>
+        <v>1.01486113742862</v>
       </c>
       <c r="K3">
-        <v>1.025156510505458</v>
+        <v>1.025156510505457</v>
       </c>
       <c r="L3">
         <v>1.011257172376699</v>
@@ -500,7 +500,7 @@
         <v>0.9987927465308394</v>
       </c>
       <c r="D4">
-        <v>1.018317155181629</v>
+        <v>1.018317155181628</v>
       </c>
       <c r="E4">
         <v>1.004447469237396</v>
@@ -521,7 +521,7 @@
         <v>1.028199422682964</v>
       </c>
       <c r="L4">
-        <v>1.014492511960096</v>
+        <v>1.014492511960095</v>
       </c>
       <c r="M4">
         <v>1.027474175049602</v>
@@ -538,7 +538,7 @@
         <v>1.000686008127246</v>
       </c>
       <c r="D5">
-        <v>1.019808705543083</v>
+        <v>1.019808705543084</v>
       </c>
       <c r="E5">
         <v>1.006025413422003</v>
@@ -556,7 +556,7 @@
         <v>1.019617319084229</v>
       </c>
       <c r="K5">
-        <v>1.029455035777719</v>
+        <v>1.02945503577772</v>
       </c>
       <c r="L5">
         <v>1.015828867341585</v>
@@ -582,7 +582,7 @@
         <v>1.006288878353662</v>
       </c>
       <c r="F6">
-        <v>1.019887290757766</v>
+        <v>1.019887290757765</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1.019849254185118</v>
       </c>
       <c r="K6">
-        <v>1.029664508406099</v>
+        <v>1.029664508406098</v>
       </c>
       <c r="L6">
         <v>1.016051889299706</v>
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988181705211269</v>
+        <v>0.9988181705211282</v>
       </c>
       <c r="D7">
-        <v>1.018337183972572</v>
+        <v>1.018337183972573</v>
       </c>
       <c r="E7">
         <v>1.004468653770691</v>
       </c>
       <c r="F7">
-        <v>1.017609943114904</v>
+        <v>1.017609943114906</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04564275073438</v>
+        <v>1.045642750734381</v>
       </c>
       <c r="J7">
-        <v>1.018246054227993</v>
+        <v>1.018246054227994</v>
       </c>
       <c r="K7">
-        <v>1.028216291474279</v>
+        <v>1.02821629147428</v>
       </c>
       <c r="L7">
-        <v>1.01451046017635</v>
+        <v>1.014510460176351</v>
       </c>
       <c r="M7">
-        <v>1.027497446118135</v>
+        <v>1.027497446118137</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9894070138832107</v>
+        <v>0.9894070138832084</v>
       </c>
       <c r="D8">
-        <v>1.01092507424035</v>
+        <v>1.010925074240348</v>
       </c>
       <c r="E8">
-        <v>0.9966364533020637</v>
+        <v>0.9966364533020617</v>
       </c>
       <c r="F8">
-        <v>1.007801858780823</v>
+        <v>1.007801858780821</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042256828990897</v>
+        <v>1.042256828990896</v>
       </c>
       <c r="J8">
-        <v>1.011327022999458</v>
+        <v>1.011327022999456</v>
       </c>
       <c r="K8">
-        <v>1.021959064405428</v>
+        <v>1.021959064405427</v>
       </c>
       <c r="L8">
-        <v>1.007862179559462</v>
+        <v>1.00786217955946</v>
       </c>
       <c r="M8">
-        <v>1.018877175925749</v>
+        <v>1.018877175925747</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9716153973795778</v>
+        <v>0.971615397379578</v>
       </c>
       <c r="D9">
-        <v>0.9969292868206531</v>
+        <v>0.9969292868206533</v>
       </c>
       <c r="E9">
-        <v>0.9818833940770091</v>
+        <v>0.9818833940770096</v>
       </c>
       <c r="F9">
-        <v>0.9892837744597938</v>
+        <v>0.989283774459794</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.035730958419832</v>
       </c>
       <c r="J9">
-        <v>0.9982119036359405</v>
+        <v>0.9982119036359407</v>
       </c>
       <c r="K9">
-        <v>1.010072381446364</v>
+        <v>1.010072381446365</v>
       </c>
       <c r="L9">
-        <v>0.9952774022885498</v>
+        <v>0.9952774022885502</v>
       </c>
       <c r="M9">
         <v>1.002553141105831</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.958786611068517</v>
+        <v>0.9587866110685177</v>
       </c>
       <c r="D10">
-        <v>0.9868575656241459</v>
+        <v>0.9868575656241465</v>
       </c>
       <c r="E10">
-        <v>0.9712902184892759</v>
+        <v>0.9712902184892767</v>
       </c>
       <c r="F10">
-        <v>0.9759482785975321</v>
+        <v>0.9759482785975325</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030944981501735</v>
+        <v>1.030944981501736</v>
       </c>
       <c r="J10">
-        <v>0.9887365013727554</v>
+        <v>0.988736501372756</v>
       </c>
       <c r="K10">
         <v>1.001468235590353</v>
       </c>
       <c r="L10">
-        <v>0.9861979340514738</v>
+        <v>0.9861979340514746</v>
       </c>
       <c r="M10">
-        <v>0.9907658110802869</v>
+        <v>0.9907658110802873</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9529608651714434</v>
+        <v>0.9529608651714431</v>
       </c>
       <c r="D11">
-        <v>0.9822908458840449</v>
+        <v>0.982290845884045</v>
       </c>
       <c r="E11">
-        <v>0.9664924064920749</v>
+        <v>0.9664924064920745</v>
       </c>
       <c r="F11">
-        <v>0.9698966800270874</v>
+        <v>0.9698966800270876</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.028753676719125</v>
       </c>
       <c r="J11">
-        <v>0.9844304674240388</v>
+        <v>0.9844304674240383</v>
       </c>
       <c r="K11">
-        <v>0.9975546409792384</v>
+        <v>0.9975546409792382</v>
       </c>
       <c r="L11">
-        <v>0.9820751547784252</v>
+        <v>0.9820751547784249</v>
       </c>
       <c r="M11">
-        <v>0.9854095416150304</v>
+        <v>0.9854095416150308</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9507521322345944</v>
+        <v>0.9507521322345951</v>
       </c>
       <c r="D12">
-        <v>0.9805607193185704</v>
+        <v>0.9805607193185707</v>
       </c>
       <c r="E12">
-        <v>0.9646755111930275</v>
+        <v>0.9646755111930276</v>
       </c>
       <c r="F12">
-        <v>0.9676029737128389</v>
+        <v>0.9676029737128392</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.027920302589018</v>
       </c>
       <c r="J12">
-        <v>0.9827975680168651</v>
+        <v>0.9827975680168657</v>
       </c>
       <c r="K12">
-        <v>0.9960700682084611</v>
+        <v>0.9960700682084614</v>
       </c>
       <c r="L12">
-        <v>0.9805122759990501</v>
+        <v>0.9805122759990503</v>
       </c>
       <c r="M12">
-        <v>0.983378331270602</v>
+        <v>0.9833783312706023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9512280121841334</v>
+        <v>0.9512280121841301</v>
       </c>
       <c r="D13">
-        <v>0.9809334207585337</v>
+        <v>0.9809334207585305</v>
       </c>
       <c r="E13">
-        <v>0.9650668693073468</v>
+        <v>0.9650668693073435</v>
       </c>
       <c r="F13">
-        <v>0.9680971316944307</v>
+        <v>0.9680971316944276</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028099970583374</v>
+        <v>1.028099970583373</v>
       </c>
       <c r="J13">
-        <v>0.9831493955420829</v>
+        <v>0.9831493955420797</v>
       </c>
       <c r="K13">
-        <v>0.9963899585713197</v>
+        <v>0.9963899585713166</v>
       </c>
       <c r="L13">
-        <v>0.9808489924143744</v>
+        <v>0.9808489924143711</v>
       </c>
       <c r="M13">
-        <v>0.9838159837307979</v>
+        <v>0.9838159837307947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.952779230176752</v>
+        <v>0.9527792301767529</v>
       </c>
       <c r="D14">
-        <v>0.9821485420246442</v>
+        <v>0.9821485420246453</v>
       </c>
       <c r="E14">
-        <v>0.9663429501349233</v>
+        <v>0.9663429501349244</v>
       </c>
       <c r="F14">
-        <v>0.9697080438882379</v>
+        <v>0.9697080438882387</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028685195803985</v>
       </c>
       <c r="J14">
-        <v>0.9842961921520784</v>
+        <v>0.9842961921520793</v>
       </c>
       <c r="K14">
-        <v>0.9974325725260857</v>
+        <v>0.9974325725260866</v>
       </c>
       <c r="L14">
-        <v>0.9819466265024905</v>
+        <v>0.9819466265024913</v>
       </c>
       <c r="M14">
-        <v>0.9852425144329948</v>
+        <v>0.9852425144329956</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9537289187478004</v>
+        <v>0.9537289187477984</v>
       </c>
       <c r="D15">
-        <v>0.9828926384286644</v>
+        <v>0.9828926384286626</v>
       </c>
       <c r="E15">
-        <v>0.967124478055169</v>
+        <v>0.9671244780551673</v>
       </c>
       <c r="F15">
-        <v>0.9706943650177011</v>
+        <v>0.9706943650176992</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029043148049849</v>
+        <v>1.029043148049847</v>
       </c>
       <c r="J15">
-        <v>0.9849982448129849</v>
+        <v>0.9849982448129831</v>
       </c>
       <c r="K15">
-        <v>0.9980707826152405</v>
+        <v>0.9980707826152386</v>
       </c>
       <c r="L15">
-        <v>0.9826186528674034</v>
+        <v>0.9826186528674017</v>
       </c>
       <c r="M15">
-        <v>0.9861158064084939</v>
+        <v>0.9861158064084921</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.959167203549755</v>
+        <v>0.9591672035497553</v>
       </c>
       <c r="D16">
         <v>0.9871560689158967</v>
       </c>
       <c r="E16">
-        <v>0.971603935887253</v>
+        <v>0.9716039358872532</v>
       </c>
       <c r="F16">
-        <v>0.976343715094656</v>
+        <v>0.9763437150946559</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031087777132925</v>
+        <v>1.031087777132926</v>
       </c>
       <c r="J16">
-        <v>0.9890177580896155</v>
+        <v>0.9890177580896158</v>
       </c>
       <c r="K16">
         <v>1.001723789950768</v>
       </c>
       <c r="L16">
-        <v>0.9864672921607428</v>
+        <v>0.9864672921607429</v>
       </c>
       <c r="M16">
         <v>0.9911156653581769</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9625032705734144</v>
+        <v>0.9625032705734156</v>
       </c>
       <c r="D17">
-        <v>0.9897733985303995</v>
+        <v>0.9897733985304007</v>
       </c>
       <c r="E17">
-        <v>0.9743552655648797</v>
+        <v>0.9743552655648811</v>
       </c>
       <c r="F17">
-        <v>0.9798103774637968</v>
+        <v>0.979810377463798</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032337440374428</v>
+        <v>1.032337440374429</v>
       </c>
       <c r="J17">
-        <v>0.9914827652246291</v>
+        <v>0.9914827652246304</v>
       </c>
       <c r="K17">
-        <v>1.003963145000933</v>
+        <v>1.003963145000934</v>
       </c>
       <c r="L17">
-        <v>0.9888283941955518</v>
+        <v>0.988828394195553</v>
       </c>
       <c r="M17">
-        <v>0.9941819131855951</v>
+        <v>0.9941819131855962</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9644233198956924</v>
+        <v>0.9644233198956944</v>
       </c>
       <c r="D18">
-        <v>0.9912804249722407</v>
+        <v>0.9912804249722422</v>
       </c>
       <c r="E18">
-        <v>0.9759399506972292</v>
+        <v>0.9759399506972308</v>
       </c>
       <c r="F18">
-        <v>0.981805987567151</v>
+        <v>0.9818059875671524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033054986969861</v>
+        <v>1.033054986969862</v>
       </c>
       <c r="J18">
-        <v>0.9929011817197966</v>
+        <v>0.9929011817197985</v>
       </c>
       <c r="K18">
-        <v>1.00525138644118</v>
+        <v>1.005251386441182</v>
       </c>
       <c r="L18">
-        <v>0.9901873311155642</v>
+        <v>0.9901873311155657</v>
       </c>
       <c r="M18">
-        <v>0.9959463417853842</v>
+        <v>0.9959463417853853</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9650737428345725</v>
+        <v>0.9650737428345721</v>
       </c>
       <c r="D19">
-        <v>0.991791037866663</v>
+        <v>0.9917910378666627</v>
       </c>
       <c r="E19">
-        <v>0.9764769619696126</v>
+        <v>0.9764769619696125</v>
       </c>
       <c r="F19">
-        <v>0.9824820739395367</v>
+        <v>0.9824820739395365</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033297768680866</v>
+        <v>1.033297768680865</v>
       </c>
       <c r="J19">
-        <v>0.9933816203893305</v>
+        <v>0.9933816203893301</v>
       </c>
       <c r="K19">
-        <v>1.005687675927041</v>
+        <v>1.00568767592704</v>
       </c>
       <c r="L19">
-        <v>0.9906476749005177</v>
+        <v>0.9906476749005176</v>
       </c>
       <c r="M19">
-        <v>0.9965439906533679</v>
+        <v>0.9965439906533676</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9621480409250756</v>
+        <v>0.9621480409250724</v>
       </c>
       <c r="D20">
-        <v>0.9894946330531141</v>
+        <v>0.9894946330531112</v>
       </c>
       <c r="E20">
-        <v>0.9740621759134569</v>
+        <v>0.9740621759134545</v>
       </c>
       <c r="F20">
-        <v>0.9794412003720717</v>
+        <v>0.9794412003720688</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0322045490082</v>
+        <v>1.032204549008199</v>
       </c>
       <c r="J20">
-        <v>0.9912203177959077</v>
+        <v>0.9912203177959047</v>
       </c>
       <c r="K20">
-        <v>1.003724756671631</v>
+        <v>1.003724756671628</v>
       </c>
       <c r="L20">
-        <v>0.9885769770835129</v>
+        <v>0.9885769770835104</v>
       </c>
       <c r="M20">
-        <v>0.9938554481028166</v>
+        <v>0.993855448102814</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9523237075124609</v>
+        <v>0.9523237075124615</v>
       </c>
       <c r="D21">
-        <v>0.9817916791281369</v>
+        <v>0.9817916791281373</v>
       </c>
       <c r="E21">
-        <v>0.9659681630361316</v>
+        <v>0.9659681630361322</v>
       </c>
       <c r="F21">
-        <v>0.9692349736244197</v>
+        <v>0.96923497362442</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.028513411393595</v>
       </c>
       <c r="J21">
-        <v>0.9839594380084006</v>
+        <v>0.9839594380084011</v>
       </c>
       <c r="K21">
-        <v>0.9971264245656986</v>
+        <v>0.997126424565699</v>
       </c>
       <c r="L21">
-        <v>0.9816242940669022</v>
+        <v>0.9816242940669027</v>
       </c>
       <c r="M21">
-        <v>0.9848236193212851</v>
+        <v>0.9848236193212855</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9458851266597247</v>
+        <v>0.9458851266597234</v>
       </c>
       <c r="D22">
-        <v>0.97675093967107</v>
+        <v>0.976750939671069</v>
       </c>
       <c r="E22">
-        <v>0.96067608300727</v>
+        <v>0.9606760830072686</v>
       </c>
       <c r="F22">
-        <v>0.9625499539568249</v>
+        <v>0.9625499539568239</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026079317184175</v>
+        <v>1.026079317184174</v>
       </c>
       <c r="J22">
-        <v>0.9791989564588021</v>
+        <v>0.9791989564588008</v>
       </c>
       <c r="K22">
-        <v>0.9927974758075412</v>
+        <v>0.9927974758075402</v>
       </c>
       <c r="L22">
-        <v>0.9770689878446002</v>
+        <v>0.9770689878445992</v>
       </c>
       <c r="M22">
-        <v>0.9789016902371072</v>
+        <v>0.978901690237106</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493246700608118</v>
+        <v>0.9493246700608102</v>
       </c>
       <c r="D23">
-        <v>0.9794429580779761</v>
+        <v>0.9794429580779745</v>
       </c>
       <c r="E23">
-        <v>0.9635019100018976</v>
+        <v>0.9635019100018961</v>
       </c>
       <c r="F23">
-        <v>0.9661207815129474</v>
+        <v>0.9661207815129457</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027380997265643</v>
+        <v>1.027380997265642</v>
       </c>
       <c r="J23">
-        <v>0.981742177725175</v>
+        <v>0.981742177725173</v>
       </c>
       <c r="K23">
-        <v>0.9951104118731984</v>
+        <v>0.9951104118731966</v>
       </c>
       <c r="L23">
-        <v>0.9795022949457612</v>
+        <v>0.9795022949457599</v>
       </c>
       <c r="M23">
-        <v>0.9820654722415457</v>
+        <v>0.9820654722415438</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9623086334066263</v>
+        <v>0.9623086334066281</v>
       </c>
       <c r="D24">
-        <v>0.9896206555787876</v>
+        <v>0.9896206555787895</v>
       </c>
       <c r="E24">
-        <v>0.9741946724560172</v>
+        <v>0.9741946724560185</v>
       </c>
       <c r="F24">
-        <v>0.979608096989827</v>
+        <v>0.9796080969898291</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032264631889438</v>
+        <v>1.032264631889439</v>
       </c>
       <c r="J24">
-        <v>0.9913389661666137</v>
+        <v>0.9913389661666154</v>
       </c>
       <c r="K24">
-        <v>1.003832529329016</v>
+        <v>1.003832529329018</v>
       </c>
       <c r="L24">
-        <v>0.9886906378607707</v>
+        <v>0.988690637860772</v>
       </c>
       <c r="M24">
-        <v>0.9940030377019848</v>
+        <v>0.9940030377019869</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,13 +1295,13 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763729807605592</v>
+        <v>0.9763729807605595</v>
       </c>
       <c r="D25">
         <v>1.000669100942399</v>
       </c>
       <c r="E25">
-        <v>0.9858214934222929</v>
+        <v>0.9858214934222932</v>
       </c>
       <c r="F25">
         <v>0.9942327729481609</v>
@@ -1319,7 +1319,7 @@
         <v>1.013257038852822</v>
       </c>
       <c r="L25">
-        <v>0.9986439736930582</v>
+        <v>0.9986439736930584</v>
       </c>
       <c r="M25">
         <v>1.006921282328535</v>

--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9869073198946187</v>
+        <v>0.986922486267489</v>
       </c>
       <c r="D2">
-        <v>1.008957166676407</v>
+        <v>1.00896923794371</v>
       </c>
       <c r="E2">
-        <v>0.9945594128232516</v>
+        <v>0.9945741973291216</v>
       </c>
       <c r="F2">
-        <v>1.0051982827521</v>
+        <v>1.005208783143505</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041349133006118</v>
+        <v>1.041355491877112</v>
       </c>
       <c r="J2">
-        <v>1.009486809361281</v>
+        <v>1.009501505340138</v>
       </c>
       <c r="K2">
-        <v>1.020293108597036</v>
+        <v>1.020305015432788</v>
       </c>
       <c r="L2">
-        <v>1.006095067683416</v>
+        <v>1.006109643363667</v>
       </c>
       <c r="M2">
-        <v>1.016585669196805</v>
+        <v>1.016596025203403</v>
+      </c>
+      <c r="N2">
+        <v>1.007720960133676</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9942114161791777</v>
+        <v>0.994221852148314</v>
       </c>
       <c r="D3">
-        <v>1.014708430382003</v>
+        <v>1.014716747041769</v>
       </c>
       <c r="E3">
-        <v>1.000632376536757</v>
+        <v>1.000642877426783</v>
       </c>
       <c r="F3">
-        <v>1.012807714642349</v>
+        <v>1.012814914603526</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043991829722012</v>
+        <v>1.04399621419306</v>
       </c>
       <c r="J3">
-        <v>1.01486113742862</v>
+        <v>1.01487128436907</v>
       </c>
       <c r="K3">
-        <v>1.025156510505457</v>
+        <v>1.025164724558967</v>
       </c>
       <c r="L3">
-        <v>1.011257172376699</v>
+        <v>1.011267539119758</v>
       </c>
       <c r="M3">
-        <v>1.02327929976294</v>
+        <v>1.023286410479289</v>
+      </c>
+      <c r="N3">
+        <v>1.011490724940183</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987927465308394</v>
+        <v>0.9988002708835353</v>
       </c>
       <c r="D4">
-        <v>1.018317155181628</v>
+        <v>1.018323156072193</v>
       </c>
       <c r="E4">
-        <v>1.004447469237396</v>
+        <v>1.004455329820231</v>
       </c>
       <c r="F4">
-        <v>1.017583433921902</v>
+        <v>1.017588614043468</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045633675604484</v>
+        <v>1.045636840866601</v>
       </c>
       <c r="J4">
-        <v>1.018227384471453</v>
+        <v>1.018234715722453</v>
       </c>
       <c r="K4">
-        <v>1.028199422682964</v>
+        <v>1.028205354332414</v>
       </c>
       <c r="L4">
-        <v>1.014492511960095</v>
+        <v>1.014500278712489</v>
       </c>
       <c r="M4">
-        <v>1.027474175049602</v>
+        <v>1.027479295293879</v>
+      </c>
+      <c r="N4">
+        <v>1.013849299352486</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000686008127246</v>
+        <v>1.000692341024518</v>
       </c>
       <c r="D5">
-        <v>1.019808705543084</v>
+        <v>1.019813757772575</v>
       </c>
       <c r="E5">
-        <v>1.006025413422003</v>
+        <v>1.006032192904358</v>
       </c>
       <c r="F5">
-        <v>1.019557707123901</v>
+        <v>1.019562063219283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046308340579776</v>
+        <v>1.046311006045738</v>
       </c>
       <c r="J5">
-        <v>1.019617319084229</v>
+        <v>1.019623494702037</v>
       </c>
       <c r="K5">
-        <v>1.02945503577772</v>
+        <v>1.029460031372866</v>
       </c>
       <c r="L5">
-        <v>1.015828867341585</v>
+        <v>1.015835568233036</v>
       </c>
       <c r="M5">
-        <v>1.029206851863833</v>
+        <v>1.029211159098726</v>
+      </c>
+      <c r="N5">
+        <v>1.014822508515743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001002029717099</v>
+        <v>1.001008164390049</v>
       </c>
       <c r="D6">
-        <v>1.020057684046312</v>
+        <v>1.020062578387941</v>
       </c>
       <c r="E6">
-        <v>1.006288878353662</v>
+        <v>1.006295477938359</v>
       </c>
       <c r="F6">
-        <v>1.019887290757765</v>
+        <v>1.019891509898539</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046420727551127</v>
+        <v>1.046423309814639</v>
       </c>
       <c r="J6">
-        <v>1.019849254185118</v>
+        <v>1.019855237345691</v>
       </c>
       <c r="K6">
-        <v>1.029664508406098</v>
+        <v>1.029669348151395</v>
       </c>
       <c r="L6">
-        <v>1.016051889299706</v>
+        <v>1.016058412757581</v>
       </c>
       <c r="M6">
-        <v>1.029496016255025</v>
+        <v>1.029500188311932</v>
+      </c>
+      <c r="N6">
+        <v>1.014984866594195</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988181705211282</v>
+        <v>0.9988256788293755</v>
       </c>
       <c r="D7">
-        <v>1.018337183972573</v>
+        <v>1.018343172092177</v>
       </c>
       <c r="E7">
-        <v>1.004468653770691</v>
+        <v>1.00447649979752</v>
       </c>
       <c r="F7">
-        <v>1.017609943114906</v>
+        <v>1.017615112130311</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045642750734381</v>
+        <v>1.045645909269562</v>
       </c>
       <c r="J7">
-        <v>1.018246054227994</v>
+        <v>1.018253369930146</v>
       </c>
       <c r="K7">
-        <v>1.02821629147428</v>
+        <v>1.028222210526591</v>
       </c>
       <c r="L7">
-        <v>1.014510460176351</v>
+        <v>1.014518212582833</v>
       </c>
       <c r="M7">
-        <v>1.027497446118137</v>
+        <v>1.027502555408461</v>
+      </c>
+      <c r="N7">
+        <v>1.013862374222135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9894070138832084</v>
+        <v>0.9894205486690197</v>
       </c>
       <c r="D8">
-        <v>1.010925074240348</v>
+        <v>1.01093585158145</v>
       </c>
       <c r="E8">
-        <v>0.9966364533020617</v>
+        <v>0.9966497612592015</v>
       </c>
       <c r="F8">
-        <v>1.007801858780821</v>
+        <v>1.007811218138008</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042256828990896</v>
+        <v>1.042262507744751</v>
       </c>
       <c r="J8">
-        <v>1.011327022999456</v>
+        <v>1.011340153525905</v>
       </c>
       <c r="K8">
-        <v>1.021959064405427</v>
+        <v>1.021969699693106</v>
       </c>
       <c r="L8">
-        <v>1.00786217955946</v>
+        <v>1.007875305719711</v>
       </c>
       <c r="M8">
-        <v>1.018877175925747</v>
+        <v>1.018886410957901</v>
+      </c>
+      <c r="N8">
+        <v>1.009012304588781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971615397379578</v>
+        <v>0.971640859430749</v>
       </c>
       <c r="D9">
-        <v>0.9969292868206533</v>
+        <v>0.996949495864994</v>
       </c>
       <c r="E9">
-        <v>0.9818833940770096</v>
+        <v>0.9819074683289352</v>
       </c>
       <c r="F9">
-        <v>0.989283774459794</v>
+        <v>0.9893015410821258</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035730958419832</v>
+        <v>1.035741588207535</v>
       </c>
       <c r="J9">
-        <v>0.9982119036359407</v>
+        <v>0.998236390803232</v>
       </c>
       <c r="K9">
-        <v>1.010072381446365</v>
+        <v>1.010092260020324</v>
       </c>
       <c r="L9">
-        <v>0.9952774022885502</v>
+        <v>0.9953010671349126</v>
       </c>
       <c r="M9">
-        <v>1.002553141105831</v>
+        <v>1.002570611382954</v>
+      </c>
+      <c r="N9">
+        <v>0.9997983565106688</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9587866110685177</v>
+        <v>0.9588211794841091</v>
       </c>
       <c r="D10">
-        <v>0.9868575656241465</v>
+        <v>0.9868849322426747</v>
       </c>
       <c r="E10">
-        <v>0.9712902184892767</v>
+        <v>0.9713224617245995</v>
       </c>
       <c r="F10">
-        <v>0.9759482785975325</v>
+        <v>0.9759725688117904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030944981501736</v>
+        <v>1.030959360059724</v>
       </c>
       <c r="J10">
-        <v>0.988736501372756</v>
+        <v>0.9887695236871127</v>
       </c>
       <c r="K10">
-        <v>1.001468235590353</v>
+        <v>1.001495090787243</v>
       </c>
       <c r="L10">
-        <v>0.9861979340514746</v>
+        <v>0.986229549137895</v>
       </c>
       <c r="M10">
-        <v>0.9907658110802873</v>
+        <v>0.9907896339747391</v>
+      </c>
+      <c r="N10">
+        <v>0.9931289515669367</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9529608651714431</v>
+        <v>0.9529997292537274</v>
       </c>
       <c r="D11">
-        <v>0.982290845884045</v>
+        <v>0.982321575487635</v>
       </c>
       <c r="E11">
-        <v>0.9664924064920745</v>
+        <v>0.9665284853986847</v>
       </c>
       <c r="F11">
-        <v>0.9698966800270876</v>
+        <v>0.9699240794096367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028753676719125</v>
+        <v>1.028769814609345</v>
       </c>
       <c r="J11">
-        <v>0.9844304674240383</v>
+        <v>0.9844674756548861</v>
       </c>
       <c r="K11">
-        <v>0.9975546409792382</v>
+        <v>0.9975847633165703</v>
       </c>
       <c r="L11">
-        <v>0.9820751547784249</v>
+        <v>0.9821104896102144</v>
       </c>
       <c r="M11">
-        <v>0.9854095416150308</v>
+        <v>0.985436381136775</v>
+      </c>
+      <c r="N11">
+        <v>0.9900954955496506</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9507521322345951</v>
+        <v>0.950792653224859</v>
       </c>
       <c r="D12">
-        <v>0.9805607193185707</v>
+        <v>0.9805927437593919</v>
       </c>
       <c r="E12">
-        <v>0.9646755111930276</v>
+        <v>0.9647130663368777</v>
       </c>
       <c r="F12">
-        <v>0.9676029737128392</v>
+        <v>0.9676315778182056</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027920302589018</v>
+        <v>1.027937117564625</v>
       </c>
       <c r="J12">
-        <v>0.9827975680168657</v>
+        <v>0.9828361068507743</v>
       </c>
       <c r="K12">
-        <v>0.9960700682084614</v>
+        <v>0.9961014466872501</v>
       </c>
       <c r="L12">
-        <v>0.9805122759990503</v>
+        <v>0.9805490402536147</v>
       </c>
       <c r="M12">
-        <v>0.9833783312706023</v>
+        <v>0.9834063377914849</v>
+      </c>
+      <c r="N12">
+        <v>0.9889448207968711</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9512280121841301</v>
+        <v>0.9512681748357903</v>
       </c>
       <c r="D13">
-        <v>0.9809334207585305</v>
+        <v>0.9809651652754346</v>
       </c>
       <c r="E13">
-        <v>0.9650668693073435</v>
+        <v>0.965104105342018</v>
       </c>
       <c r="F13">
-        <v>0.9680971316944276</v>
+        <v>0.9681254749971847</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028099970583373</v>
+        <v>1.028116639197155</v>
       </c>
       <c r="J13">
-        <v>0.9831493955420797</v>
+        <v>0.9831876036739625</v>
       </c>
       <c r="K13">
-        <v>0.9963899585713166</v>
+        <v>0.9964210655751536</v>
       </c>
       <c r="L13">
-        <v>0.9808489924143711</v>
+        <v>0.9808854477819058</v>
       </c>
       <c r="M13">
-        <v>0.9838159837307947</v>
+        <v>0.9838437377031043</v>
+      </c>
+      <c r="N13">
+        <v>0.9891927625566709</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9527792301767529</v>
+        <v>0.9528182299148172</v>
       </c>
       <c r="D14">
-        <v>0.9821485420246453</v>
+        <v>0.9821793776889315</v>
       </c>
       <c r="E14">
-        <v>0.9663429501349244</v>
+        <v>0.9663791499741592</v>
       </c>
       <c r="F14">
-        <v>0.9697080438882387</v>
+        <v>0.9697355417905157</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028685195803985</v>
+        <v>1.028701389160681</v>
       </c>
       <c r="J14">
-        <v>0.9842961921520793</v>
+        <v>0.9843333258401267</v>
       </c>
       <c r="K14">
-        <v>0.9974325725260866</v>
+        <v>0.997462797791685</v>
       </c>
       <c r="L14">
-        <v>0.9819466265024913</v>
+        <v>0.9819820784774945</v>
       </c>
       <c r="M14">
-        <v>0.9852425144329956</v>
+        <v>0.9852694494283183</v>
+      </c>
+      <c r="N14">
+        <v>0.9900008810965517</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9537289187477984</v>
+        <v>0.9537672103774901</v>
       </c>
       <c r="D15">
-        <v>0.9828926384286626</v>
+        <v>0.9829229203721831</v>
       </c>
       <c r="E15">
-        <v>0.9671244780551673</v>
+        <v>0.9671600465049737</v>
       </c>
       <c r="F15">
-        <v>0.9706943650176992</v>
+        <v>0.9707213488824158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029043148049847</v>
+        <v>1.029059051815399</v>
       </c>
       <c r="J15">
-        <v>0.9849982448129831</v>
+        <v>0.9850347233479533</v>
       </c>
       <c r="K15">
-        <v>0.9980707826152386</v>
+        <v>0.9981004704404574</v>
       </c>
       <c r="L15">
-        <v>0.9826186528674017</v>
+        <v>0.9826534931474814</v>
       </c>
       <c r="M15">
-        <v>0.9861158064084921</v>
+        <v>0.986142243183484</v>
+      </c>
+      <c r="N15">
+        <v>0.9904955547516088</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9591672035497553</v>
+        <v>0.9592014949795217</v>
       </c>
       <c r="D16">
-        <v>0.9871560689158967</v>
+        <v>0.9871832183914044</v>
       </c>
       <c r="E16">
-        <v>0.9716039358872532</v>
+        <v>0.9716359313901483</v>
       </c>
       <c r="F16">
-        <v>0.9763437150946559</v>
+        <v>0.9763678055307367</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031087777132926</v>
+        <v>1.03110204205218</v>
       </c>
       <c r="J16">
-        <v>0.9890177580896158</v>
+        <v>0.9890505225095779</v>
       </c>
       <c r="K16">
-        <v>1.001723789950768</v>
+        <v>1.001750433959245</v>
       </c>
       <c r="L16">
-        <v>0.9864672921607429</v>
+        <v>0.9864986667155676</v>
       </c>
       <c r="M16">
-        <v>0.9911156653581769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9911392941804614</v>
+      </c>
+      <c r="N16">
+        <v>0.9933270369757904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9625032705734156</v>
+        <v>0.9625351525711816</v>
       </c>
       <c r="D17">
-        <v>0.9897733985304007</v>
+        <v>0.9897986576229045</v>
       </c>
       <c r="E17">
-        <v>0.9743552655648811</v>
+        <v>0.974385104080674</v>
       </c>
       <c r="F17">
-        <v>0.979810377463798</v>
+        <v>0.9798327336624802</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032337440374429</v>
+        <v>1.032350715764367</v>
       </c>
       <c r="J17">
-        <v>0.9914827652246304</v>
+        <v>0.9915132817574945</v>
       </c>
       <c r="K17">
-        <v>1.003963145000934</v>
+        <v>1.003987949250593</v>
       </c>
       <c r="L17">
-        <v>0.988828394195553</v>
+        <v>0.9888576729755694</v>
       </c>
       <c r="M17">
-        <v>0.9941819131855962</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9942038560691936</v>
+      </c>
+      <c r="N17">
+        <v>0.9950628216368841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9644233198956944</v>
+        <v>0.9644538298874025</v>
       </c>
       <c r="D18">
-        <v>0.9912804249722422</v>
+        <v>0.9913046064159613</v>
       </c>
       <c r="E18">
-        <v>0.9759399506972308</v>
+        <v>0.9759685593646982</v>
       </c>
       <c r="F18">
-        <v>0.9818059875671524</v>
+        <v>0.9818273591071314</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033054986969862</v>
+        <v>1.033067698073595</v>
       </c>
       <c r="J18">
-        <v>0.9929011817197985</v>
+        <v>0.9929304145974889</v>
       </c>
       <c r="K18">
-        <v>1.005251386441182</v>
+        <v>1.005275140918649</v>
       </c>
       <c r="L18">
-        <v>0.9901873311155657</v>
+        <v>0.9902154137488598</v>
       </c>
       <c r="M18">
-        <v>0.9959463417853853</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.99596732644096</v>
+      </c>
+      <c r="N18">
+        <v>0.9960613831064111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9650737428345721</v>
+        <v>0.9651037904408707</v>
       </c>
       <c r="D19">
-        <v>0.9917910378666627</v>
+        <v>0.9918148559311655</v>
       </c>
       <c r="E19">
-        <v>0.9764769619696125</v>
+        <v>0.9765051559057792</v>
       </c>
       <c r="F19">
-        <v>0.9824820739395365</v>
+        <v>0.9825031141043777</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033297768680865</v>
+        <v>1.033310289477763</v>
       </c>
       <c r="J19">
-        <v>0.9933816203893301</v>
+        <v>0.9934104200608619</v>
       </c>
       <c r="K19">
-        <v>1.00568767592704</v>
+        <v>1.005711076263048</v>
       </c>
       <c r="L19">
-        <v>0.9906476749005176</v>
+        <v>0.990675353969694</v>
       </c>
       <c r="M19">
-        <v>0.9965439906533676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9965646526659097</v>
+      </c>
+      <c r="N19">
+        <v>0.9963995680421808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9621480409250724</v>
+        <v>0.9621801779248138</v>
       </c>
       <c r="D20">
-        <v>0.9894946330531112</v>
+        <v>0.989520092341921</v>
       </c>
       <c r="E20">
-        <v>0.9740621759134545</v>
+        <v>0.9740922428836359</v>
       </c>
       <c r="F20">
-        <v>0.9794412003720688</v>
+        <v>0.9794637398095095</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032204549008199</v>
+        <v>1.032217929211202</v>
       </c>
       <c r="J20">
-        <v>0.9912203177959047</v>
+        <v>0.9912510726184884</v>
       </c>
       <c r="K20">
-        <v>1.003724756671628</v>
+        <v>1.003749755860011</v>
       </c>
       <c r="L20">
-        <v>0.9885769770835104</v>
+        <v>0.9886064779612898</v>
       </c>
       <c r="M20">
-        <v>0.993855448102814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9938775692269747</v>
+      </c>
+      <c r="N20">
+        <v>0.994878039216887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9523237075124615</v>
+        <v>0.9523630479319914</v>
       </c>
       <c r="D21">
-        <v>0.9817916791281373</v>
+        <v>0.9818227811115138</v>
       </c>
       <c r="E21">
-        <v>0.9659681630361322</v>
+        <v>0.9660046665276261</v>
       </c>
       <c r="F21">
-        <v>0.96923497362442</v>
+        <v>0.9692627190358424</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028513411393595</v>
+        <v>1.028529744022118</v>
       </c>
       <c r="J21">
-        <v>0.9839594380084011</v>
+        <v>0.9839968866534694</v>
       </c>
       <c r="K21">
-        <v>0.997126424565699</v>
+        <v>0.9971569082555397</v>
       </c>
       <c r="L21">
-        <v>0.9816242940669027</v>
+        <v>0.981660040143309</v>
       </c>
       <c r="M21">
-        <v>0.9848236193212855</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9848507941424007</v>
+      </c>
+      <c r="N21">
+        <v>0.9897635883273316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9458851266597234</v>
+        <v>0.9459293562780934</v>
       </c>
       <c r="D22">
-        <v>0.976750939671069</v>
+        <v>0.9767858576167137</v>
       </c>
       <c r="E22">
-        <v>0.9606760830072686</v>
+        <v>0.9607169356422652</v>
       </c>
       <c r="F22">
-        <v>0.9625499539568239</v>
+        <v>0.9625812655926663</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026079317184174</v>
+        <v>1.026097644644685</v>
       </c>
       <c r="J22">
-        <v>0.9791989564588008</v>
+        <v>0.9792409075529669</v>
       </c>
       <c r="K22">
-        <v>0.9927974758075402</v>
+        <v>0.9928316577855308</v>
       </c>
       <c r="L22">
-        <v>0.9770689878445992</v>
+        <v>0.9771089406783371</v>
       </c>
       <c r="M22">
-        <v>0.978901690237106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9789323157723292</v>
+      </c>
+      <c r="N22">
+        <v>0.9864083386546542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493246700608102</v>
+        <v>0.9493662704466984</v>
       </c>
       <c r="D23">
-        <v>0.9794429580779745</v>
+        <v>0.9794758253450875</v>
       </c>
       <c r="E23">
-        <v>0.9635019100018961</v>
+        <v>0.9635404258494877</v>
       </c>
       <c r="F23">
-        <v>0.9661207815129457</v>
+        <v>0.9661501720734962</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027380997265642</v>
+        <v>1.027398252879447</v>
       </c>
       <c r="J23">
-        <v>0.981742177725173</v>
+        <v>0.9817817116403511</v>
       </c>
       <c r="K23">
-        <v>0.9951104118731966</v>
+        <v>0.9951426074624797</v>
       </c>
       <c r="L23">
-        <v>0.9795022949457599</v>
+        <v>0.9795399887895763</v>
       </c>
       <c r="M23">
-        <v>0.9820654722415438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9820942400362576</v>
+      </c>
+      <c r="N23">
+        <v>0.9882010120104687</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9623086334066281</v>
+        <v>0.9623406550794324</v>
       </c>
       <c r="D24">
-        <v>0.9896206555787895</v>
+        <v>0.9896460243307604</v>
       </c>
       <c r="E24">
-        <v>0.9741946724560185</v>
+        <v>0.9742246361105784</v>
       </c>
       <c r="F24">
-        <v>0.9796080969898291</v>
+        <v>0.9796305535469809</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032264631889439</v>
+        <v>1.03227796469233</v>
       </c>
       <c r="J24">
-        <v>0.9913389661666154</v>
+        <v>0.9913696132318306</v>
       </c>
       <c r="K24">
-        <v>1.003832529329018</v>
+        <v>1.003857440361307</v>
       </c>
       <c r="L24">
-        <v>0.988690637860772</v>
+        <v>0.9887200383013617</v>
       </c>
       <c r="M24">
-        <v>0.9940030377019869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9940250782096671</v>
+      </c>
+      <c r="N24">
+        <v>0.9949615772187511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763729807605595</v>
+        <v>0.9763951787676509</v>
       </c>
       <c r="D25">
-        <v>1.000669100942399</v>
+        <v>1.000686735205494</v>
       </c>
       <c r="E25">
-        <v>0.9858214934222932</v>
+        <v>0.9858426281746756</v>
       </c>
       <c r="F25">
-        <v>0.9942327729481609</v>
+        <v>0.9942482234952156</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037490022629802</v>
+        <v>1.037499302224587</v>
       </c>
       <c r="J25">
-        <v>1.001722516806478</v>
+        <v>1.001743916160592</v>
       </c>
       <c r="K25">
-        <v>1.013257038852822</v>
+        <v>1.013274399840311</v>
       </c>
       <c r="L25">
-        <v>0.9986439736930584</v>
+        <v>0.9986647681453261</v>
       </c>
       <c r="M25">
-        <v>1.006921282328535</v>
+        <v>1.006936489456141</v>
+      </c>
+      <c r="N25">
+        <v>1.002266953691343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.986922486267489</v>
+        <v>0.993418997163655</v>
       </c>
       <c r="D2">
-        <v>1.00896923794371</v>
+        <v>1.011739533503881</v>
       </c>
       <c r="E2">
-        <v>0.9945741973291216</v>
+        <v>1.005804598554649</v>
       </c>
       <c r="F2">
-        <v>1.005208783143505</v>
+        <v>1.006797502454188</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041355491877112</v>
+        <v>1.039267284691872</v>
       </c>
       <c r="J2">
-        <v>1.009501505340138</v>
+        <v>1.015798342546442</v>
       </c>
       <c r="K2">
-        <v>1.020305015432788</v>
+        <v>1.023037705302748</v>
       </c>
       <c r="L2">
-        <v>1.006109643363667</v>
+        <v>1.017183654123596</v>
       </c>
       <c r="M2">
-        <v>1.016596025203403</v>
+        <v>1.018162942659375</v>
       </c>
       <c r="N2">
-        <v>1.007720960133676</v>
+        <v>1.017240892706556</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.994221852148314</v>
+        <v>1.000753988554871</v>
       </c>
       <c r="D3">
-        <v>1.014716747041769</v>
+        <v>1.017184664678593</v>
       </c>
       <c r="E3">
-        <v>1.000642877426783</v>
+        <v>1.012409364492074</v>
       </c>
       <c r="F3">
-        <v>1.012814914603526</v>
+        <v>1.014494941219435</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04399621419306</v>
+        <v>1.041108013669324</v>
       </c>
       <c r="J3">
-        <v>1.01487128436907</v>
+        <v>1.021224120164542</v>
       </c>
       <c r="K3">
-        <v>1.025164724558967</v>
+        <v>1.027602286614492</v>
       </c>
       <c r="L3">
-        <v>1.011267539119758</v>
+        <v>1.022885889698465</v>
       </c>
       <c r="M3">
-        <v>1.023286410479289</v>
+        <v>1.024945655968514</v>
       </c>
       <c r="N3">
-        <v>1.011490724940183</v>
+        <v>1.022674375551219</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9988002708835353</v>
+        <v>1.005357370960926</v>
       </c>
       <c r="D4">
-        <v>1.018323156072193</v>
+        <v>1.020603667531967</v>
       </c>
       <c r="E4">
-        <v>1.004455329820231</v>
+        <v>1.016560961001998</v>
       </c>
       <c r="F4">
-        <v>1.017588614043468</v>
+        <v>1.019335686867571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045636840866601</v>
+        <v>1.042250017566479</v>
       </c>
       <c r="J4">
-        <v>1.018234715722453</v>
+        <v>1.024625020401626</v>
       </c>
       <c r="K4">
-        <v>1.028205354332414</v>
+        <v>1.030459624949937</v>
       </c>
       <c r="L4">
-        <v>1.014500278712489</v>
+        <v>1.026463535711219</v>
       </c>
       <c r="M4">
-        <v>1.027479295293879</v>
+        <v>1.029206216484605</v>
       </c>
       <c r="N4">
-        <v>1.013849299352486</v>
+        <v>1.026080105456729</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000692341024518</v>
+        <v>1.007260351281011</v>
       </c>
       <c r="D5">
-        <v>1.019813757772575</v>
+        <v>1.022017318253736</v>
       </c>
       <c r="E5">
-        <v>1.006032192904358</v>
+        <v>1.018278668610726</v>
       </c>
       <c r="F5">
-        <v>1.019562063219283</v>
+        <v>1.021339139075866</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046311006045738</v>
+        <v>1.042718865770008</v>
       </c>
       <c r="J5">
-        <v>1.019623494702037</v>
+        <v>1.026029818294018</v>
       </c>
       <c r="K5">
-        <v>1.029460031372866</v>
+        <v>1.031638956130271</v>
       </c>
       <c r="L5">
-        <v>1.015835568233036</v>
+        <v>1.027942182058327</v>
       </c>
       <c r="M5">
-        <v>1.029211159098726</v>
+        <v>1.030968345033658</v>
       </c>
       <c r="N5">
-        <v>1.014822508515743</v>
+        <v>1.02748689832326</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001008164390049</v>
+        <v>1.007578029759264</v>
       </c>
       <c r="D6">
-        <v>1.020062578387941</v>
+        <v>1.022253322199561</v>
       </c>
       <c r="E6">
-        <v>1.006295477938359</v>
+        <v>1.018565503868787</v>
       </c>
       <c r="F6">
-        <v>1.019891509898539</v>
+        <v>1.021673727533708</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046423309814639</v>
+        <v>1.042796941421522</v>
       </c>
       <c r="J6">
-        <v>1.019855237345691</v>
+        <v>1.026264265490026</v>
       </c>
       <c r="K6">
-        <v>1.029669348151395</v>
+        <v>1.031835718792653</v>
       </c>
       <c r="L6">
-        <v>1.016058412757581</v>
+        <v>1.028189003600082</v>
       </c>
       <c r="M6">
-        <v>1.029500188311932</v>
+        <v>1.03126255991259</v>
       </c>
       <c r="N6">
-        <v>1.014984866594195</v>
+        <v>1.027721678461178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9988256788293755</v>
+        <v>1.005382923107971</v>
       </c>
       <c r="D7">
-        <v>1.018343172092177</v>
+        <v>1.02062264829657</v>
       </c>
       <c r="E7">
-        <v>1.00447649979752</v>
+        <v>1.016584019601573</v>
       </c>
       <c r="F7">
-        <v>1.017615112130311</v>
+        <v>1.019362578827918</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045645909269562</v>
+        <v>1.042256325917345</v>
       </c>
       <c r="J7">
-        <v>1.018253369930146</v>
+        <v>1.024643887640182</v>
       </c>
       <c r="K7">
-        <v>1.028222210526591</v>
+        <v>1.030475467809954</v>
       </c>
       <c r="L7">
-        <v>1.014518212582833</v>
+        <v>1.026483391434149</v>
       </c>
       <c r="M7">
-        <v>1.027502555408461</v>
+        <v>1.029229873975847</v>
       </c>
       <c r="N7">
-        <v>1.013862374222135</v>
+        <v>1.026098999488927</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9894205486690197</v>
+        <v>0.9959286761967701</v>
       </c>
       <c r="D8">
-        <v>1.01093585158145</v>
+        <v>1.013602158779302</v>
       </c>
       <c r="E8">
-        <v>0.9966497612592015</v>
+        <v>1.008063013560838</v>
       </c>
       <c r="F8">
-        <v>1.007811218138008</v>
+        <v>1.009429088248583</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042262507744751</v>
+        <v>1.039899841174208</v>
       </c>
       <c r="J8">
-        <v>1.011340153525905</v>
+        <v>1.017655641701046</v>
       </c>
       <c r="K8">
-        <v>1.021969699693106</v>
+        <v>1.02460097928111</v>
       </c>
       <c r="L8">
-        <v>1.007875305719711</v>
+        <v>1.019134862743401</v>
       </c>
       <c r="M8">
-        <v>1.018886410957901</v>
+        <v>1.020482833552033</v>
       </c>
       <c r="N8">
-        <v>1.009012304588781</v>
+        <v>1.019100829438995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.971640859430749</v>
+        <v>0.9780793514308681</v>
       </c>
       <c r="D9">
-        <v>0.996949495864994</v>
+        <v>1.00036784809561</v>
       </c>
       <c r="E9">
-        <v>0.9819074683289352</v>
+        <v>0.9920320925950512</v>
       </c>
       <c r="F9">
-        <v>0.9893015410821258</v>
+        <v>0.9907567928370784</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035741588207535</v>
+        <v>1.03534679551028</v>
       </c>
       <c r="J9">
-        <v>0.998236390803232</v>
+        <v>1.004430660693572</v>
       </c>
       <c r="K9">
-        <v>1.010092260020324</v>
+        <v>1.013454960038972</v>
       </c>
       <c r="L9">
-        <v>0.9953010671349126</v>
+        <v>1.005255780037206</v>
       </c>
       <c r="M9">
-        <v>1.002570611382954</v>
+        <v>1.00400163617998</v>
       </c>
       <c r="N9">
-        <v>0.9997983565106688</v>
+        <v>1.005857067441564</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9588211794841091</v>
+        <v>0.9652285502558912</v>
       </c>
       <c r="D10">
-        <v>0.9868849322426747</v>
+        <v>0.990863648924736</v>
       </c>
       <c r="E10">
-        <v>0.9713224617245995</v>
+        <v>0.980534866019246</v>
       </c>
       <c r="F10">
-        <v>0.9759725688117904</v>
+        <v>0.9773716324348893</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030959360059724</v>
+        <v>1.032002968848531</v>
       </c>
       <c r="J10">
-        <v>0.9887695236871127</v>
+        <v>0.9948930517694103</v>
       </c>
       <c r="K10">
-        <v>1.001495090787243</v>
+        <v>1.005399845929899</v>
       </c>
       <c r="L10">
-        <v>0.986229549137895</v>
+        <v>0.9952646939828582</v>
       </c>
       <c r="M10">
-        <v>0.9907896339747391</v>
+        <v>0.9921618323019064</v>
       </c>
       <c r="N10">
-        <v>0.9931289515669367</v>
+        <v>0.9963059140187509</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9529997292537274</v>
+        <v>0.9593984168918996</v>
       </c>
       <c r="D11">
-        <v>0.982321575487635</v>
+        <v>0.9865601188263212</v>
       </c>
       <c r="E11">
-        <v>0.9665284853986847</v>
+        <v>0.9753308997152236</v>
       </c>
       <c r="F11">
-        <v>0.9699240794096367</v>
+        <v>0.9713135018897708</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028769814609345</v>
+        <v>1.03047160516142</v>
       </c>
       <c r="J11">
-        <v>0.9844674756548861</v>
+        <v>0.9905635574012245</v>
       </c>
       <c r="K11">
-        <v>0.9975847633165703</v>
+        <v>1.001740021734982</v>
       </c>
       <c r="L11">
-        <v>0.9821104896102144</v>
+        <v>0.99073353231763</v>
       </c>
       <c r="M11">
-        <v>0.985436381136775</v>
+        <v>0.9867974676608533</v>
       </c>
       <c r="N11">
-        <v>0.9900954955496506</v>
+        <v>0.9919702712719622</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.950792653224859</v>
+        <v>0.9571889623455424</v>
       </c>
       <c r="D12">
-        <v>0.9805927437593919</v>
+        <v>0.9849307062956981</v>
       </c>
       <c r="E12">
-        <v>0.9647130663368777</v>
+        <v>0.9733607082603069</v>
       </c>
       <c r="F12">
-        <v>0.9676315778182056</v>
+        <v>0.9690198706915298</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027937117564625</v>
+        <v>1.029889230397352</v>
       </c>
       <c r="J12">
-        <v>0.9828361068507743</v>
+        <v>0.9889225595022473</v>
       </c>
       <c r="K12">
-        <v>0.9961014466872501</v>
+        <v>1.000352419038734</v>
       </c>
       <c r="L12">
-        <v>0.9805490402536147</v>
+        <v>0.989016711929553</v>
       </c>
       <c r="M12">
-        <v>0.9834063377914849</v>
+        <v>0.9847656830915458</v>
       </c>
       <c r="N12">
-        <v>0.9889448207968711</v>
+        <v>0.9903269429677436</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9512681748357903</v>
+        <v>0.9576649534970344</v>
       </c>
       <c r="D13">
-        <v>0.9809651652754346</v>
+        <v>0.9852816646372179</v>
       </c>
       <c r="E13">
-        <v>0.965104105342018</v>
+        <v>0.9737850628785515</v>
       </c>
       <c r="F13">
-        <v>0.9681254749971847</v>
+        <v>0.9695138947784588</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028116639197155</v>
+        <v>1.030014783158004</v>
       </c>
       <c r="J13">
-        <v>0.9831876036739625</v>
+        <v>0.9892760945887997</v>
       </c>
       <c r="K13">
-        <v>0.9964210655751536</v>
+        <v>1.000651381086193</v>
       </c>
       <c r="L13">
-        <v>0.9808854477819058</v>
+        <v>0.9893865546200052</v>
       </c>
       <c r="M13">
-        <v>0.9838437377031043</v>
+        <v>0.9852033443635614</v>
       </c>
       <c r="N13">
-        <v>0.9891927625566709</v>
+        <v>0.9906809801146699</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9528182299148172</v>
+        <v>0.9592167028371305</v>
       </c>
       <c r="D14">
-        <v>0.9821793776889315</v>
+        <v>0.9864260776491777</v>
       </c>
       <c r="E14">
-        <v>0.9663791499741592</v>
+        <v>0.9751688228599377</v>
       </c>
       <c r="F14">
-        <v>0.9697355417905157</v>
+        <v>0.971124819298296</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028701389160681</v>
+        <v>1.030423748843597</v>
       </c>
       <c r="J14">
-        <v>0.9843333258401267</v>
+        <v>0.9904285995293077</v>
       </c>
       <c r="K14">
-        <v>0.997462797791685</v>
+        <v>1.00162591170146</v>
       </c>
       <c r="L14">
-        <v>0.9819820784774945</v>
+        <v>0.9905923263181005</v>
       </c>
       <c r="M14">
-        <v>0.9852694494283183</v>
+        <v>0.9866303418637152</v>
       </c>
       <c r="N14">
-        <v>0.9900008810965517</v>
+        <v>0.9918351217443875</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9537672103774901</v>
+        <v>0.9601668436611484</v>
       </c>
       <c r="D15">
-        <v>0.9829229203721831</v>
+        <v>0.9871270106234045</v>
       </c>
       <c r="E15">
-        <v>0.9671600465049737</v>
+        <v>0.9760163659935344</v>
       </c>
       <c r="F15">
-        <v>0.9707213488824158</v>
+        <v>0.9721114878567769</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029059051815399</v>
+        <v>1.030673896718854</v>
       </c>
       <c r="J15">
-        <v>0.9850347233479533</v>
+        <v>0.99113425402307</v>
       </c>
       <c r="K15">
-        <v>0.9981004704404574</v>
+        <v>1.002222542075591</v>
       </c>
       <c r="L15">
-        <v>0.9826534931474814</v>
+        <v>0.9913306753060785</v>
       </c>
       <c r="M15">
-        <v>0.986142243183484</v>
+        <v>0.9875042516134557</v>
       </c>
       <c r="N15">
-        <v>0.9904955547516088</v>
+        <v>0.9925417783484705</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9592014949795217</v>
+        <v>0.9656095532046923</v>
       </c>
       <c r="D16">
-        <v>0.9871832183914044</v>
+        <v>0.9911450799570399</v>
       </c>
       <c r="E16">
-        <v>0.9716359313901483</v>
+        <v>0.9808752103397019</v>
       </c>
       <c r="F16">
-        <v>0.9763678055307367</v>
+        <v>0.9777678383057611</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03110204205218</v>
+        <v>1.032102758028874</v>
       </c>
       <c r="J16">
-        <v>0.9890505225095779</v>
+        <v>0.995175946239422</v>
       </c>
       <c r="K16">
-        <v>1.001750433959245</v>
+        <v>1.005638920700372</v>
       </c>
       <c r="L16">
-        <v>0.9864986667155676</v>
+        <v>0.9955608509929122</v>
       </c>
       <c r="M16">
-        <v>0.9911392941804614</v>
+        <v>0.992512551065678</v>
       </c>
       <c r="N16">
-        <v>0.9933270369757904</v>
+        <v>0.9965892102313583</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9625351525711816</v>
+        <v>0.9689498599211617</v>
       </c>
       <c r="D17">
-        <v>0.9897986576229045</v>
+        <v>0.9936133907160735</v>
       </c>
       <c r="E17">
-        <v>0.974385104080674</v>
+        <v>0.9838604342069274</v>
       </c>
       <c r="F17">
-        <v>0.9798327336624802</v>
+        <v>0.9812430636039068</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032350715764367</v>
+        <v>1.032976021472022</v>
       </c>
       <c r="J17">
-        <v>0.9915132817574945</v>
+        <v>0.9976558561331546</v>
       </c>
       <c r="K17">
-        <v>1.003987949250593</v>
+        <v>1.007734334719598</v>
       </c>
       <c r="L17">
-        <v>0.9888576729755694</v>
+        <v>0.9981574927190751</v>
       </c>
       <c r="M17">
-        <v>0.9942038560691936</v>
+        <v>0.9955881618352281</v>
       </c>
       <c r="N17">
-        <v>0.9950628216368841</v>
+        <v>0.9990726418815897</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9644538298874025</v>
+        <v>0.9708728681022424</v>
       </c>
       <c r="D18">
-        <v>0.9913046064159613</v>
+        <v>0.9950351554597114</v>
       </c>
       <c r="E18">
-        <v>0.9759685593646982</v>
+        <v>0.9855801445443253</v>
       </c>
       <c r="F18">
-        <v>0.9818273591071314</v>
+        <v>0.9832450936284943</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033067698073595</v>
+        <v>1.033477403686262</v>
       </c>
       <c r="J18">
-        <v>0.9929304145974889</v>
+        <v>0.9990832931983477</v>
       </c>
       <c r="K18">
-        <v>1.005275140918649</v>
+        <v>1.008940142461803</v>
       </c>
       <c r="L18">
-        <v>0.9902154137488598</v>
+        <v>0.9996525139404555</v>
       </c>
       <c r="M18">
-        <v>0.99596732644096</v>
+        <v>0.9973594448477843</v>
       </c>
       <c r="N18">
-        <v>0.9960613831064111</v>
+        <v>1.000502106071145</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9651037904408707</v>
+        <v>0.9715243787077832</v>
       </c>
       <c r="D19">
-        <v>0.9918148559311655</v>
+        <v>0.9955169683923496</v>
       </c>
       <c r="E19">
-        <v>0.9765051559057792</v>
+        <v>0.9861629646526583</v>
       </c>
       <c r="F19">
-        <v>0.9825031141043777</v>
+        <v>0.9839236039078729</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033310289477763</v>
+        <v>1.033647037694661</v>
       </c>
       <c r="J19">
-        <v>0.9934104200608619</v>
+        <v>0.9995668607656858</v>
       </c>
       <c r="K19">
-        <v>1.005711076263048</v>
+        <v>1.009348574475803</v>
       </c>
       <c r="L19">
-        <v>0.990675353969694</v>
+        <v>1.000159043840806</v>
       </c>
       <c r="M19">
-        <v>0.9965646526659097</v>
+        <v>0.9979596607619486</v>
       </c>
       <c r="N19">
-        <v>0.9963995680421808</v>
+        <v>1.000986360359895</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9621801779248138</v>
+        <v>0.9685941242480833</v>
       </c>
       <c r="D20">
-        <v>0.989520092341921</v>
+        <v>0.9933504397776451</v>
       </c>
       <c r="E20">
-        <v>0.9740922428836359</v>
+        <v>0.9835423964108655</v>
       </c>
       <c r="F20">
-        <v>0.9794637398095095</v>
+        <v>0.9808728186987192</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032217929211202</v>
+        <v>1.032883160657204</v>
       </c>
       <c r="J20">
-        <v>0.9912510726184884</v>
+        <v>0.9973917752356407</v>
       </c>
       <c r="K20">
-        <v>1.003749755860011</v>
+        <v>1.007511230187409</v>
       </c>
       <c r="L20">
-        <v>0.9886064779612898</v>
+        <v>0.9978809404781129</v>
       </c>
       <c r="M20">
-        <v>0.9938775692269747</v>
+        <v>0.9952605465370477</v>
       </c>
       <c r="N20">
-        <v>0.994878039216887</v>
+        <v>0.9988081859589107</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9523630479319914</v>
+        <v>0.9587609974034317</v>
       </c>
       <c r="D21">
-        <v>0.9818227811115138</v>
+        <v>0.9860899520915989</v>
       </c>
       <c r="E21">
-        <v>0.9660046665276261</v>
+        <v>0.9747623960124717</v>
       </c>
       <c r="F21">
-        <v>0.9692627190358424</v>
+        <v>0.9706516740820444</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028529744022118</v>
+        <v>1.030303701783725</v>
       </c>
       <c r="J21">
-        <v>0.9839968866534694</v>
+        <v>0.9900901465717742</v>
       </c>
       <c r="K21">
-        <v>0.9971569082555397</v>
+        <v>1.001339735171919</v>
       </c>
       <c r="L21">
-        <v>0.981660040143309</v>
+        <v>0.9902382138843572</v>
       </c>
       <c r="M21">
-        <v>0.9848507941424007</v>
+        <v>0.9862112400194136</v>
       </c>
       <c r="N21">
-        <v>0.9897635883273316</v>
+        <v>0.9914961881448335</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9459293562780934</v>
+        <v>0.9523222318425955</v>
       </c>
       <c r="D22">
-        <v>0.9767858576167137</v>
+        <v>0.9813447049998791</v>
       </c>
       <c r="E22">
-        <v>0.9607169356422652</v>
+        <v>0.9690248048000606</v>
       </c>
       <c r="F22">
-        <v>0.9625812655926663</v>
+        <v>0.9639719108653125</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.026097644644685</v>
+        <v>1.028602840225995</v>
       </c>
       <c r="J22">
-        <v>0.9792409075529669</v>
+        <v>0.9853076696954876</v>
       </c>
       <c r="K22">
-        <v>0.9928316577855308</v>
+        <v>0.9972950123751375</v>
       </c>
       <c r="L22">
-        <v>0.9771089406783371</v>
+        <v>0.9852359153325567</v>
       </c>
       <c r="M22">
-        <v>0.9789323157723292</v>
+        <v>0.9802925489359617</v>
       </c>
       <c r="N22">
-        <v>0.9864083386546542</v>
+        <v>0.9867069196028246</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9493662704466984</v>
+        <v>0.9557613133273332</v>
       </c>
       <c r="D23">
-        <v>0.9794758253450875</v>
+        <v>0.9838783118461425</v>
       </c>
       <c r="E23">
-        <v>0.9635404258494877</v>
+        <v>0.9720882339763723</v>
       </c>
       <c r="F23">
-        <v>0.9661501720734962</v>
+        <v>0.9675384667500908</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027398252879447</v>
+        <v>1.029512370061945</v>
       </c>
       <c r="J23">
-        <v>0.9817817116403511</v>
+        <v>0.9878621705320811</v>
       </c>
       <c r="K23">
-        <v>0.9951426074624797</v>
+        <v>0.9994556584913054</v>
       </c>
       <c r="L23">
-        <v>0.9795399887895763</v>
+        <v>0.9879074991923825</v>
       </c>
       <c r="M23">
-        <v>0.9820942400362576</v>
+        <v>0.9834531747442287</v>
       </c>
       <c r="N23">
-        <v>0.9882010120104687</v>
+        <v>0.9892650481236113</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9623406550794324</v>
+        <v>0.9687549438887475</v>
       </c>
       <c r="D24">
-        <v>0.9896460243307604</v>
+        <v>0.9934693112933368</v>
       </c>
       <c r="E24">
-        <v>0.9742246361105784</v>
+        <v>0.9836861702599307</v>
       </c>
       <c r="F24">
-        <v>0.9796305535469809</v>
+        <v>0.9810401934294314</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03227796469233</v>
+        <v>1.0329251450399</v>
       </c>
       <c r="J24">
-        <v>0.9913696132318306</v>
+        <v>0.9975111606937407</v>
       </c>
       <c r="K24">
-        <v>1.003857440361307</v>
+        <v>1.007612092065222</v>
       </c>
       <c r="L24">
-        <v>0.9887200383013617</v>
+        <v>0.998005962746995</v>
       </c>
       <c r="M24">
-        <v>0.9940250782096671</v>
+        <v>0.9954086515811864</v>
       </c>
       <c r="N24">
-        <v>0.9949615772187511</v>
+        <v>0.9989277409580553</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9763951787676509</v>
+        <v>0.9828493100254474</v>
       </c>
       <c r="D25">
-        <v>1.000686735205494</v>
+        <v>1.003901221012301</v>
       </c>
       <c r="E25">
-        <v>0.9858426281746756</v>
+        <v>0.9963090212992638</v>
       </c>
       <c r="F25">
-        <v>0.9942482234952156</v>
+        <v>0.9957369829937313</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037499302224587</v>
+        <v>1.036575092972801</v>
       </c>
       <c r="J25">
-        <v>1.001743916160592</v>
+        <v>1.007967977211753</v>
       </c>
       <c r="K25">
-        <v>1.013274399840311</v>
+        <v>1.016439275921907</v>
       </c>
       <c r="L25">
-        <v>0.9986647681453261</v>
+        <v>1.008964906459195</v>
       </c>
       <c r="M25">
-        <v>1.006936489456141</v>
+        <v>1.008401839256199</v>
       </c>
       <c r="N25">
-        <v>1.002266953691343</v>
+        <v>1.009399407354937</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.993418997163655</v>
+        <v>1.002682104421545</v>
       </c>
       <c r="D2">
-        <v>1.011739533503881</v>
+        <v>1.018948104791259</v>
       </c>
       <c r="E2">
-        <v>1.005804598554649</v>
+        <v>1.008757458715029</v>
       </c>
       <c r="F2">
-        <v>1.006797502454188</v>
+        <v>0.9659092862044506</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039267284691872</v>
+        <v>1.040119037888065</v>
       </c>
       <c r="J2">
-        <v>1.015798342546442</v>
+        <v>1.024782889081183</v>
       </c>
       <c r="K2">
-        <v>1.023037705302748</v>
+        <v>1.030149626055661</v>
       </c>
       <c r="L2">
-        <v>1.017183654123596</v>
+        <v>1.020096121722599</v>
       </c>
       <c r="M2">
-        <v>1.018162942659375</v>
+        <v>0.9778649158756184</v>
       </c>
       <c r="N2">
-        <v>1.017240892706556</v>
+        <v>1.026238198327918</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000753988554871</v>
+        <v>1.006768613528586</v>
       </c>
       <c r="D3">
-        <v>1.017184664678593</v>
+        <v>1.022039419227737</v>
       </c>
       <c r="E3">
-        <v>1.012409364492074</v>
+        <v>1.011991421496269</v>
       </c>
       <c r="F3">
-        <v>1.014494941219435</v>
+        <v>0.9773535556913524</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041108013669324</v>
+        <v>1.041630765309863</v>
       </c>
       <c r="J3">
-        <v>1.021224120164542</v>
+        <v>1.027076444741281</v>
       </c>
       <c r="K3">
-        <v>1.027602286614492</v>
+        <v>1.032397858786713</v>
       </c>
       <c r="L3">
-        <v>1.022885889698465</v>
+        <v>1.022473134973729</v>
       </c>
       <c r="M3">
-        <v>1.024945655968514</v>
+        <v>0.9882846441614597</v>
       </c>
       <c r="N3">
-        <v>1.022674375551219</v>
+        <v>1.028535011100129</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.005357370960926</v>
+        <v>1.009355281876885</v>
       </c>
       <c r="D4">
-        <v>1.020603667531967</v>
+        <v>1.023995813488462</v>
       </c>
       <c r="E4">
-        <v>1.016560961001998</v>
+        <v>1.014043781583752</v>
       </c>
       <c r="F4">
-        <v>1.019335686867571</v>
+        <v>0.9844433733978906</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042250017566479</v>
+        <v>1.042570936942405</v>
       </c>
       <c r="J4">
-        <v>1.024625020401626</v>
+        <v>1.028522668688273</v>
       </c>
       <c r="K4">
-        <v>1.030459624949937</v>
+        <v>1.033813005685464</v>
       </c>
       <c r="L4">
-        <v>1.026463535711219</v>
+        <v>1.023975614594964</v>
       </c>
       <c r="M4">
-        <v>1.029206216484605</v>
+        <v>0.994733251583554</v>
       </c>
       <c r="N4">
-        <v>1.026080105456729</v>
+        <v>1.02998328885101</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007260351281011</v>
+        <v>1.010429538203009</v>
       </c>
       <c r="D5">
-        <v>1.022017318253736</v>
+        <v>1.024808260574469</v>
       </c>
       <c r="E5">
-        <v>1.018278668610726</v>
+        <v>1.014897393063954</v>
       </c>
       <c r="F5">
-        <v>1.021339139075866</v>
+        <v>0.9873547346762426</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042718865770008</v>
+        <v>1.042957533310525</v>
       </c>
       <c r="J5">
-        <v>1.026029818294018</v>
+        <v>1.0291219986076</v>
       </c>
       <c r="K5">
-        <v>1.031638956130271</v>
+        <v>1.034398882820818</v>
       </c>
       <c r="L5">
-        <v>1.027942182058327</v>
+        <v>1.024599106749408</v>
       </c>
       <c r="M5">
-        <v>1.030968345033658</v>
+        <v>0.9973797118259656</v>
       </c>
       <c r="N5">
-        <v>1.02748689832326</v>
+        <v>1.030583469887566</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007578029759264</v>
+        <v>1.01060915436664</v>
       </c>
       <c r="D6">
-        <v>1.022253322199561</v>
+        <v>1.024944099638824</v>
       </c>
       <c r="E6">
-        <v>1.018565503868787</v>
+        <v>1.015040190443768</v>
       </c>
       <c r="F6">
-        <v>1.021673727533708</v>
+        <v>0.9878396750024385</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042796941421522</v>
+        <v>1.043021949294777</v>
       </c>
       <c r="J6">
-        <v>1.026264265490026</v>
+        <v>1.02922213168045</v>
       </c>
       <c r="K6">
-        <v>1.031835718792653</v>
+        <v>1.034496735164717</v>
       </c>
       <c r="L6">
-        <v>1.028189003600082</v>
+        <v>1.024703326095987</v>
       </c>
       <c r="M6">
-        <v>1.03126255991259</v>
+        <v>0.9978204332645769</v>
       </c>
       <c r="N6">
-        <v>1.027721678461178</v>
+        <v>1.030683745160865</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.005382923107971</v>
+        <v>1.009369687164582</v>
       </c>
       <c r="D7">
-        <v>1.02062264829657</v>
+        <v>1.024006708213082</v>
       </c>
       <c r="E7">
-        <v>1.016584019601573</v>
+        <v>1.014055223193433</v>
       </c>
       <c r="F7">
-        <v>1.019362578827918</v>
+        <v>0.9844825393429624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042256325917345</v>
+        <v>1.042576136101723</v>
       </c>
       <c r="J7">
-        <v>1.024643887640182</v>
+        <v>1.02853071050065</v>
       </c>
       <c r="K7">
-        <v>1.030475467809954</v>
+        <v>1.033820869228549</v>
       </c>
       <c r="L7">
-        <v>1.026483391434149</v>
+        <v>1.023983977284045</v>
       </c>
       <c r="M7">
-        <v>1.029229873975847</v>
+        <v>0.9947688602407339</v>
       </c>
       <c r="N7">
-        <v>1.026098999488927</v>
+        <v>1.029991342083683</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9959286761967701</v>
+        <v>1.00407546228634</v>
       </c>
       <c r="D8">
-        <v>1.013602158779302</v>
+        <v>1.020002226679109</v>
       </c>
       <c r="E8">
-        <v>1.008063013560838</v>
+        <v>1.009858993747303</v>
       </c>
       <c r="F8">
-        <v>1.009429088248583</v>
+        <v>0.9698463156222458</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039899841174208</v>
+        <v>1.040638093281089</v>
       </c>
       <c r="J8">
-        <v>1.017655641701046</v>
+        <v>1.025566100964688</v>
       </c>
       <c r="K8">
-        <v>1.02460097928111</v>
+        <v>1.030917903615518</v>
       </c>
       <c r="L8">
-        <v>1.019134862743401</v>
+        <v>1.020907054446216</v>
       </c>
       <c r="M8">
-        <v>1.020482833552033</v>
+        <v>0.9814508459321443</v>
       </c>
       <c r="N8">
-        <v>1.019100829438995</v>
+        <v>1.027022522462134</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9780793514308681</v>
+        <v>0.9942749940404418</v>
       </c>
       <c r="D9">
-        <v>1.00036784809561</v>
+        <v>1.012584683525367</v>
       </c>
       <c r="E9">
-        <v>0.9920320925950512</v>
+        <v>1.002134774150075</v>
       </c>
       <c r="F9">
-        <v>0.9907567928370784</v>
+        <v>0.9413005633916952</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03534679551028</v>
+        <v>1.036908221691242</v>
       </c>
       <c r="J9">
-        <v>1.004430660693572</v>
+        <v>1.020031549503214</v>
       </c>
       <c r="K9">
-        <v>1.013454960038972</v>
+        <v>1.025476830165318</v>
       </c>
       <c r="L9">
-        <v>1.005255780037206</v>
+        <v>1.015193310824781</v>
       </c>
       <c r="M9">
-        <v>1.00400163617998</v>
+        <v>0.9554236526721225</v>
       </c>
       <c r="N9">
-        <v>1.005857067441564</v>
+        <v>1.021480111302762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9652285502558912</v>
+        <v>0.9873754856860698</v>
       </c>
       <c r="D10">
-        <v>0.990863648924736</v>
+        <v>1.007355613207747</v>
       </c>
       <c r="E10">
-        <v>0.980534866019246</v>
+        <v>0.9967279676993678</v>
       </c>
       <c r="F10">
-        <v>0.9773716324348893</v>
+        <v>0.9198241856936721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032002968848531</v>
+        <v>1.034169798646194</v>
       </c>
       <c r="J10">
-        <v>0.9948930517694103</v>
+        <v>1.016099098449196</v>
       </c>
       <c r="K10">
-        <v>1.005399845929899</v>
+        <v>1.021593317782538</v>
       </c>
       <c r="L10">
-        <v>0.9952646939828582</v>
+        <v>1.011156552082151</v>
       </c>
       <c r="M10">
-        <v>0.9921618323019064</v>
+        <v>0.9358094388777765</v>
       </c>
       <c r="N10">
-        <v>0.9963059140187509</v>
+        <v>1.01754207571719</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9593984168918996</v>
+        <v>0.9842877015851318</v>
       </c>
       <c r="D11">
-        <v>0.9865601188263212</v>
+        <v>1.005012258184768</v>
       </c>
       <c r="E11">
-        <v>0.9753308997152236</v>
+        <v>0.994315816922089</v>
       </c>
       <c r="F11">
-        <v>0.9713135018897708</v>
+        <v>0.9097626747998516</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03047160516142</v>
+        <v>1.032912409380303</v>
       </c>
       <c r="J11">
-        <v>0.9905635574012245</v>
+        <v>1.01432906072528</v>
       </c>
       <c r="K11">
-        <v>1.001740021734982</v>
+        <v>1.019840265664597</v>
       </c>
       <c r="L11">
-        <v>0.99073353231763</v>
+        <v>1.009345730672702</v>
       </c>
       <c r="M11">
-        <v>0.9867974676608533</v>
+        <v>0.9266136580522349</v>
       </c>
       <c r="N11">
-        <v>0.9919702712719622</v>
+        <v>1.01576952433668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9571889623455424</v>
+        <v>0.9831242929705936</v>
       </c>
       <c r="D12">
-        <v>0.9849307062956981</v>
+        <v>1.00412867600748</v>
       </c>
       <c r="E12">
-        <v>0.9733607082603069</v>
+        <v>0.9934081225914191</v>
       </c>
       <c r="F12">
-        <v>0.9690198706915298</v>
+        <v>0.9058900942548774</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029889230397352</v>
+        <v>1.032433274186462</v>
       </c>
       <c r="J12">
-        <v>0.9889225595022473</v>
+        <v>1.013660442174043</v>
       </c>
       <c r="K12">
-        <v>1.000352419038734</v>
+        <v>1.01917720227339</v>
       </c>
       <c r="L12">
-        <v>0.989016711929553</v>
+        <v>1.008662711697405</v>
       </c>
       <c r="M12">
-        <v>0.9847656830915458</v>
+        <v>0.9230734127925667</v>
       </c>
       <c r="N12">
-        <v>0.9903269429677436</v>
+        <v>1.015099956270408</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9576649534970344</v>
+        <v>0.9833746189381631</v>
       </c>
       <c r="D13">
-        <v>0.9852816646372179</v>
+        <v>1.004318826219052</v>
       </c>
       <c r="E13">
-        <v>0.9737850628785515</v>
+        <v>0.9936033755433586</v>
       </c>
       <c r="F13">
-        <v>0.9695138947784588</v>
+        <v>0.9067272954574856</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030014783158004</v>
+        <v>1.032536622110133</v>
       </c>
       <c r="J13">
-        <v>0.9892760945887997</v>
+        <v>1.013804386919263</v>
       </c>
       <c r="K13">
-        <v>1.000651381086193</v>
+        <v>1.019319991917741</v>
       </c>
       <c r="L13">
-        <v>0.9893865546200052</v>
+        <v>1.008809709793356</v>
       </c>
       <c r="M13">
-        <v>0.9852033443635614</v>
+        <v>0.9238388044753095</v>
       </c>
       <c r="N13">
-        <v>0.9906809801146699</v>
+        <v>1.015244105433677</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9592167028371305</v>
+        <v>0.9841918789411921</v>
       </c>
       <c r="D14">
-        <v>0.9864260776491777</v>
+        <v>1.00493949773579</v>
       </c>
       <c r="E14">
-        <v>0.9751688228599377</v>
+        <v>0.9942410324717589</v>
       </c>
       <c r="F14">
-        <v>0.971124819298296</v>
+        <v>0.9094454668548577</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030423748843597</v>
+        <v>1.032873059293862</v>
       </c>
       <c r="J14">
-        <v>0.9904285995293077</v>
+        <v>1.014274026791048</v>
       </c>
       <c r="K14">
-        <v>1.00162591170146</v>
+        <v>1.019785707145977</v>
       </c>
       <c r="L14">
-        <v>0.9905923263181005</v>
+        <v>1.009289490516715</v>
       </c>
       <c r="M14">
-        <v>0.9866303418637152</v>
+        <v>0.9263236889201611</v>
       </c>
       <c r="N14">
-        <v>0.9918351217443875</v>
+        <v>1.015714412247948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9601668436611484</v>
+        <v>0.9846931908369104</v>
       </c>
       <c r="D15">
-        <v>0.9871270106234045</v>
+        <v>1.005320127921151</v>
       </c>
       <c r="E15">
-        <v>0.9760163659935344</v>
+        <v>0.9946323264803952</v>
       </c>
       <c r="F15">
-        <v>0.9721114878567769</v>
+        <v>0.9111015755346795</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030673896718854</v>
+        <v>1.033078702755224</v>
       </c>
       <c r="J15">
-        <v>0.99113425402307</v>
+        <v>1.014561875063392</v>
       </c>
       <c r="K15">
-        <v>1.002222542075591</v>
+        <v>1.020071033104185</v>
       </c>
       <c r="L15">
-        <v>0.9913306753060785</v>
+        <v>1.00958368919401</v>
       </c>
       <c r="M15">
-        <v>0.9875042516134557</v>
+        <v>0.9278375521677817</v>
       </c>
       <c r="N15">
-        <v>0.9925417783484705</v>
+        <v>1.016002669297855</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9656095532046923</v>
+        <v>0.9875781855507851</v>
       </c>
       <c r="D16">
-        <v>0.9911450799570399</v>
+        <v>1.007509364786203</v>
       </c>
       <c r="E16">
-        <v>0.9808752103397019</v>
+        <v>0.9968864740157153</v>
       </c>
       <c r="F16">
-        <v>0.9777678383057611</v>
+        <v>0.9204742282658638</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032102758028874</v>
+        <v>1.034251632525244</v>
       </c>
       <c r="J16">
-        <v>0.995175946239422</v>
+        <v>1.016215069023519</v>
       </c>
       <c r="K16">
-        <v>1.005638920700372</v>
+        <v>1.021708062851858</v>
       </c>
       <c r="L16">
-        <v>0.9955608509929122</v>
+        <v>1.011275328816565</v>
       </c>
       <c r="M16">
-        <v>0.992512551065678</v>
+        <v>0.9364034230564837</v>
       </c>
       <c r="N16">
-        <v>0.9965892102313583</v>
+        <v>1.01765821098303</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9689498599211617</v>
+        <v>0.9893601139693606</v>
       </c>
       <c r="D17">
-        <v>0.9936133907160735</v>
+        <v>1.008860617291655</v>
       </c>
       <c r="E17">
-        <v>0.9838604342069274</v>
+        <v>0.9982807626476387</v>
       </c>
       <c r="F17">
-        <v>0.9812430636039068</v>
+        <v>0.9261363849236786</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032976021472022</v>
+        <v>1.03496736440971</v>
       </c>
       <c r="J17">
-        <v>0.9976558561331546</v>
+        <v>1.017233398163475</v>
       </c>
       <c r="K17">
-        <v>1.007734334719598</v>
+        <v>1.022715051174585</v>
       </c>
       <c r="L17">
-        <v>0.9981574927190751</v>
+        <v>1.012319003622685</v>
       </c>
       <c r="M17">
-        <v>0.9955881618352281</v>
+        <v>0.9415765588929611</v>
       </c>
       <c r="N17">
-        <v>0.9990726418815897</v>
+        <v>1.018677986267169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9708728681022424</v>
+        <v>0.9903899171865483</v>
       </c>
       <c r="D18">
-        <v>0.9950351554597114</v>
+        <v>1.009641242967414</v>
       </c>
       <c r="E18">
-        <v>0.9855801445443253</v>
+        <v>0.9990872610974318</v>
       </c>
       <c r="F18">
-        <v>0.9832450936284943</v>
+        <v>0.9293671471107963</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033477403686262</v>
+        <v>1.035378030975237</v>
       </c>
       <c r="J18">
-        <v>0.9990832931983477</v>
+        <v>1.017820963405583</v>
       </c>
       <c r="K18">
-        <v>1.008940142461803</v>
+        <v>1.02329560564484</v>
       </c>
       <c r="L18">
-        <v>0.9996525139404555</v>
+        <v>1.01292176822473</v>
       </c>
       <c r="M18">
-        <v>0.9973594448477843</v>
+        <v>0.9445276679200966</v>
       </c>
       <c r="N18">
-        <v>1.000502106071145</v>
+        <v>1.019266385919315</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9715243787077832</v>
+        <v>0.9907394694922783</v>
       </c>
       <c r="D19">
-        <v>0.9955169683923496</v>
+        <v>1.009906171880716</v>
       </c>
       <c r="E19">
-        <v>0.9861629646526583</v>
+        <v>0.9993611370897951</v>
       </c>
       <c r="F19">
-        <v>0.9839236039078729</v>
+        <v>0.930457106636529</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033647037694661</v>
+        <v>1.035516938078075</v>
       </c>
       <c r="J19">
-        <v>0.9995668607656858</v>
+        <v>1.018020249014714</v>
       </c>
       <c r="K19">
-        <v>1.009348574475803</v>
+        <v>1.023492436767789</v>
       </c>
       <c r="L19">
-        <v>1.000159043840806</v>
+        <v>1.013126304563625</v>
       </c>
       <c r="M19">
-        <v>0.9979596607619486</v>
+        <v>0.9455231721459515</v>
       </c>
       <c r="N19">
-        <v>1.000986360359895</v>
+        <v>1.019465954536869</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9685941242480833</v>
+        <v>0.9891699286322146</v>
       </c>
       <c r="D20">
-        <v>0.9933504397776451</v>
+        <v>1.008716428561643</v>
       </c>
       <c r="E20">
-        <v>0.9835423964108655</v>
+        <v>0.9981318754907342</v>
       </c>
       <c r="F20">
-        <v>0.9808728186987192</v>
+        <v>0.9255364565362568</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032883160657204</v>
+        <v>1.034891285848861</v>
       </c>
       <c r="J20">
-        <v>0.9973917752356407</v>
+        <v>1.017124810807034</v>
       </c>
       <c r="K20">
-        <v>1.007511230187409</v>
+        <v>1.022607722296638</v>
       </c>
       <c r="L20">
-        <v>0.9978809404781129</v>
+        <v>1.012207653346708</v>
       </c>
       <c r="M20">
-        <v>0.9952605465370477</v>
+        <v>0.9410285084833662</v>
       </c>
       <c r="N20">
-        <v>0.9988081859589107</v>
+        <v>1.018569244704226</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9587609974034317</v>
+        <v>0.9839516835360291</v>
       </c>
       <c r="D21">
-        <v>0.9860899520915989</v>
+        <v>1.00475710022599</v>
       </c>
       <c r="E21">
-        <v>0.9747623960124717</v>
+        <v>0.9940535913353262</v>
       </c>
       <c r="F21">
-        <v>0.9706516740820444</v>
+        <v>0.9086489637126267</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030303701783725</v>
+        <v>1.032774332836855</v>
       </c>
       <c r="J21">
-        <v>0.9900901465717742</v>
+        <v>1.014136046843578</v>
       </c>
       <c r="K21">
-        <v>1.001339735171919</v>
+        <v>1.019648904894463</v>
       </c>
       <c r="L21">
-        <v>0.9902382138843572</v>
+        <v>1.009148502832044</v>
       </c>
       <c r="M21">
-        <v>0.9862112400194136</v>
+        <v>0.925595568390814</v>
       </c>
       <c r="N21">
-        <v>0.9914961881448335</v>
+        <v>1.015576236353126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9523222318425955</v>
+        <v>0.9805745649499545</v>
       </c>
       <c r="D22">
-        <v>0.9813447049998791</v>
+        <v>1.00219073756978</v>
       </c>
       <c r="E22">
-        <v>0.9690248048000606</v>
+        <v>0.9914209365016962</v>
       </c>
       <c r="F22">
-        <v>0.9639719108653125</v>
+        <v>0.8972333793874231</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028602840225995</v>
+        <v>1.031372473134802</v>
       </c>
       <c r="J22">
-        <v>0.9853076696954876</v>
+        <v>1.012191687483198</v>
       </c>
       <c r="K22">
-        <v>0.9972950123751375</v>
+        <v>1.017718920088146</v>
       </c>
       <c r="L22">
-        <v>0.9852359153325567</v>
+        <v>1.007164283849119</v>
       </c>
       <c r="M22">
-        <v>0.9802925489359617</v>
+        <v>0.9151581420933864</v>
       </c>
       <c r="N22">
-        <v>0.9867069196028246</v>
+        <v>1.013629115779433</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9557613133273332</v>
+        <v>0.9823745062701547</v>
       </c>
       <c r="D23">
-        <v>0.9838783118461425</v>
+        <v>1.003559015682211</v>
       </c>
       <c r="E23">
-        <v>0.9720882339763723</v>
+        <v>0.9928234615543173</v>
       </c>
       <c r="F23">
-        <v>0.9675384667500908</v>
+        <v>0.9033691984838608</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029512370061945</v>
+        <v>1.032122877783976</v>
       </c>
       <c r="J23">
-        <v>0.9878621705320811</v>
+        <v>1.013229024628589</v>
       </c>
       <c r="K23">
-        <v>0.9994556584913054</v>
+        <v>1.018749110733839</v>
       </c>
       <c r="L23">
-        <v>0.9879074991923825</v>
+        <v>1.008222297587166</v>
       </c>
       <c r="M23">
-        <v>0.9834531747442287</v>
+        <v>0.9207686259898077</v>
       </c>
       <c r="N23">
-        <v>0.9892650481236113</v>
+        <v>1.014667926062556</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9687549438887475</v>
+        <v>0.9892558946577947</v>
       </c>
       <c r="D24">
-        <v>0.9934693112933368</v>
+        <v>1.008781604442274</v>
       </c>
       <c r="E24">
-        <v>0.9836861702599307</v>
+        <v>0.9981991720227499</v>
       </c>
       <c r="F24">
-        <v>0.9810401934294314</v>
+        <v>0.9258077589656993</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0329251450399</v>
+        <v>1.034925683417575</v>
       </c>
       <c r="J24">
-        <v>0.9975111606937407</v>
+        <v>1.017173896489201</v>
       </c>
       <c r="K24">
-        <v>1.007612092065222</v>
+        <v>1.022656240541001</v>
       </c>
       <c r="L24">
-        <v>0.998005962746995</v>
+        <v>1.012257986195386</v>
       </c>
       <c r="M24">
-        <v>0.9954086515811864</v>
+        <v>0.9412763523635607</v>
       </c>
       <c r="N24">
-        <v>0.9989277409580553</v>
+        <v>1.018618400093693</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9828493100254474</v>
+        <v>0.9968691414794959</v>
       </c>
       <c r="D25">
-        <v>1.003901221012301</v>
+        <v>1.014548940093022</v>
       </c>
       <c r="E25">
-        <v>0.9963090212992638</v>
+        <v>1.004174107511955</v>
       </c>
       <c r="F25">
-        <v>0.9957369829937313</v>
+        <v>0.9490604600107997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036575092972801</v>
+        <v>1.037913477509575</v>
       </c>
       <c r="J25">
-        <v>1.007967977211753</v>
+        <v>1.021502332859339</v>
       </c>
       <c r="K25">
-        <v>1.016439275921907</v>
+        <v>1.026925524017504</v>
       </c>
       <c r="L25">
-        <v>1.008964906459195</v>
+        <v>1.016707969581611</v>
       </c>
       <c r="M25">
-        <v>1.008401839256199</v>
+        <v>0.9625046103245579</v>
       </c>
       <c r="N25">
-        <v>1.009399407354937</v>
+        <v>1.022952983339955</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002682104421545</v>
+        <v>1.028615175837273</v>
       </c>
       <c r="D2">
-        <v>1.018948104791259</v>
+        <v>1.033628575161154</v>
       </c>
       <c r="E2">
-        <v>1.008757458715029</v>
+        <v>1.028556961455731</v>
       </c>
       <c r="F2">
-        <v>0.9659092862044506</v>
+        <v>1.039268064560952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040119037888065</v>
+        <v>1.035293062170012</v>
       </c>
       <c r="J2">
-        <v>1.024782889081183</v>
+        <v>1.03376651196347</v>
       </c>
       <c r="K2">
-        <v>1.030149626055661</v>
+        <v>1.036430376430139</v>
       </c>
       <c r="L2">
-        <v>1.020096121722599</v>
+        <v>1.031373432674532</v>
       </c>
       <c r="M2">
-        <v>0.9778649158756184</v>
+        <v>1.042053735841488</v>
       </c>
       <c r="N2">
-        <v>1.026238198327918</v>
+        <v>1.035234578985145</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006768613528586</v>
+        <v>1.029456491743848</v>
       </c>
       <c r="D3">
-        <v>1.022039419227737</v>
+        <v>1.034278058167354</v>
       </c>
       <c r="E3">
-        <v>1.011991421496269</v>
+        <v>1.029268837868374</v>
       </c>
       <c r="F3">
-        <v>0.9773535556913524</v>
+        <v>1.041433908877496</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041630765309863</v>
+        <v>1.035537060312372</v>
       </c>
       <c r="J3">
-        <v>1.027076444741281</v>
+        <v>1.034249066124903</v>
       </c>
       <c r="K3">
-        <v>1.032397858786713</v>
+        <v>1.036889305101237</v>
       </c>
       <c r="L3">
-        <v>1.022473134973729</v>
+        <v>1.031893528756696</v>
       </c>
       <c r="M3">
-        <v>0.9882846441614597</v>
+        <v>1.044026193057578</v>
       </c>
       <c r="N3">
-        <v>1.028535011100129</v>
+        <v>1.035717818428826</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009355281876885</v>
+        <v>1.030001156845887</v>
       </c>
       <c r="D4">
-        <v>1.023995813488462</v>
+        <v>1.034698427882088</v>
       </c>
       <c r="E4">
-        <v>1.014043781583752</v>
+        <v>1.029730086881902</v>
       </c>
       <c r="F4">
-        <v>0.9844433733978906</v>
+        <v>1.042830280607586</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042570936942405</v>
+        <v>1.035693588911551</v>
       </c>
       <c r="J4">
-        <v>1.028522668688273</v>
+        <v>1.034560939733587</v>
       </c>
       <c r="K4">
-        <v>1.033813005685464</v>
+        <v>1.037185688584822</v>
       </c>
       <c r="L4">
-        <v>1.023975614594964</v>
+        <v>1.032230011645004</v>
       </c>
       <c r="M4">
-        <v>0.994733251583554</v>
+        <v>1.045297094063035</v>
       </c>
       <c r="N4">
-        <v>1.02998328885101</v>
+        <v>1.036030134933807</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010429538203009</v>
+        <v>1.030230200166415</v>
       </c>
       <c r="D5">
-        <v>1.024808260574469</v>
+        <v>1.03487517755847</v>
       </c>
       <c r="E5">
-        <v>1.014897393063954</v>
+        <v>1.029924143080748</v>
       </c>
       <c r="F5">
-        <v>0.9873547346762426</v>
+        <v>1.043416130498608</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042957533310525</v>
+        <v>1.035759070280009</v>
       </c>
       <c r="J5">
-        <v>1.0291219986076</v>
+        <v>1.034691962491884</v>
       </c>
       <c r="K5">
-        <v>1.034398882820818</v>
+        <v>1.037310150926692</v>
       </c>
       <c r="L5">
-        <v>1.024599106749408</v>
+        <v>1.032371455827076</v>
       </c>
       <c r="M5">
-        <v>0.9973797118259656</v>
+        <v>1.045830113443636</v>
       </c>
       <c r="N5">
-        <v>1.030583469887566</v>
+        <v>1.03616134375945</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.01060915436664</v>
+        <v>1.03026866141523</v>
       </c>
       <c r="D6">
-        <v>1.024944099638824</v>
+        <v>1.034904856137715</v>
       </c>
       <c r="E6">
-        <v>1.015040190443768</v>
+        <v>1.029956734576919</v>
       </c>
       <c r="F6">
-        <v>0.9878396750024385</v>
+        <v>1.043514428662064</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043021949294777</v>
+        <v>1.03577004596328</v>
       </c>
       <c r="J6">
-        <v>1.02922213168045</v>
+        <v>1.034713956574487</v>
       </c>
       <c r="K6">
-        <v>1.034496735164717</v>
+        <v>1.037331040655822</v>
       </c>
       <c r="L6">
-        <v>1.024703326095987</v>
+        <v>1.032395204143608</v>
       </c>
       <c r="M6">
-        <v>0.9978204332645769</v>
+        <v>1.045919536226666</v>
       </c>
       <c r="N6">
-        <v>1.030683745160865</v>
+        <v>1.036183369076172</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009369687164582</v>
+        <v>1.030004217074595</v>
       </c>
       <c r="D7">
-        <v>1.024006708213082</v>
+        <v>1.034700789517169</v>
       </c>
       <c r="E7">
-        <v>1.014055223193433</v>
+        <v>1.029732679293174</v>
       </c>
       <c r="F7">
-        <v>0.9844825393429624</v>
+        <v>1.04283811338134</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042576136101723</v>
+        <v>1.035694465145745</v>
       </c>
       <c r="J7">
-        <v>1.02853071050065</v>
+        <v>1.034562690815527</v>
       </c>
       <c r="K7">
-        <v>1.033820869228549</v>
+        <v>1.037187352195972</v>
       </c>
       <c r="L7">
-        <v>1.023983977284045</v>
+        <v>1.032231901681441</v>
       </c>
       <c r="M7">
-        <v>0.9947688602407339</v>
+        <v>1.045304221240138</v>
       </c>
       <c r="N7">
-        <v>1.029991342083683</v>
+        <v>1.036031888502484</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00407546228634</v>
+        <v>1.028899444856651</v>
       </c>
       <c r="D8">
-        <v>1.020002226679109</v>
+        <v>1.033848047889583</v>
       </c>
       <c r="E8">
-        <v>1.009858993747303</v>
+        <v>1.028797415184082</v>
       </c>
       <c r="F8">
-        <v>0.9698463156222458</v>
+        <v>1.040001090657068</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040638093281089</v>
+        <v>1.035375803565898</v>
       </c>
       <c r="J8">
-        <v>1.025566100964688</v>
+        <v>1.033929670242501</v>
       </c>
       <c r="K8">
-        <v>1.030917903615518</v>
+        <v>1.036585592484727</v>
       </c>
       <c r="L8">
-        <v>1.020907054446216</v>
+        <v>1.031549212607747</v>
       </c>
       <c r="M8">
-        <v>0.9814508459321443</v>
+        <v>1.042721474233479</v>
       </c>
       <c r="N8">
-        <v>1.027022522462134</v>
+        <v>1.035397968967636</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9942749940404418</v>
+        <v>1.026954832428133</v>
       </c>
       <c r="D9">
-        <v>1.012584683525367</v>
+        <v>1.032346267080658</v>
       </c>
       <c r="E9">
-        <v>1.002134774150075</v>
+        <v>1.027154117801696</v>
       </c>
       <c r="F9">
-        <v>0.9413005633916952</v>
+        <v>1.034961671165768</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036908221691242</v>
+        <v>1.034803860327143</v>
       </c>
       <c r="J9">
-        <v>1.020031549503214</v>
+        <v>1.032811364658075</v>
       </c>
       <c r="K9">
-        <v>1.025476830165318</v>
+        <v>1.035520810053908</v>
       </c>
       <c r="L9">
-        <v>1.015193310824781</v>
+        <v>1.030345824604376</v>
       </c>
       <c r="M9">
-        <v>0.9554236526721225</v>
+        <v>1.03812763983014</v>
       </c>
       <c r="N9">
-        <v>1.021480111302762</v>
+        <v>1.034278075261009</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9873754856860698</v>
+        <v>1.025659874184878</v>
       </c>
       <c r="D10">
-        <v>1.007355613207747</v>
+        <v>1.031345667652077</v>
       </c>
       <c r="E10">
-        <v>0.9967279676993678</v>
+        <v>1.026061821333089</v>
       </c>
       <c r="F10">
-        <v>0.9198241856936721</v>
+        <v>1.031573098794509</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034169798646194</v>
+        <v>1.034415490585623</v>
       </c>
       <c r="J10">
-        <v>1.016099098449196</v>
+        <v>1.032063913946222</v>
       </c>
       <c r="K10">
-        <v>1.021593317782538</v>
+        <v>1.034807978447521</v>
       </c>
       <c r="L10">
-        <v>1.011156552082151</v>
+        <v>1.029543307731717</v>
       </c>
       <c r="M10">
-        <v>0.9358094388777765</v>
+        <v>1.03503458908863</v>
       </c>
       <c r="N10">
-        <v>1.01754207571719</v>
+        <v>1.033529563083411</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9842877015851318</v>
+        <v>1.025099488444958</v>
       </c>
       <c r="D11">
-        <v>1.005012258184768</v>
+        <v>1.030912537442871</v>
       </c>
       <c r="E11">
-        <v>0.994315816922089</v>
+        <v>1.025589619035054</v>
       </c>
       <c r="F11">
-        <v>0.9097626747998516</v>
+        <v>1.030098510150858</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032912409380303</v>
+        <v>1.034245628449161</v>
       </c>
       <c r="J11">
-        <v>1.01432906072528</v>
+        <v>1.031739804073306</v>
       </c>
       <c r="K11">
-        <v>1.019840265664597</v>
+        <v>1.034498604102578</v>
       </c>
       <c r="L11">
-        <v>1.009345730672702</v>
+        <v>1.029195749564083</v>
       </c>
       <c r="M11">
-        <v>0.9266136580522349</v>
+        <v>1.033687630278928</v>
       </c>
       <c r="N11">
-        <v>1.01576952433668</v>
+        <v>1.0332049929373</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9831242929705936</v>
+        <v>1.024891387274027</v>
       </c>
       <c r="D12">
-        <v>1.00412867600748</v>
+        <v>1.030751673986709</v>
       </c>
       <c r="E12">
-        <v>0.9934081225914191</v>
+        <v>1.025414338122028</v>
       </c>
       <c r="F12">
-        <v>0.9058900942548774</v>
+        <v>1.029549645993727</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032433274186462</v>
+        <v>1.034182277921483</v>
       </c>
       <c r="J12">
-        <v>1.013660442174043</v>
+        <v>1.031619346075992</v>
       </c>
       <c r="K12">
-        <v>1.01917720227339</v>
+        <v>1.034383581016161</v>
       </c>
       <c r="L12">
-        <v>1.008662711697405</v>
+        <v>1.029066641562406</v>
       </c>
       <c r="M12">
-        <v>0.9230734127925667</v>
+        <v>1.033186126067705</v>
       </c>
       <c r="N12">
-        <v>1.015099956270408</v>
+        <v>1.033084363875813</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9833746189381631</v>
+        <v>1.024936023371956</v>
       </c>
       <c r="D13">
-        <v>1.004318826219052</v>
+        <v>1.030786178822412</v>
       </c>
       <c r="E13">
-        <v>0.9936033755433586</v>
+        <v>1.02545193121432</v>
       </c>
       <c r="F13">
-        <v>0.9067272954574856</v>
+        <v>1.029667431244056</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032536622110133</v>
+        <v>1.034195878440319</v>
       </c>
       <c r="J13">
-        <v>1.013804386919263</v>
+        <v>1.031645187858937</v>
       </c>
       <c r="K13">
-        <v>1.019319991917741</v>
+        <v>1.034408258739349</v>
       </c>
       <c r="L13">
-        <v>1.008809709793356</v>
+        <v>1.02909433609287</v>
       </c>
       <c r="M13">
-        <v>0.9238388044753095</v>
+        <v>1.033293754554714</v>
       </c>
       <c r="N13">
-        <v>1.015244105433677</v>
+        <v>1.033110242357054</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9841918789411921</v>
+        <v>1.025082285696037</v>
       </c>
       <c r="D14">
-        <v>1.00493949773579</v>
+        <v>1.03089924000381</v>
       </c>
       <c r="E14">
-        <v>0.9942410324717589</v>
+        <v>1.025575127890196</v>
       </c>
       <c r="F14">
-        <v>0.9094454668548577</v>
+        <v>1.030053164266568</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032873059293862</v>
+        <v>1.034240397108973</v>
       </c>
       <c r="J14">
-        <v>1.014274026791048</v>
+        <v>1.031729848389943</v>
       </c>
       <c r="K14">
-        <v>1.019785707145977</v>
+        <v>1.034489098457872</v>
       </c>
       <c r="L14">
-        <v>1.009289490516715</v>
+        <v>1.029185077648407</v>
       </c>
       <c r="M14">
-        <v>0.9263236889201611</v>
+        <v>1.03364620013564</v>
       </c>
       <c r="N14">
-        <v>1.015714412247948</v>
+        <v>1.033195023115725</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9846931908369104</v>
+        <v>1.025172409504688</v>
       </c>
       <c r="D15">
-        <v>1.005320127921151</v>
+        <v>1.030968903429206</v>
       </c>
       <c r="E15">
-        <v>0.9946323264803952</v>
+        <v>1.025651048818922</v>
       </c>
       <c r="F15">
-        <v>0.9111015755346795</v>
+        <v>1.030290675415966</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033078702755224</v>
+        <v>1.034267792541702</v>
       </c>
       <c r="J15">
-        <v>1.014561875063392</v>
+        <v>1.031782001365538</v>
       </c>
       <c r="K15">
-        <v>1.020071033104185</v>
+        <v>1.03453889219312</v>
       </c>
       <c r="L15">
-        <v>1.00958368919401</v>
+        <v>1.029240985268095</v>
       </c>
       <c r="M15">
-        <v>0.9278375521677817</v>
+        <v>1.033863195582698</v>
       </c>
       <c r="N15">
-        <v>1.016002669297855</v>
+        <v>1.033247250154527</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9875781855507851</v>
+        <v>1.025697072299402</v>
       </c>
       <c r="D16">
-        <v>1.007509364786203</v>
+        <v>1.031374415939523</v>
       </c>
       <c r="E16">
-        <v>0.9968864740157153</v>
+        <v>1.026093176092987</v>
       </c>
       <c r="F16">
-        <v>0.9204742282658638</v>
+        <v>1.03167080510412</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034251632525244</v>
+        <v>1.034426727932255</v>
       </c>
       <c r="J16">
-        <v>1.016215069023519</v>
+        <v>1.032085414365761</v>
       </c>
       <c r="K16">
-        <v>1.021708062851858</v>
+        <v>1.034828495530136</v>
       </c>
       <c r="L16">
-        <v>1.011275328816565</v>
+        <v>1.029566372698879</v>
       </c>
       <c r="M16">
-        <v>0.9364034230564837</v>
+        <v>1.035123818229357</v>
       </c>
       <c r="N16">
-        <v>1.01765821098303</v>
+        <v>1.033551094036012</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9893601139693606</v>
+        <v>1.026026270373541</v>
       </c>
       <c r="D17">
-        <v>1.008860617291655</v>
+        <v>1.031628819605265</v>
       </c>
       <c r="E17">
-        <v>0.9982807626476387</v>
+        <v>1.026370717148763</v>
       </c>
       <c r="F17">
-        <v>0.9261363849236786</v>
+        <v>1.032534539525883</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03496736440971</v>
+        <v>1.034525968970105</v>
       </c>
       <c r="J17">
-        <v>1.017233398163475</v>
+        <v>1.032275614339102</v>
       </c>
       <c r="K17">
-        <v>1.022715051174585</v>
+        <v>1.035009964686072</v>
       </c>
       <c r="L17">
-        <v>1.012319003622685</v>
+        <v>1.029770462796693</v>
       </c>
       <c r="M17">
-        <v>0.9415765588929611</v>
+        <v>1.035912501693869</v>
       </c>
       <c r="N17">
-        <v>1.018677986267169</v>
+        <v>1.033741564115131</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9903899171865483</v>
+        <v>1.02621831882149</v>
       </c>
       <c r="D18">
-        <v>1.009641242967414</v>
+        <v>1.031777222081457</v>
       </c>
       <c r="E18">
-        <v>0.9990872610974318</v>
+        <v>1.026532676346314</v>
       </c>
       <c r="F18">
-        <v>0.9293671471107963</v>
+        <v>1.033037638017348</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035378030975237</v>
+        <v>1.034583691099199</v>
       </c>
       <c r="J18">
-        <v>1.017820963405583</v>
+        <v>1.03238651051769</v>
       </c>
       <c r="K18">
-        <v>1.02329560564484</v>
+        <v>1.035115743761308</v>
       </c>
       <c r="L18">
-        <v>1.01292176822473</v>
+        <v>1.029889499011537</v>
       </c>
       <c r="M18">
-        <v>0.9445276679200966</v>
+        <v>1.036371791928313</v>
       </c>
       <c r="N18">
-        <v>1.019266385919315</v>
+        <v>1.033852617779013</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9907394694922783</v>
+        <v>1.02628380793847</v>
       </c>
       <c r="D19">
-        <v>1.009906171880716</v>
+        <v>1.031827825716688</v>
       </c>
       <c r="E19">
-        <v>0.9993611370897951</v>
+        <v>1.026587912817053</v>
       </c>
       <c r="F19">
-        <v>0.930457106636529</v>
+        <v>1.033209063451232</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035516938078075</v>
+        <v>1.034603345165856</v>
       </c>
       <c r="J19">
-        <v>1.018020249014714</v>
+        <v>1.0324243157499</v>
       </c>
       <c r="K19">
-        <v>1.023492436767789</v>
+        <v>1.03515180003413</v>
       </c>
       <c r="L19">
-        <v>1.013126304563625</v>
+        <v>1.029930086250029</v>
       </c>
       <c r="M19">
-        <v>0.9455231721459515</v>
+        <v>1.03652827432225</v>
       </c>
       <c r="N19">
-        <v>1.019465954536869</v>
+        <v>1.03389047669899</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9891699286322146</v>
+        <v>1.025990947145105</v>
       </c>
       <c r="D20">
-        <v>1.008716428561643</v>
+        <v>1.031601523142619</v>
       </c>
       <c r="E20">
-        <v>0.9981318754907342</v>
+        <v>1.026340931942425</v>
       </c>
       <c r="F20">
-        <v>0.9255364565362568</v>
+        <v>1.03244194199898</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034891285848861</v>
+        <v>1.034515338266812</v>
       </c>
       <c r="J20">
-        <v>1.017124810807034</v>
+        <v>1.032255212260504</v>
       </c>
       <c r="K20">
-        <v>1.022607722296638</v>
+        <v>1.0349905018842</v>
       </c>
       <c r="L20">
-        <v>1.012207653346708</v>
+        <v>1.029748566489907</v>
       </c>
       <c r="M20">
-        <v>0.9410285084833662</v>
+        <v>1.035827959747221</v>
       </c>
       <c r="N20">
-        <v>1.018569244704226</v>
+        <v>1.033721133063242</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9839516835360291</v>
+        <v>1.025039213678114</v>
       </c>
       <c r="D21">
-        <v>1.00475710022599</v>
+        <v>1.030865945741488</v>
       </c>
       <c r="E21">
-        <v>0.9940535913353262</v>
+        <v>1.025538846332688</v>
       </c>
       <c r="F21">
-        <v>0.9086489637126267</v>
+        <v>1.029939607175599</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032774332836855</v>
+        <v>1.034227294553862</v>
       </c>
       <c r="J21">
-        <v>1.014136046843578</v>
+        <v>1.031704919884806</v>
       </c>
       <c r="K21">
-        <v>1.019648904894463</v>
+        <v>1.034465296152105</v>
       </c>
       <c r="L21">
-        <v>1.009148502832044</v>
+        <v>1.029158356781803</v>
       </c>
       <c r="M21">
-        <v>0.925595568390814</v>
+        <v>1.03354244665576</v>
       </c>
       <c r="N21">
-        <v>1.015576236353126</v>
+        <v>1.033170059209251</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9805745649499545</v>
+        <v>1.024441116381429</v>
       </c>
       <c r="D22">
-        <v>1.00219073756978</v>
+        <v>1.030403576954434</v>
       </c>
       <c r="E22">
-        <v>0.9914209365016962</v>
+        <v>1.025035214890263</v>
       </c>
       <c r="F22">
-        <v>0.8972333793874231</v>
+        <v>1.028359696832262</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031372473134802</v>
+        <v>1.034044707196163</v>
       </c>
       <c r="J22">
-        <v>1.012191687483198</v>
+        <v>1.031358528957352</v>
       </c>
       <c r="K22">
-        <v>1.017718920088146</v>
+        <v>1.034134455202822</v>
       </c>
       <c r="L22">
-        <v>1.007164283849119</v>
+        <v>1.028787214001237</v>
       </c>
       <c r="M22">
-        <v>0.9151581420933864</v>
+        <v>1.032098587471307</v>
       </c>
       <c r="N22">
-        <v>1.013629115779433</v>
+        <v>1.032823176366949</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9823745062701547</v>
+        <v>1.024758151087704</v>
       </c>
       <c r="D23">
-        <v>1.003559015682211</v>
+        <v>1.030648676239592</v>
       </c>
       <c r="E23">
-        <v>0.9928234615543173</v>
+        <v>1.025302135635278</v>
       </c>
       <c r="F23">
-        <v>0.9033691984838608</v>
+        <v>1.029197874788301</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032122877783976</v>
+        <v>1.034141641255516</v>
       </c>
       <c r="J23">
-        <v>1.013229024628589</v>
+        <v>1.031542195366922</v>
       </c>
       <c r="K23">
-        <v>1.018749110733839</v>
+        <v>1.034309899494122</v>
       </c>
       <c r="L23">
-        <v>1.008222297587166</v>
+        <v>1.028983968967174</v>
       </c>
       <c r="M23">
-        <v>0.9207686259898077</v>
+        <v>1.032864667167981</v>
       </c>
       <c r="N23">
-        <v>1.014667926062556</v>
+        <v>1.033007103603887</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9892558946577947</v>
+        <v>1.026006908090744</v>
       </c>
       <c r="D24">
-        <v>1.008781604442274</v>
+        <v>1.031613857198945</v>
       </c>
       <c r="E24">
-        <v>0.9981991720227499</v>
+        <v>1.026354390366239</v>
       </c>
       <c r="F24">
-        <v>0.9258077589656993</v>
+        <v>1.03248378500699</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034925683417575</v>
+        <v>1.034520142329298</v>
       </c>
       <c r="J24">
-        <v>1.017173896489201</v>
+        <v>1.032264431218624</v>
       </c>
       <c r="K24">
-        <v>1.022656240541001</v>
+        <v>1.034999296499481</v>
       </c>
       <c r="L24">
-        <v>1.012257986195386</v>
+        <v>1.029758460507539</v>
       </c>
       <c r="M24">
-        <v>0.9412763523635607</v>
+        <v>1.035866162885177</v>
       </c>
       <c r="N24">
-        <v>1.018618400093693</v>
+        <v>1.033730365113339</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9968691414794959</v>
+        <v>1.027457306642392</v>
       </c>
       <c r="D25">
-        <v>1.014548940093022</v>
+        <v>1.032734410463461</v>
       </c>
       <c r="E25">
-        <v>1.004174107511955</v>
+        <v>1.027578381937228</v>
       </c>
       <c r="F25">
-        <v>0.9490604600107997</v>
+        <v>1.036269443921689</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037913477509575</v>
+        <v>1.034952963166455</v>
       </c>
       <c r="J25">
-        <v>1.021502332859339</v>
+        <v>1.033100810482681</v>
       </c>
       <c r="K25">
-        <v>1.026925524017504</v>
+        <v>1.035796605293148</v>
       </c>
       <c r="L25">
-        <v>1.016707969581611</v>
+        <v>1.030656975596545</v>
       </c>
       <c r="M25">
-        <v>0.9625046103245579</v>
+        <v>1.039320498606976</v>
       </c>
       <c r="N25">
-        <v>1.022952983339955</v>
+        <v>1.034567932131885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.028615175837273</v>
+        <v>1.002682104421545</v>
       </c>
       <c r="D2">
-        <v>1.033628575161154</v>
+        <v>1.018948104791259</v>
       </c>
       <c r="E2">
-        <v>1.028556961455731</v>
+        <v>1.008757458715029</v>
       </c>
       <c r="F2">
-        <v>1.039268064560952</v>
+        <v>0.965909286204451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035293062170012</v>
+        <v>1.040119037888065</v>
       </c>
       <c r="J2">
-        <v>1.03376651196347</v>
+        <v>1.024782889081183</v>
       </c>
       <c r="K2">
-        <v>1.036430376430139</v>
+        <v>1.030149626055661</v>
       </c>
       <c r="L2">
-        <v>1.031373432674532</v>
+        <v>1.020096121722598</v>
       </c>
       <c r="M2">
-        <v>1.042053735841488</v>
+        <v>0.9778649158756189</v>
       </c>
       <c r="N2">
-        <v>1.035234578985145</v>
+        <v>1.026238198327918</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029456491743848</v>
+        <v>1.006768613528586</v>
       </c>
       <c r="D3">
-        <v>1.034278058167354</v>
+        <v>1.022039419227737</v>
       </c>
       <c r="E3">
-        <v>1.029268837868374</v>
+        <v>1.011991421496269</v>
       </c>
       <c r="F3">
-        <v>1.041433908877496</v>
+        <v>0.9773535556913525</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035537060312372</v>
+        <v>1.041630765309863</v>
       </c>
       <c r="J3">
-        <v>1.034249066124903</v>
+        <v>1.027076444741281</v>
       </c>
       <c r="K3">
-        <v>1.036889305101237</v>
+        <v>1.032397858786713</v>
       </c>
       <c r="L3">
-        <v>1.031893528756696</v>
+        <v>1.022473134973728</v>
       </c>
       <c r="M3">
-        <v>1.044026193057578</v>
+        <v>0.9882846441614598</v>
       </c>
       <c r="N3">
-        <v>1.035717818428826</v>
+        <v>1.028535011100128</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030001156845887</v>
+        <v>1.009355281876885</v>
       </c>
       <c r="D4">
-        <v>1.034698427882088</v>
+        <v>1.023995813488461</v>
       </c>
       <c r="E4">
-        <v>1.029730086881902</v>
+        <v>1.014043781583751</v>
       </c>
       <c r="F4">
-        <v>1.042830280607586</v>
+        <v>0.9844433733978899</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035693588911551</v>
+        <v>1.042570936942404</v>
       </c>
       <c r="J4">
-        <v>1.034560939733587</v>
+        <v>1.028522668688273</v>
       </c>
       <c r="K4">
-        <v>1.037185688584822</v>
+        <v>1.033813005685463</v>
       </c>
       <c r="L4">
-        <v>1.032230011645004</v>
+        <v>1.023975614594964</v>
       </c>
       <c r="M4">
-        <v>1.045297094063035</v>
+        <v>0.9947332515835533</v>
       </c>
       <c r="N4">
-        <v>1.036030134933807</v>
+        <v>1.029983288851009</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030230200166415</v>
+        <v>1.010429538203009</v>
       </c>
       <c r="D5">
-        <v>1.03487517755847</v>
+        <v>1.024808260574469</v>
       </c>
       <c r="E5">
-        <v>1.029924143080748</v>
+        <v>1.014897393063953</v>
       </c>
       <c r="F5">
-        <v>1.043416130498608</v>
+        <v>0.9873547346762411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035759070280009</v>
+        <v>1.042957533310525</v>
       </c>
       <c r="J5">
-        <v>1.034691962491884</v>
+        <v>1.0291219986076</v>
       </c>
       <c r="K5">
-        <v>1.037310150926692</v>
+        <v>1.034398882820818</v>
       </c>
       <c r="L5">
-        <v>1.032371455827076</v>
+        <v>1.024599106749407</v>
       </c>
       <c r="M5">
-        <v>1.045830113443636</v>
+        <v>0.9973797118259643</v>
       </c>
       <c r="N5">
-        <v>1.03616134375945</v>
+        <v>1.030583469887566</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03026866141523</v>
+        <v>1.01060915436664</v>
       </c>
       <c r="D6">
-        <v>1.034904856137715</v>
+        <v>1.024944099638823</v>
       </c>
       <c r="E6">
-        <v>1.029956734576919</v>
+        <v>1.015040190443767</v>
       </c>
       <c r="F6">
-        <v>1.043514428662064</v>
+        <v>0.9878396750024383</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03577004596328</v>
+        <v>1.043021949294777</v>
       </c>
       <c r="J6">
-        <v>1.034713956574487</v>
+        <v>1.02922213168045</v>
       </c>
       <c r="K6">
-        <v>1.037331040655822</v>
+        <v>1.034496735164717</v>
       </c>
       <c r="L6">
-        <v>1.032395204143608</v>
+        <v>1.024703326095987</v>
       </c>
       <c r="M6">
-        <v>1.045919536226666</v>
+        <v>0.9978204332645766</v>
       </c>
       <c r="N6">
-        <v>1.036183369076172</v>
+        <v>1.030683745160865</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030004217074595</v>
+        <v>1.009369687164582</v>
       </c>
       <c r="D7">
-        <v>1.034700789517169</v>
+        <v>1.024006708213082</v>
       </c>
       <c r="E7">
-        <v>1.029732679293174</v>
+        <v>1.014055223193433</v>
       </c>
       <c r="F7">
-        <v>1.04283811338134</v>
+        <v>0.9844825393429624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035694465145745</v>
+        <v>1.042576136101723</v>
       </c>
       <c r="J7">
-        <v>1.034562690815527</v>
+        <v>1.02853071050065</v>
       </c>
       <c r="K7">
-        <v>1.037187352195972</v>
+        <v>1.033820869228549</v>
       </c>
       <c r="L7">
-        <v>1.032231901681441</v>
+        <v>1.023983977284045</v>
       </c>
       <c r="M7">
-        <v>1.045304221240138</v>
+        <v>0.9947688602407337</v>
       </c>
       <c r="N7">
-        <v>1.036031888502484</v>
+        <v>1.029991342083683</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.028899444856651</v>
+        <v>1.00407546228634</v>
       </c>
       <c r="D8">
-        <v>1.033848047889583</v>
+        <v>1.020002226679108</v>
       </c>
       <c r="E8">
-        <v>1.028797415184082</v>
+        <v>1.009858993747302</v>
       </c>
       <c r="F8">
-        <v>1.040001090657068</v>
+        <v>0.9698463156222455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035375803565898</v>
+        <v>1.040638093281089</v>
       </c>
       <c r="J8">
-        <v>1.033929670242501</v>
+        <v>1.025566100964687</v>
       </c>
       <c r="K8">
-        <v>1.036585592484727</v>
+        <v>1.030917903615518</v>
       </c>
       <c r="L8">
-        <v>1.031549212607747</v>
+        <v>1.020907054446215</v>
       </c>
       <c r="M8">
-        <v>1.042721474233479</v>
+        <v>0.981450845932144</v>
       </c>
       <c r="N8">
-        <v>1.035397968967636</v>
+        <v>1.027022522462133</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.026954832428133</v>
+        <v>0.9942749940404416</v>
       </c>
       <c r="D9">
-        <v>1.032346267080658</v>
+        <v>1.012584683525366</v>
       </c>
       <c r="E9">
-        <v>1.027154117801696</v>
+        <v>1.002134774150075</v>
       </c>
       <c r="F9">
-        <v>1.034961671165768</v>
+        <v>0.9413005633916951</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034803860327143</v>
+        <v>1.036908221691241</v>
       </c>
       <c r="J9">
-        <v>1.032811364658075</v>
+        <v>1.020031549503213</v>
       </c>
       <c r="K9">
-        <v>1.035520810053908</v>
+        <v>1.025476830165318</v>
       </c>
       <c r="L9">
-        <v>1.030345824604376</v>
+        <v>1.01519331082478</v>
       </c>
       <c r="M9">
-        <v>1.03812763983014</v>
+        <v>0.9554236526721225</v>
       </c>
       <c r="N9">
-        <v>1.034278075261009</v>
+        <v>1.021480111302762</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025659874184878</v>
+        <v>0.9873754856860694</v>
       </c>
       <c r="D10">
-        <v>1.031345667652077</v>
+        <v>1.007355613207747</v>
       </c>
       <c r="E10">
-        <v>1.026061821333089</v>
+        <v>0.9967279676993674</v>
       </c>
       <c r="F10">
-        <v>1.031573098794509</v>
+        <v>0.9198241856936706</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034415490585623</v>
+        <v>1.034169798646194</v>
       </c>
       <c r="J10">
-        <v>1.032063913946222</v>
+        <v>1.016099098449196</v>
       </c>
       <c r="K10">
-        <v>1.034807978447521</v>
+        <v>1.021593317782537</v>
       </c>
       <c r="L10">
-        <v>1.029543307731717</v>
+        <v>1.01115655208215</v>
       </c>
       <c r="M10">
-        <v>1.03503458908863</v>
+        <v>0.935809438877775</v>
       </c>
       <c r="N10">
-        <v>1.033529563083411</v>
+        <v>1.017542075717189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025099488444958</v>
+        <v>0.9842877015851319</v>
       </c>
       <c r="D11">
-        <v>1.030912537442871</v>
+        <v>1.005012258184768</v>
       </c>
       <c r="E11">
-        <v>1.025589619035054</v>
+        <v>0.9943158169220889</v>
       </c>
       <c r="F11">
-        <v>1.030098510150858</v>
+        <v>0.909762674799851</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034245628449161</v>
+        <v>1.032912409380303</v>
       </c>
       <c r="J11">
-        <v>1.031739804073306</v>
+        <v>1.01432906072528</v>
       </c>
       <c r="K11">
-        <v>1.034498604102578</v>
+        <v>1.019840265664597</v>
       </c>
       <c r="L11">
-        <v>1.029195749564083</v>
+        <v>1.009345730672702</v>
       </c>
       <c r="M11">
-        <v>1.033687630278928</v>
+        <v>0.9266136580522343</v>
       </c>
       <c r="N11">
-        <v>1.0332049929373</v>
+        <v>1.01576952433668</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.024891387274027</v>
+        <v>0.9831242929705938</v>
       </c>
       <c r="D12">
-        <v>1.030751673986709</v>
+        <v>1.004128676007481</v>
       </c>
       <c r="E12">
-        <v>1.025414338122028</v>
+        <v>0.9934081225914196</v>
       </c>
       <c r="F12">
-        <v>1.029549645993727</v>
+        <v>0.9058900942548772</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034182277921483</v>
+        <v>1.032433274186462</v>
       </c>
       <c r="J12">
-        <v>1.031619346075992</v>
+        <v>1.013660442174043</v>
       </c>
       <c r="K12">
-        <v>1.034383581016161</v>
+        <v>1.01917720227339</v>
       </c>
       <c r="L12">
-        <v>1.029066641562406</v>
+        <v>1.008662711697406</v>
       </c>
       <c r="M12">
-        <v>1.033186126067705</v>
+        <v>0.9230734127925663</v>
       </c>
       <c r="N12">
-        <v>1.033084363875813</v>
+        <v>1.015099956270408</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.024936023371956</v>
+        <v>0.9833746189381631</v>
       </c>
       <c r="D13">
-        <v>1.030786178822412</v>
+        <v>1.004318826219052</v>
       </c>
       <c r="E13">
-        <v>1.02545193121432</v>
+        <v>0.9936033755433589</v>
       </c>
       <c r="F13">
-        <v>1.029667431244056</v>
+        <v>0.9067272954574854</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034195878440319</v>
+        <v>1.032536622110133</v>
       </c>
       <c r="J13">
-        <v>1.031645187858937</v>
+        <v>1.013804386919263</v>
       </c>
       <c r="K13">
-        <v>1.034408258739349</v>
+        <v>1.019319991917741</v>
       </c>
       <c r="L13">
-        <v>1.02909433609287</v>
+        <v>1.008809709793356</v>
       </c>
       <c r="M13">
-        <v>1.033293754554714</v>
+        <v>0.9238388044753091</v>
       </c>
       <c r="N13">
-        <v>1.033110242357054</v>
+        <v>1.015244105433677</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025082285696037</v>
+        <v>0.9841918789411928</v>
       </c>
       <c r="D14">
-        <v>1.03089924000381</v>
+        <v>1.004939497735791</v>
       </c>
       <c r="E14">
-        <v>1.025575127890196</v>
+        <v>0.9942410324717595</v>
       </c>
       <c r="F14">
-        <v>1.030053164266568</v>
+        <v>0.9094454668548585</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034240397108973</v>
+        <v>1.032873059293863</v>
       </c>
       <c r="J14">
-        <v>1.031729848389943</v>
+        <v>1.014274026791048</v>
       </c>
       <c r="K14">
-        <v>1.034489098457872</v>
+        <v>1.019785707145977</v>
       </c>
       <c r="L14">
-        <v>1.029185077648407</v>
+        <v>1.009289490516716</v>
       </c>
       <c r="M14">
-        <v>1.03364620013564</v>
+        <v>0.9263236889201621</v>
       </c>
       <c r="N14">
-        <v>1.033195023115725</v>
+        <v>1.015714412247948</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025172409504688</v>
+        <v>0.9846931908369094</v>
       </c>
       <c r="D15">
-        <v>1.030968903429206</v>
+        <v>1.005320127921151</v>
       </c>
       <c r="E15">
-        <v>1.025651048818922</v>
+        <v>0.9946323264803939</v>
       </c>
       <c r="F15">
-        <v>1.030290675415966</v>
+        <v>0.9111015755346779</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034267792541702</v>
+        <v>1.033078702755223</v>
       </c>
       <c r="J15">
-        <v>1.031782001365538</v>
+        <v>1.014561875063391</v>
       </c>
       <c r="K15">
-        <v>1.03453889219312</v>
+        <v>1.020071033104185</v>
       </c>
       <c r="L15">
-        <v>1.029240985268095</v>
+        <v>1.009583689194008</v>
       </c>
       <c r="M15">
-        <v>1.033863195582698</v>
+        <v>0.92783755216778</v>
       </c>
       <c r="N15">
-        <v>1.033247250154527</v>
+        <v>1.016002669297855</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025697072299402</v>
+        <v>0.9875781855507842</v>
       </c>
       <c r="D16">
-        <v>1.031374415939523</v>
+        <v>1.007509364786202</v>
       </c>
       <c r="E16">
-        <v>1.026093176092987</v>
+        <v>0.9968864740157146</v>
       </c>
       <c r="F16">
-        <v>1.03167080510412</v>
+        <v>0.9204742282658623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034426727932255</v>
+        <v>1.034251632525244</v>
       </c>
       <c r="J16">
-        <v>1.032085414365761</v>
+        <v>1.016215069023518</v>
       </c>
       <c r="K16">
-        <v>1.034828495530136</v>
+        <v>1.021708062851858</v>
       </c>
       <c r="L16">
-        <v>1.029566372698879</v>
+        <v>1.011275328816564</v>
       </c>
       <c r="M16">
-        <v>1.035123818229357</v>
+        <v>0.9364034230564824</v>
       </c>
       <c r="N16">
-        <v>1.033551094036012</v>
+        <v>1.01765821098303</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.026026270373541</v>
+        <v>0.9893601139693607</v>
       </c>
       <c r="D17">
-        <v>1.031628819605265</v>
+        <v>1.008860617291655</v>
       </c>
       <c r="E17">
-        <v>1.026370717148763</v>
+        <v>0.9982807626476383</v>
       </c>
       <c r="F17">
-        <v>1.032534539525883</v>
+        <v>0.9261363849236791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034525968970105</v>
+        <v>1.034967364409711</v>
       </c>
       <c r="J17">
-        <v>1.032275614339102</v>
+        <v>1.017233398163475</v>
       </c>
       <c r="K17">
-        <v>1.035009964686072</v>
+        <v>1.022715051174585</v>
       </c>
       <c r="L17">
-        <v>1.029770462796693</v>
+        <v>1.012319003622685</v>
       </c>
       <c r="M17">
-        <v>1.035912501693869</v>
+        <v>0.9415765588929617</v>
       </c>
       <c r="N17">
-        <v>1.033741564115131</v>
+        <v>1.018677986267169</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02621831882149</v>
+        <v>0.990389917186548</v>
       </c>
       <c r="D18">
-        <v>1.031777222081457</v>
+        <v>1.009641242967414</v>
       </c>
       <c r="E18">
-        <v>1.026532676346314</v>
+        <v>0.9990872610974314</v>
       </c>
       <c r="F18">
-        <v>1.033037638017348</v>
+        <v>0.9293671471107965</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034583691099199</v>
+        <v>1.035378030975237</v>
       </c>
       <c r="J18">
-        <v>1.03238651051769</v>
+        <v>1.017820963405583</v>
       </c>
       <c r="K18">
-        <v>1.035115743761308</v>
+        <v>1.02329560564484</v>
       </c>
       <c r="L18">
-        <v>1.029889499011537</v>
+        <v>1.01292176822473</v>
       </c>
       <c r="M18">
-        <v>1.036371791928313</v>
+        <v>0.9445276679200968</v>
       </c>
       <c r="N18">
-        <v>1.033852617779013</v>
+        <v>1.019266385919315</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.02628380793847</v>
+        <v>0.9907394694922784</v>
       </c>
       <c r="D19">
-        <v>1.031827825716688</v>
+        <v>1.009906171880716</v>
       </c>
       <c r="E19">
-        <v>1.026587912817053</v>
+        <v>0.999361137089795</v>
       </c>
       <c r="F19">
-        <v>1.033209063451232</v>
+        <v>0.9304571066365294</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034603345165856</v>
+        <v>1.035516938078075</v>
       </c>
       <c r="J19">
-        <v>1.0324243157499</v>
+        <v>1.018020249014714</v>
       </c>
       <c r="K19">
-        <v>1.03515180003413</v>
+        <v>1.023492436767789</v>
       </c>
       <c r="L19">
-        <v>1.029930086250029</v>
+        <v>1.013126304563625</v>
       </c>
       <c r="M19">
-        <v>1.03652827432225</v>
+        <v>0.9455231721459518</v>
       </c>
       <c r="N19">
-        <v>1.03389047669899</v>
+        <v>1.019465954536869</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025990947145105</v>
+        <v>0.9891699286322143</v>
       </c>
       <c r="D20">
-        <v>1.031601523142619</v>
+        <v>1.008716428561642</v>
       </c>
       <c r="E20">
-        <v>1.026340931942425</v>
+        <v>0.9981318754907337</v>
       </c>
       <c r="F20">
-        <v>1.03244194199898</v>
+        <v>0.9255364565362563</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034515338266812</v>
+        <v>1.034891285848861</v>
       </c>
       <c r="J20">
-        <v>1.032255212260504</v>
+        <v>1.017124810807033</v>
       </c>
       <c r="K20">
-        <v>1.0349905018842</v>
+        <v>1.022607722296637</v>
       </c>
       <c r="L20">
-        <v>1.029748566489907</v>
+        <v>1.012207653346708</v>
       </c>
       <c r="M20">
-        <v>1.035827959747221</v>
+        <v>0.9410285084833655</v>
       </c>
       <c r="N20">
-        <v>1.033721133063242</v>
+        <v>1.018569244704226</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025039213678114</v>
+        <v>0.9839516835360291</v>
       </c>
       <c r="D21">
-        <v>1.030865945741488</v>
+        <v>1.00475710022599</v>
       </c>
       <c r="E21">
-        <v>1.025538846332688</v>
+        <v>0.9940535913353262</v>
       </c>
       <c r="F21">
-        <v>1.029939607175599</v>
+        <v>0.9086489637126254</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034227294553862</v>
+        <v>1.032774332836855</v>
       </c>
       <c r="J21">
-        <v>1.031704919884806</v>
+        <v>1.014136046843578</v>
       </c>
       <c r="K21">
-        <v>1.034465296152105</v>
+        <v>1.019648904894463</v>
       </c>
       <c r="L21">
-        <v>1.029158356781803</v>
+        <v>1.009148502832044</v>
       </c>
       <c r="M21">
-        <v>1.03354244665576</v>
+        <v>0.9255955683908128</v>
       </c>
       <c r="N21">
-        <v>1.033170059209251</v>
+        <v>1.015576236353126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024441116381429</v>
+        <v>0.9805745649499543</v>
       </c>
       <c r="D22">
-        <v>1.030403576954434</v>
+        <v>1.00219073756978</v>
       </c>
       <c r="E22">
-        <v>1.025035214890263</v>
+        <v>0.9914209365016958</v>
       </c>
       <c r="F22">
-        <v>1.028359696832262</v>
+        <v>0.897233379387421</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034044707196163</v>
+        <v>1.031372473134802</v>
       </c>
       <c r="J22">
-        <v>1.031358528957352</v>
+        <v>1.012191687483198</v>
       </c>
       <c r="K22">
-        <v>1.034134455202822</v>
+        <v>1.017718920088146</v>
       </c>
       <c r="L22">
-        <v>1.028787214001237</v>
+        <v>1.007164283849119</v>
       </c>
       <c r="M22">
-        <v>1.032098587471307</v>
+        <v>0.9151581420933842</v>
       </c>
       <c r="N22">
-        <v>1.032823176366949</v>
+        <v>1.013629115779433</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024758151087704</v>
+        <v>0.9823745062701547</v>
       </c>
       <c r="D23">
-        <v>1.030648676239592</v>
+        <v>1.003559015682211</v>
       </c>
       <c r="E23">
-        <v>1.025302135635278</v>
+        <v>0.9928234615543172</v>
       </c>
       <c r="F23">
-        <v>1.029197874788301</v>
+        <v>0.9033691984838613</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034141641255516</v>
+        <v>1.032122877783976</v>
       </c>
       <c r="J23">
-        <v>1.031542195366922</v>
+        <v>1.01322902462859</v>
       </c>
       <c r="K23">
-        <v>1.034309899494122</v>
+        <v>1.018749110733839</v>
       </c>
       <c r="L23">
-        <v>1.028983968967174</v>
+        <v>1.008222297587166</v>
       </c>
       <c r="M23">
-        <v>1.032864667167981</v>
+        <v>0.9207686259898084</v>
       </c>
       <c r="N23">
-        <v>1.033007103603887</v>
+        <v>1.014667926062556</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026006908090744</v>
+        <v>0.989255894657795</v>
       </c>
       <c r="D24">
-        <v>1.031613857198945</v>
+        <v>1.008781604442274</v>
       </c>
       <c r="E24">
-        <v>1.026354390366239</v>
+        <v>0.99819917202275</v>
       </c>
       <c r="F24">
-        <v>1.03248378500699</v>
+        <v>0.9258077589656998</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034520142329298</v>
+        <v>1.034925683417575</v>
       </c>
       <c r="J24">
-        <v>1.032264431218624</v>
+        <v>1.017173896489201</v>
       </c>
       <c r="K24">
-        <v>1.034999296499481</v>
+        <v>1.022656240541002</v>
       </c>
       <c r="L24">
-        <v>1.029758460507539</v>
+        <v>1.012257986195386</v>
       </c>
       <c r="M24">
-        <v>1.035866162885177</v>
+        <v>0.9412763523635614</v>
       </c>
       <c r="N24">
-        <v>1.033730365113339</v>
+        <v>1.018618400093693</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027457306642392</v>
+        <v>0.9968691414794957</v>
       </c>
       <c r="D25">
-        <v>1.032734410463461</v>
+        <v>1.014548940093021</v>
       </c>
       <c r="E25">
-        <v>1.027578381937228</v>
+        <v>1.004174107511955</v>
       </c>
       <c r="F25">
-        <v>1.036269443921689</v>
+        <v>0.9490604600107994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034952963166455</v>
+        <v>1.037913477509575</v>
       </c>
       <c r="J25">
-        <v>1.033100810482681</v>
+        <v>1.021502332859339</v>
       </c>
       <c r="K25">
-        <v>1.035796605293148</v>
+        <v>1.026925524017504</v>
       </c>
       <c r="L25">
-        <v>1.030656975596545</v>
+        <v>1.016707969581611</v>
       </c>
       <c r="M25">
-        <v>1.039320498606976</v>
+        <v>0.9625046103245576</v>
       </c>
       <c r="N25">
-        <v>1.034567932131885</v>
+        <v>1.022952983339955</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.002682104421545</v>
+        <v>0.99806110332634</v>
       </c>
       <c r="D2">
-        <v>1.018948104791259</v>
+        <v>1.018432602132795</v>
       </c>
       <c r="E2">
-        <v>1.008757458715029</v>
+        <v>1.014102230609057</v>
       </c>
       <c r="F2">
-        <v>0.965909286204451</v>
+        <v>1.024372951622959</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040119037888065</v>
+        <v>1.042366462094932</v>
       </c>
       <c r="J2">
-        <v>1.024782889081183</v>
+        <v>1.020299961519125</v>
       </c>
       <c r="K2">
-        <v>1.030149626055661</v>
+        <v>1.029640978089539</v>
       </c>
       <c r="L2">
-        <v>1.020096121722598</v>
+        <v>1.025368533763579</v>
       </c>
       <c r="M2">
-        <v>0.9778649158756189</v>
+        <v>1.035502862444215</v>
       </c>
       <c r="N2">
-        <v>1.026238198327918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010668925436947</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.036670514328645</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032028909130001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006768613528586</v>
+        <v>1.001564426608786</v>
       </c>
       <c r="D3">
-        <v>1.022039419227737</v>
+        <v>1.020639769718486</v>
       </c>
       <c r="E3">
-        <v>1.011991421496269</v>
+        <v>1.016897025776257</v>
       </c>
       <c r="F3">
-        <v>0.9773535556913525</v>
+        <v>1.027215952898962</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041630765309863</v>
+        <v>1.042838856420537</v>
       </c>
       <c r="J3">
-        <v>1.027076444741281</v>
+        <v>1.022012534441065</v>
       </c>
       <c r="K3">
-        <v>1.032397858786713</v>
+        <v>1.03101520007366</v>
       </c>
       <c r="L3">
-        <v>1.022473134973728</v>
+        <v>1.027318176257792</v>
       </c>
       <c r="M3">
-        <v>0.9882846441614598</v>
+        <v>1.037512051898386</v>
       </c>
       <c r="N3">
-        <v>1.028535011100128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011252683025835</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.038260659801587</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032997931321899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009355281876885</v>
+        <v>1.003793221623006</v>
       </c>
       <c r="D4">
-        <v>1.023995813488461</v>
+        <v>1.022046704807721</v>
       </c>
       <c r="E4">
-        <v>1.014043781583751</v>
+        <v>1.018680918995615</v>
       </c>
       <c r="F4">
-        <v>0.9844433733978899</v>
+        <v>1.029033315845037</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042570936942404</v>
+        <v>1.043129289059497</v>
       </c>
       <c r="J4">
-        <v>1.028522668688273</v>
+        <v>1.023100391609369</v>
       </c>
       <c r="K4">
-        <v>1.033813005685463</v>
+        <v>1.031886132483327</v>
       </c>
       <c r="L4">
-        <v>1.023975614594964</v>
+        <v>1.028558991038618</v>
       </c>
       <c r="M4">
-        <v>0.9947332515835533</v>
+        <v>1.03879352073918</v>
       </c>
       <c r="N4">
-        <v>1.029983288851009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011623363489905</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039274858914358</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033614669009926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010429538203009</v>
+        <v>1.004723754991846</v>
       </c>
       <c r="D5">
-        <v>1.024808260574469</v>
+        <v>1.022636802067057</v>
       </c>
       <c r="E5">
-        <v>1.014897393063953</v>
+        <v>1.019427105488716</v>
       </c>
       <c r="F5">
-        <v>0.9873547346762411</v>
+        <v>1.029793542723714</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042957533310525</v>
+        <v>1.043249382097833</v>
       </c>
       <c r="J5">
-        <v>1.0291219986076</v>
+        <v>1.023555328857398</v>
       </c>
       <c r="K5">
-        <v>1.034398882820818</v>
+        <v>1.032251537660818</v>
       </c>
       <c r="L5">
-        <v>1.024599106749407</v>
+        <v>1.029077715371025</v>
       </c>
       <c r="M5">
-        <v>0.9973797118259643</v>
+        <v>1.039329277529359</v>
       </c>
       <c r="N5">
-        <v>1.030583469887566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011778568227994</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039698875089434</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033880275391106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01060915436664</v>
+        <v>1.004882422221012</v>
       </c>
       <c r="D6">
-        <v>1.024944099638823</v>
+        <v>1.022739977945739</v>
       </c>
       <c r="E6">
-        <v>1.015040190443767</v>
+        <v>1.019554448981056</v>
       </c>
       <c r="F6">
-        <v>0.9878396750024383</v>
+        <v>1.029922581122989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043021949294777</v>
+        <v>1.043271295267978</v>
       </c>
       <c r="J6">
-        <v>1.02922213168045</v>
+        <v>1.023634306953011</v>
       </c>
       <c r="K6">
-        <v>1.034496735164717</v>
+        <v>1.032316977669138</v>
       </c>
       <c r="L6">
-        <v>1.024703326095987</v>
+        <v>1.02916689036624</v>
       </c>
       <c r="M6">
-        <v>0.9978204332645766</v>
+        <v>1.039420655992633</v>
       </c>
       <c r="N6">
-        <v>1.030683745160865</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.01180578036739</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039771195093226</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033935364498974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009369687164582</v>
+        <v>1.003813582882478</v>
       </c>
       <c r="D7">
-        <v>1.024006708213082</v>
+        <v>1.022066355546093</v>
       </c>
       <c r="E7">
-        <v>1.014055223193433</v>
+        <v>1.018697325869753</v>
       </c>
       <c r="F7">
-        <v>0.9844825393429624</v>
+        <v>1.029048044841485</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042576136101723</v>
+        <v>1.043136163353226</v>
       </c>
       <c r="J7">
-        <v>1.02853071050065</v>
+        <v>1.023114182170313</v>
       </c>
       <c r="K7">
-        <v>1.033820869228549</v>
+        <v>1.031902643941422</v>
       </c>
       <c r="L7">
-        <v>1.023983977284045</v>
+        <v>1.028572281259143</v>
       </c>
       <c r="M7">
-        <v>0.9947688602407337</v>
+        <v>1.038805195965305</v>
       </c>
       <c r="N7">
-        <v>1.029991342083683</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01162880553009</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039284099088716</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033646623029089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00407546228634</v>
+        <v>0.9992629181927105</v>
       </c>
       <c r="D8">
-        <v>1.020002226679108</v>
+        <v>1.019197464947375</v>
       </c>
       <c r="E8">
-        <v>1.009858993747302</v>
+        <v>1.015059905222619</v>
       </c>
       <c r="F8">
-        <v>0.9698463156222455</v>
+        <v>1.025344128970032</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040638093281089</v>
+        <v>1.042535781838989</v>
       </c>
       <c r="J8">
-        <v>1.025566100964687</v>
+        <v>1.020892523251994</v>
       </c>
       <c r="K8">
-        <v>1.030917903615518</v>
+        <v>1.030123524769381</v>
       </c>
       <c r="L8">
-        <v>1.020907054446215</v>
+        <v>1.026039672588105</v>
       </c>
       <c r="M8">
-        <v>0.981450845932144</v>
+        <v>1.036191401756164</v>
       </c>
       <c r="N8">
-        <v>1.027022522462133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010871905038474</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.037215449735545</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032393220292931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9942749940404416</v>
+        <v>0.9909279726019827</v>
       </c>
       <c r="D9">
-        <v>1.012584683525366</v>
+        <v>1.013955890408204</v>
       </c>
       <c r="E9">
-        <v>1.002134774150075</v>
+        <v>1.008445276016046</v>
       </c>
       <c r="F9">
-        <v>0.9413005633916951</v>
+        <v>1.018632994694795</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036908221691241</v>
+        <v>1.041351253238875</v>
       </c>
       <c r="J9">
-        <v>1.020031549503213</v>
+        <v>1.016805205686755</v>
       </c>
       <c r="K9">
-        <v>1.025476830165318</v>
+        <v>1.026826529400236</v>
       </c>
       <c r="L9">
-        <v>1.01519331082478</v>
+        <v>1.021402804551733</v>
       </c>
       <c r="M9">
-        <v>0.9554236526721225</v>
+        <v>1.03143082878589</v>
       </c>
       <c r="N9">
-        <v>1.021480111302762</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009477177353294</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.033447748132865</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030058784918753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9873754856860694</v>
+        <v>0.9852199605682582</v>
       </c>
       <c r="D10">
-        <v>1.007355613207747</v>
+        <v>1.010392944950797</v>
       </c>
       <c r="E10">
-        <v>0.9967279676993674</v>
+        <v>1.004009803156421</v>
       </c>
       <c r="F10">
-        <v>0.9198241856936706</v>
+        <v>1.014214849232846</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034169798646194</v>
+        <v>1.040502022534926</v>
       </c>
       <c r="J10">
-        <v>1.016099098449196</v>
+        <v>1.014032509188819</v>
       </c>
       <c r="K10">
-        <v>1.021593317782537</v>
+        <v>1.024577053199714</v>
       </c>
       <c r="L10">
-        <v>1.01115655208215</v>
+        <v>1.018307034827871</v>
       </c>
       <c r="M10">
-        <v>0.935809438877775</v>
+        <v>1.028332107193018</v>
       </c>
       <c r="N10">
-        <v>1.017542075717189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00853414393691</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03104719558089</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028485205060159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9842877015851319</v>
+        <v>0.9832524584767626</v>
       </c>
       <c r="D11">
-        <v>1.005012258184768</v>
+        <v>1.009225953813792</v>
       </c>
       <c r="E11">
-        <v>0.9943158169220889</v>
+        <v>1.002974065813814</v>
       </c>
       <c r="F11">
-        <v>0.909762674799851</v>
+        <v>1.013734320575107</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032912409380303</v>
+        <v>1.040289861951406</v>
       </c>
       <c r="J11">
-        <v>1.01432906072528</v>
+        <v>1.013338941799167</v>
       </c>
       <c r="K11">
-        <v>1.019840265664597</v>
+        <v>1.023975954541963</v>
       </c>
       <c r="L11">
-        <v>1.009345730672702</v>
+        <v>1.01784011271138</v>
       </c>
       <c r="M11">
-        <v>0.9266136580522343</v>
+        <v>1.028401793819489</v>
       </c>
       <c r="N11">
-        <v>1.01576952433668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008328056056595</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.031542073749247</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.028093346924674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9831242929705938</v>
+        <v>0.9827230265135797</v>
       </c>
       <c r="D12">
-        <v>1.004128676007481</v>
+        <v>1.00893584508884</v>
       </c>
       <c r="E12">
-        <v>0.9934081225914196</v>
+        <v>1.00292216597183</v>
       </c>
       <c r="F12">
-        <v>0.9058900942548772</v>
+        <v>1.0140822338446</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032433274186462</v>
+        <v>1.040272008020475</v>
       </c>
       <c r="J12">
-        <v>1.013660442174043</v>
+        <v>1.013277014339571</v>
       </c>
       <c r="K12">
-        <v>1.01917720227339</v>
+        <v>1.023893827703598</v>
       </c>
       <c r="L12">
-        <v>1.008662711697406</v>
+        <v>1.017993595215091</v>
       </c>
       <c r="M12">
-        <v>0.9230734127925663</v>
+        <v>1.028944523687734</v>
       </c>
       <c r="N12">
-        <v>1.015099956270408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.008331168687385</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.032299964894596</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.028035279578502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9833746189381631</v>
+        <v>0.9832718808870813</v>
       </c>
       <c r="D13">
-        <v>1.004318826219052</v>
+        <v>1.009312018314649</v>
       </c>
       <c r="E13">
-        <v>0.9936033755433589</v>
+        <v>1.003631241384766</v>
       </c>
       <c r="F13">
-        <v>0.9067272954574854</v>
+        <v>1.015110799040591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032536622110133</v>
+        <v>1.04041203865729</v>
       </c>
       <c r="J13">
-        <v>1.013804386919263</v>
+        <v>1.01370619409551</v>
       </c>
       <c r="K13">
-        <v>1.019319991917741</v>
+        <v>1.024219520855683</v>
       </c>
       <c r="L13">
-        <v>1.008809709793356</v>
+        <v>1.018645400337687</v>
       </c>
       <c r="M13">
-        <v>0.9238388044753091</v>
+        <v>1.029911033335257</v>
       </c>
       <c r="N13">
-        <v>1.015244105433677</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008499564672218</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.033342373193487</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.028263043668083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9841918789411928</v>
+        <v>0.9841423841644764</v>
       </c>
       <c r="D14">
-        <v>1.004939497735791</v>
+        <v>1.009877174244669</v>
       </c>
       <c r="E14">
-        <v>0.9942410324717595</v>
+        <v>1.004466510687912</v>
       </c>
       <c r="F14">
-        <v>0.9094454668548585</v>
+        <v>1.016132365623634</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032873059293863</v>
+        <v>1.04058134796992</v>
       </c>
       <c r="J14">
-        <v>1.014274026791048</v>
+        <v>1.014226689999047</v>
       </c>
       <c r="K14">
-        <v>1.019785707145977</v>
+        <v>1.024631922598357</v>
       </c>
       <c r="L14">
-        <v>1.009289490516716</v>
+        <v>1.019321542871674</v>
       </c>
       <c r="M14">
-        <v>0.9263236889201621</v>
+        <v>1.030772908283474</v>
       </c>
       <c r="N14">
-        <v>1.015714412247948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008691628985156</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.034197763937179</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.028556067875734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9846931908369094</v>
+        <v>0.9845941449458617</v>
       </c>
       <c r="D15">
-        <v>1.005320127921151</v>
+        <v>1.010165394271989</v>
       </c>
       <c r="E15">
-        <v>0.9946323264803939</v>
+        <v>1.004847919666871</v>
       </c>
       <c r="F15">
-        <v>0.9111015755346779</v>
+        <v>1.016552572485465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033078702755223</v>
+        <v>1.040659464845447</v>
       </c>
       <c r="J15">
-        <v>1.014561875063391</v>
+        <v>1.014467109271762</v>
       </c>
       <c r="K15">
-        <v>1.020071033104185</v>
+        <v>1.024827242002746</v>
       </c>
       <c r="L15">
-        <v>1.009583689194008</v>
+        <v>1.01960756406505</v>
       </c>
       <c r="M15">
-        <v>0.92783755216778</v>
+        <v>1.031098707459293</v>
       </c>
       <c r="N15">
-        <v>1.016002669297855</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008776889907792</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034492956842044</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.028700091498768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9875781855507842</v>
+        <v>0.9868939504199389</v>
       </c>
       <c r="D16">
-        <v>1.007509364786202</v>
+        <v>1.01159400968831</v>
       </c>
       <c r="E16">
-        <v>0.9968864740157146</v>
+        <v>1.006585386112855</v>
       </c>
       <c r="F16">
-        <v>0.9204742282658623</v>
+        <v>1.018260295173685</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034251632525244</v>
+        <v>1.041003339852703</v>
       </c>
       <c r="J16">
-        <v>1.016215069023518</v>
+        <v>1.015558898354711</v>
       </c>
       <c r="K16">
-        <v>1.021708062851858</v>
+        <v>1.025720966785396</v>
       </c>
       <c r="L16">
-        <v>1.011275328816564</v>
+        <v>1.02080041728801</v>
       </c>
       <c r="M16">
-        <v>0.9364034230564824</v>
+        <v>1.032271766459032</v>
       </c>
       <c r="N16">
-        <v>1.01765821098303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.009144073169648</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035381268703803</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.0293351939906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9893601139693607</v>
+        <v>0.9882064401838722</v>
       </c>
       <c r="D17">
-        <v>1.008860617291655</v>
+        <v>1.012397565704849</v>
       </c>
       <c r="E17">
-        <v>0.9982807626476383</v>
+        <v>1.007484717509137</v>
       </c>
       <c r="F17">
-        <v>0.9261363849236791</v>
+        <v>1.019031858080722</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034967364409711</v>
+        <v>1.041176826091117</v>
       </c>
       <c r="J17">
-        <v>1.017233398163475</v>
+        <v>1.016125495087919</v>
       </c>
       <c r="K17">
-        <v>1.022715051174585</v>
+        <v>1.026191657267457</v>
       </c>
       <c r="L17">
-        <v>1.012319003622685</v>
+        <v>1.021362772997086</v>
       </c>
       <c r="M17">
-        <v>0.9415765588929617</v>
+        <v>1.032714220585039</v>
       </c>
       <c r="N17">
-        <v>1.018677986267169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.009325611300845</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035601422332746</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029670607835469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.990389917186548</v>
+        <v>0.9887769420252085</v>
       </c>
       <c r="D18">
-        <v>1.009641242967414</v>
+        <v>1.012721746805942</v>
       </c>
       <c r="E18">
-        <v>0.9990872610974314</v>
+        <v>1.007703001371339</v>
       </c>
       <c r="F18">
-        <v>0.9293671471107965</v>
+        <v>1.018990721976117</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035378030975237</v>
+        <v>1.041214441961772</v>
       </c>
       <c r="J18">
-        <v>1.017820963405583</v>
+        <v>1.016270752244637</v>
       </c>
       <c r="K18">
-        <v>1.02329560564484</v>
+        <v>1.026324440989235</v>
       </c>
       <c r="L18">
-        <v>1.01292176822473</v>
+        <v>1.021390082606185</v>
       </c>
       <c r="M18">
-        <v>0.9445276679200968</v>
+        <v>1.032489509175933</v>
       </c>
       <c r="N18">
-        <v>1.019266385919315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00935594881965</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.035184929870585</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029752752414828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9907394694922784</v>
+        <v>0.9886836021832847</v>
       </c>
       <c r="D19">
-        <v>1.009906171880716</v>
+        <v>1.012628856740682</v>
       </c>
       <c r="E19">
-        <v>0.999361137089795</v>
+        <v>1.007299739410658</v>
       </c>
       <c r="F19">
-        <v>0.9304571066365294</v>
+        <v>1.018196744133331</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035516938078075</v>
+        <v>1.041139048882652</v>
       </c>
       <c r="J19">
-        <v>1.018020249014714</v>
+        <v>1.016043881275801</v>
       </c>
       <c r="K19">
-        <v>1.023492436767789</v>
+        <v>1.026169709130412</v>
       </c>
       <c r="L19">
-        <v>1.013126304563625</v>
+        <v>1.020929774428859</v>
       </c>
       <c r="M19">
-        <v>0.9455231721459518</v>
+        <v>1.031645700267116</v>
       </c>
       <c r="N19">
-        <v>1.019465954536869</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.009255820291535</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03419027312633</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029649802494441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9891699286322143</v>
+        <v>0.9867195693285215</v>
       </c>
       <c r="D20">
-        <v>1.008716428561642</v>
+        <v>1.011344149275442</v>
       </c>
       <c r="E20">
-        <v>0.9981318754907337</v>
+        <v>1.005175981384254</v>
       </c>
       <c r="F20">
-        <v>0.9255364565362563</v>
+        <v>1.015374344620465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034891285848861</v>
+        <v>1.040739232170195</v>
       </c>
       <c r="J20">
-        <v>1.017124810807033</v>
+        <v>1.014772205659507</v>
       </c>
       <c r="K20">
-        <v>1.022607722296637</v>
+        <v>1.025190415932777</v>
       </c>
       <c r="L20">
-        <v>1.012207653346708</v>
+        <v>1.019128423916754</v>
       </c>
       <c r="M20">
-        <v>0.9410285084833655</v>
+        <v>1.0291521365019</v>
       </c>
       <c r="N20">
-        <v>1.018569244704226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008788128823024</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.031685523916074</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028961348407036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9839516835360291</v>
+        <v>0.9823327811779475</v>
       </c>
       <c r="D21">
-        <v>1.00475710022599</v>
+        <v>1.00860008775744</v>
       </c>
       <c r="E21">
-        <v>0.9940535913353262</v>
+        <v>1.001686201204594</v>
       </c>
       <c r="F21">
-        <v>0.9086489637126254</v>
+        <v>1.011796033290687</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032774332836855</v>
+        <v>1.040050983079003</v>
       </c>
       <c r="J21">
-        <v>1.014136046843578</v>
+        <v>1.012588193930383</v>
       </c>
       <c r="K21">
-        <v>1.019648904894463</v>
+        <v>1.02342034027948</v>
       </c>
       <c r="L21">
-        <v>1.009148502832044</v>
+        <v>1.01663569825114</v>
       </c>
       <c r="M21">
-        <v>0.9255955683908128</v>
+        <v>1.026557320129758</v>
       </c>
       <c r="N21">
-        <v>1.015576236353126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008039623587267</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.02959064392276</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027713071579753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9805745649499543</v>
+        <v>0.9795482390144289</v>
       </c>
       <c r="D22">
-        <v>1.00219073756978</v>
+        <v>1.006859716471421</v>
       </c>
       <c r="E22">
-        <v>0.9914209365016958</v>
+        <v>0.9995087749313976</v>
       </c>
       <c r="F22">
-        <v>0.897233379387421</v>
+        <v>1.009602370668048</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031372473134802</v>
+        <v>1.039605563255327</v>
       </c>
       <c r="J22">
-        <v>1.012191687483198</v>
+        <v>1.011213085675929</v>
       </c>
       <c r="K22">
-        <v>1.017718920088146</v>
+        <v>1.022296494971335</v>
       </c>
       <c r="L22">
-        <v>1.007164283849119</v>
+        <v>1.015089969371278</v>
       </c>
       <c r="M22">
-        <v>0.9151581420933842</v>
+        <v>1.024985972978276</v>
       </c>
       <c r="N22">
-        <v>1.013629115779433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007568958653912</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028347007686443</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026904812299714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9823745062701547</v>
+        <v>0.9810221858822108</v>
       </c>
       <c r="D23">
-        <v>1.003559015682211</v>
+        <v>1.007774658211094</v>
       </c>
       <c r="E23">
-        <v>0.9928234615543172</v>
+        <v>1.000660312870711</v>
       </c>
       <c r="F23">
-        <v>0.9033691984838613</v>
+        <v>1.01076394638044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032122877783976</v>
+        <v>1.039838714974133</v>
       </c>
       <c r="J23">
-        <v>1.01322902462859</v>
+        <v>1.011937701121865</v>
       </c>
       <c r="K23">
-        <v>1.018749110733839</v>
+        <v>1.022884374545038</v>
       </c>
       <c r="L23">
-        <v>1.008222297587166</v>
+        <v>1.01590619168294</v>
       </c>
       <c r="M23">
-        <v>0.9207686259898084</v>
+        <v>1.025817197306335</v>
       </c>
       <c r="N23">
-        <v>1.014667926062556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007816151274863</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029004877038922</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027310747440216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.989255894657795</v>
+        <v>0.9867271127654398</v>
       </c>
       <c r="D24">
-        <v>1.008781604442274</v>
+        <v>1.011334969475526</v>
       </c>
       <c r="E24">
-        <v>0.99819917202275</v>
+        <v>1.005134225941291</v>
       </c>
       <c r="F24">
-        <v>0.9258077589656998</v>
+        <v>1.015280454672494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034925683417575</v>
+        <v>1.040726507367132</v>
       </c>
       <c r="J24">
-        <v>1.017173896489201</v>
+        <v>1.01474584167225</v>
       </c>
       <c r="K24">
-        <v>1.022656240541002</v>
+        <v>1.025165911999905</v>
       </c>
       <c r="L24">
-        <v>1.012257986195386</v>
+        <v>1.019071774764122</v>
       </c>
       <c r="M24">
-        <v>0.9412763523635614</v>
+        <v>1.029044439011256</v>
       </c>
       <c r="N24">
-        <v>1.018618400093693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008775318340554</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031559059365096</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028916361100535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9968691414794957</v>
+        <v>0.9931329193466776</v>
       </c>
       <c r="D25">
-        <v>1.014548940093021</v>
+        <v>1.015349747612166</v>
       </c>
       <c r="E25">
-        <v>1.004174107511955</v>
+        <v>1.010189601031079</v>
       </c>
       <c r="F25">
-        <v>0.9490604600107994</v>
+        <v>1.020397194599038</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037913477509575</v>
+        <v>1.041679921451108</v>
       </c>
       <c r="J25">
-        <v>1.021502332859339</v>
+        <v>1.017893619004099</v>
       </c>
       <c r="K25">
-        <v>1.026925524017504</v>
+        <v>1.027714361608683</v>
       </c>
       <c r="L25">
-        <v>1.016707969581611</v>
+        <v>1.022631769393783</v>
       </c>
       <c r="M25">
-        <v>0.9625046103245576</v>
+        <v>1.032686912055491</v>
       </c>
       <c r="N25">
-        <v>1.022952983339955</v>
+        <v>1.009849983039919</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034441862972959</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.030715390051235</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.99806110332634</v>
+        <v>0.9983858869609875</v>
       </c>
       <c r="D2">
-        <v>1.018432602132795</v>
+        <v>1.018482371618519</v>
       </c>
       <c r="E2">
-        <v>1.014102230609057</v>
+        <v>1.014357357650189</v>
       </c>
       <c r="F2">
-        <v>1.024372951622959</v>
+        <v>1.024554270505899</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042366462094932</v>
+        <v>1.042391949267213</v>
       </c>
       <c r="J2">
-        <v>1.020299961519125</v>
+        <v>1.020614983287178</v>
       </c>
       <c r="K2">
-        <v>1.029640978089539</v>
+        <v>1.029690085405362</v>
       </c>
       <c r="L2">
-        <v>1.025368533763579</v>
+        <v>1.025620230749693</v>
       </c>
       <c r="M2">
-        <v>1.035502862444215</v>
+        <v>1.035681804249126</v>
       </c>
       <c r="N2">
-        <v>1.010668925436947</v>
+        <v>1.012658211565802</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036670514328645</v>
+        <v>1.036812135513119</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032028909130001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032072482854149</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020035201487457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001564426608786</v>
+        <v>1.001777276542957</v>
       </c>
       <c r="D3">
-        <v>1.020639769718486</v>
+        <v>1.020542418466261</v>
       </c>
       <c r="E3">
-        <v>1.016897025776257</v>
+        <v>1.017064704829613</v>
       </c>
       <c r="F3">
-        <v>1.027215952898962</v>
+        <v>1.027334997345338</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042838856420537</v>
+        <v>1.042802765765671</v>
       </c>
       <c r="J3">
-        <v>1.022012534441065</v>
+        <v>1.022219608187142</v>
       </c>
       <c r="K3">
-        <v>1.03101520007366</v>
+        <v>1.030919032753643</v>
       </c>
       <c r="L3">
-        <v>1.027318176257792</v>
+        <v>1.02748379804426</v>
       </c>
       <c r="M3">
-        <v>1.037512051898386</v>
+        <v>1.03762967186875</v>
       </c>
       <c r="N3">
-        <v>1.011252683025835</v>
+        <v>1.013093262506996</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038260659801587</v>
+        <v>1.038353748406266</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032997931321899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032938504761245</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020263589897668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003793221623006</v>
+        <v>1.003935656844386</v>
       </c>
       <c r="D4">
-        <v>1.022046704807721</v>
+        <v>1.021856293196232</v>
       </c>
       <c r="E4">
-        <v>1.018680918995615</v>
+        <v>1.018793538425939</v>
       </c>
       <c r="F4">
-        <v>1.029033315845037</v>
+        <v>1.02911321762272</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043129289059497</v>
+        <v>1.043054195291784</v>
       </c>
       <c r="J4">
-        <v>1.023100391609369</v>
+        <v>1.023239221110495</v>
       </c>
       <c r="K4">
-        <v>1.031886132483327</v>
+        <v>1.031697898704411</v>
       </c>
       <c r="L4">
-        <v>1.028558991038618</v>
+        <v>1.028670312326469</v>
       </c>
       <c r="M4">
-        <v>1.03879352073918</v>
+        <v>1.038872524155414</v>
       </c>
       <c r="N4">
-        <v>1.011623363489905</v>
+        <v>1.013369641393124</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039274858914358</v>
+        <v>1.039337384925071</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033614669009926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033490224218093</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020405870075002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004723754991846</v>
+        <v>1.004836979061959</v>
       </c>
       <c r="D5">
-        <v>1.022636802067057</v>
+        <v>1.022407713597267</v>
       </c>
       <c r="E5">
-        <v>1.019427105488716</v>
+        <v>1.019516873618235</v>
       </c>
       <c r="F5">
-        <v>1.029793542723714</v>
+        <v>1.029857214415983</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.043249382097833</v>
+        <v>1.043158062362532</v>
       </c>
       <c r="J5">
-        <v>1.023555328857398</v>
+        <v>1.023665771711835</v>
       </c>
       <c r="K5">
-        <v>1.032251537660818</v>
+        <v>1.032025000493417</v>
       </c>
       <c r="L5">
-        <v>1.029077715371025</v>
+        <v>1.029166476395412</v>
       </c>
       <c r="M5">
-        <v>1.039329277529359</v>
+        <v>1.039392252423282</v>
       </c>
       <c r="N5">
-        <v>1.011778568227994</v>
+        <v>1.013485423933602</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039698875089434</v>
+        <v>1.039748715549378</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033880275391106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033729456731924</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020465422598406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004882422221012</v>
+        <v>1.004990681273059</v>
       </c>
       <c r="D6">
-        <v>1.022739977945739</v>
+        <v>1.022504362321129</v>
       </c>
       <c r="E6">
-        <v>1.019554448981056</v>
+        <v>1.019640331882293</v>
       </c>
       <c r="F6">
-        <v>1.029922581122989</v>
+        <v>1.029983494271959</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.043271295267978</v>
+        <v>1.043177231655381</v>
       </c>
       <c r="J6">
-        <v>1.023634306953011</v>
+        <v>1.023739920324358</v>
       </c>
       <c r="K6">
-        <v>1.032316977669138</v>
+        <v>1.032083974163915</v>
       </c>
       <c r="L6">
-        <v>1.02916689036624</v>
+        <v>1.029251814174053</v>
       </c>
       <c r="M6">
-        <v>1.039420655992633</v>
+        <v>1.039480905585168</v>
       </c>
       <c r="N6">
-        <v>1.01180578036739</v>
+        <v>1.013505765198024</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039771195093226</v>
+        <v>1.039818878652795</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033935364498974</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033780841603192</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020476610175028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003813582882478</v>
+        <v>1.003962527170441</v>
       </c>
       <c r="D7">
-        <v>1.022066355546093</v>
+        <v>1.021880189534246</v>
       </c>
       <c r="E7">
-        <v>1.018697325869753</v>
+        <v>1.01881518712305</v>
       </c>
       <c r="F7">
-        <v>1.029048044841485</v>
+        <v>1.029131665293279</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043136163353226</v>
+        <v>1.043062935237244</v>
       </c>
       <c r="J7">
-        <v>1.023114182170313</v>
+        <v>1.023259357580818</v>
       </c>
       <c r="K7">
-        <v>1.031902643941422</v>
+        <v>1.031718606379677</v>
       </c>
       <c r="L7">
-        <v>1.028572281259143</v>
+        <v>1.028688784465508</v>
       </c>
       <c r="M7">
-        <v>1.038805195965305</v>
+        <v>1.038887876596277</v>
       </c>
       <c r="N7">
-        <v>1.01162880553009</v>
+        <v>1.013401558832986</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039284099088716</v>
+        <v>1.039349535372199</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033646623029089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033527142580166</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020411469672851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9992629181927105</v>
+        <v>0.9995711309241113</v>
       </c>
       <c r="D8">
-        <v>1.019197464947375</v>
+        <v>1.019212136557481</v>
       </c>
       <c r="E8">
-        <v>1.015059905222619</v>
+        <v>1.015302618043245</v>
       </c>
       <c r="F8">
-        <v>1.025344128970032</v>
+        <v>1.025516563111541</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042535781838989</v>
+        <v>1.042546893926827</v>
       </c>
       <c r="J8">
-        <v>1.020892523251994</v>
+        <v>1.021191781079608</v>
       </c>
       <c r="K8">
-        <v>1.030123524769381</v>
+        <v>1.030138006905536</v>
       </c>
       <c r="L8">
-        <v>1.026039672588105</v>
+        <v>1.026279219741663</v>
       </c>
       <c r="M8">
-        <v>1.036191401756164</v>
+        <v>1.03636164267214</v>
       </c>
       <c r="N8">
-        <v>1.010871905038474</v>
+        <v>1.012894016664045</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037215449735545</v>
+        <v>1.03735018461113</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032393220292931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032414575447174</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020122104104522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9909279726019827</v>
+        <v>0.9915107843744128</v>
       </c>
       <c r="D9">
-        <v>1.013955890408204</v>
+        <v>1.014326097217102</v>
       </c>
       <c r="E9">
-        <v>1.008445276016046</v>
+        <v>1.008902274645039</v>
       </c>
       <c r="F9">
-        <v>1.018632994694795</v>
+        <v>1.018958492017064</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041351253238875</v>
+        <v>1.041510922502714</v>
       </c>
       <c r="J9">
-        <v>1.016805205686755</v>
+        <v>1.017366921855587</v>
       </c>
       <c r="K9">
-        <v>1.026826529400236</v>
+        <v>1.027190942192063</v>
       </c>
       <c r="L9">
-        <v>1.021402804551733</v>
+        <v>1.021852551147316</v>
       </c>
       <c r="M9">
-        <v>1.03143082878589</v>
+        <v>1.031751291110562</v>
       </c>
       <c r="N9">
-        <v>1.009477177353294</v>
+        <v>1.011865584232934</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033447748132865</v>
+        <v>1.033701375044408</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030058784918753</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030327291686724</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019559427165586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9852199605682582</v>
+        <v>0.9860264103722182</v>
       </c>
       <c r="D10">
-        <v>1.010392944950797</v>
+        <v>1.011030633355919</v>
       </c>
       <c r="E10">
-        <v>1.004009803156421</v>
+        <v>1.004641555964129</v>
       </c>
       <c r="F10">
-        <v>1.014214849232846</v>
+        <v>1.014665525709596</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040502022534926</v>
+        <v>1.040773480193451</v>
       </c>
       <c r="J10">
-        <v>1.014032509188819</v>
+        <v>1.0148056205792</v>
       </c>
       <c r="K10">
-        <v>1.024577053199714</v>
+        <v>1.025203542048116</v>
       </c>
       <c r="L10">
-        <v>1.018307034827871</v>
+        <v>1.018927508361477</v>
       </c>
       <c r="M10">
-        <v>1.028332107193018</v>
+        <v>1.028774943694857</v>
       </c>
       <c r="N10">
-        <v>1.00853414393691</v>
+        <v>1.011290217972027</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03104719558089</v>
+        <v>1.031397653330601</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028485205060159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028940698269324</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019173809536432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9832524584767626</v>
+        <v>0.9841754143315582</v>
       </c>
       <c r="D11">
-        <v>1.009225953813792</v>
+        <v>1.009977632045761</v>
       </c>
       <c r="E11">
-        <v>1.002974065813814</v>
+        <v>1.003696370555802</v>
       </c>
       <c r="F11">
-        <v>1.013734320575107</v>
+        <v>1.014249068375057</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040289861951406</v>
+        <v>1.040608355231549</v>
       </c>
       <c r="J11">
-        <v>1.013338941799167</v>
+        <v>1.014221661292412</v>
       </c>
       <c r="K11">
-        <v>1.023975954541963</v>
+        <v>1.024713806325412</v>
       </c>
       <c r="L11">
-        <v>1.01784011271138</v>
+        <v>1.018548913788988</v>
       </c>
       <c r="M11">
-        <v>1.028401793819489</v>
+        <v>1.028907179667354</v>
       </c>
       <c r="N11">
-        <v>1.008328056056595</v>
+        <v>1.01138327643755</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031542073749247</v>
+        <v>1.031941828098265</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.028093346924674</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028630790845195</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019110794037377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9827230265135797</v>
+        <v>0.9836804205051116</v>
       </c>
       <c r="D12">
-        <v>1.00893584508884</v>
+        <v>1.009717045314359</v>
       </c>
       <c r="E12">
-        <v>1.00292216597183</v>
+        <v>1.00367040773079</v>
       </c>
       <c r="F12">
-        <v>1.0140822338446</v>
+        <v>1.014614950252061</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040272008020475</v>
+        <v>1.040602017421509</v>
       </c>
       <c r="J12">
-        <v>1.013277014339571</v>
+        <v>1.014191881044667</v>
       </c>
       <c r="K12">
-        <v>1.023893827703598</v>
+        <v>1.024660420206842</v>
       </c>
       <c r="L12">
-        <v>1.017993595215091</v>
+        <v>1.01872762474687</v>
       </c>
       <c r="M12">
-        <v>1.028944523687734</v>
+        <v>1.02946740693864</v>
       </c>
       <c r="N12">
-        <v>1.008331168687385</v>
+        <v>1.011494808479458</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032299964894596</v>
+        <v>1.032713417607379</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.028035279578502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028593045328688</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019123423944345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9832718808870813</v>
+        <v>0.9841922819003194</v>
       </c>
       <c r="D13">
-        <v>1.009312018314649</v>
+        <v>1.010052082130271</v>
       </c>
       <c r="E13">
-        <v>1.003631241384766</v>
+        <v>1.004349193774831</v>
       </c>
       <c r="F13">
-        <v>1.015110799040591</v>
+        <v>1.01562143084197</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.04041203865729</v>
+        <v>1.040723763112703</v>
       </c>
       <c r="J13">
-        <v>1.01370619409551</v>
+        <v>1.0145859240932</v>
       </c>
       <c r="K13">
-        <v>1.024219520855683</v>
+        <v>1.024945805219648</v>
       </c>
       <c r="L13">
-        <v>1.018645400337687</v>
+        <v>1.019349786155477</v>
       </c>
       <c r="M13">
-        <v>1.029911033335257</v>
+        <v>1.030412295682876</v>
       </c>
       <c r="N13">
-        <v>1.008499564672218</v>
+        <v>1.011594968460078</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033342373193487</v>
+        <v>1.033738629297169</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.028263043668083</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028792063094659</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019198186604176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9841423841644764</v>
+        <v>0.9850052359727708</v>
       </c>
       <c r="D14">
-        <v>1.009877174244669</v>
+        <v>1.010557130660769</v>
       </c>
       <c r="E14">
-        <v>1.004466510687912</v>
+        <v>1.005138498949656</v>
       </c>
       <c r="F14">
-        <v>1.016132365623634</v>
+        <v>1.016609961597199</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04058134796992</v>
+        <v>1.040867142188052</v>
       </c>
       <c r="J14">
-        <v>1.014226689999047</v>
+        <v>1.015051965621342</v>
       </c>
       <c r="K14">
-        <v>1.024631922598357</v>
+        <v>1.02529937532158</v>
       </c>
       <c r="L14">
-        <v>1.019321542871674</v>
+        <v>1.019980999566728</v>
       </c>
       <c r="M14">
-        <v>1.030772908283474</v>
+        <v>1.03124185952569</v>
       </c>
       <c r="N14">
-        <v>1.008691628985156</v>
+        <v>1.01166063394309</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.034197763937179</v>
+        <v>1.034568427233875</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.028556067875734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.029043623449806</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01927882676978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9845941449458617</v>
+        <v>0.9854280582955834</v>
       </c>
       <c r="D15">
-        <v>1.010165394271989</v>
+        <v>1.010815724615889</v>
       </c>
       <c r="E15">
-        <v>1.004847919666871</v>
+        <v>1.005497035063186</v>
       </c>
       <c r="F15">
-        <v>1.016552572485465</v>
+        <v>1.017013810534753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040659464845447</v>
+        <v>1.040932656542864</v>
       </c>
       <c r="J15">
-        <v>1.014467109271762</v>
+        <v>1.015265024820605</v>
       </c>
       <c r="K15">
-        <v>1.024827242002746</v>
+        <v>1.025465703663361</v>
       </c>
       <c r="L15">
-        <v>1.01960756406505</v>
+        <v>1.020244668959172</v>
       </c>
       <c r="M15">
-        <v>1.031098707459293</v>
+        <v>1.031551662631647</v>
       </c>
       <c r="N15">
-        <v>1.008776889907792</v>
+        <v>1.01167902228298</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034492956842044</v>
+        <v>1.034850967247026</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.028700091498768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.029167716785213</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019313901843712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9868939504199389</v>
+        <v>0.9875927574115724</v>
       </c>
       <c r="D16">
-        <v>1.01159400968831</v>
+        <v>1.012105814092345</v>
       </c>
       <c r="E16">
-        <v>1.006585386112855</v>
+        <v>1.007128753432645</v>
       </c>
       <c r="F16">
-        <v>1.018260295173685</v>
+        <v>1.018646182143365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041003339852703</v>
+        <v>1.04121852334162</v>
       </c>
       <c r="J16">
-        <v>1.015558898354711</v>
+        <v>1.01622904380819</v>
       </c>
       <c r="K16">
-        <v>1.025720966785396</v>
+        <v>1.026223834940743</v>
       </c>
       <c r="L16">
-        <v>1.02080041728801</v>
+        <v>1.021334174832255</v>
       </c>
       <c r="M16">
-        <v>1.032271766459032</v>
+        <v>1.032651028195535</v>
       </c>
       <c r="N16">
-        <v>1.009144073169648</v>
+        <v>1.01172972026998</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035381268703803</v>
+        <v>1.035681041309582</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.0293351939906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029707245869518</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019457791873205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9882064401838722</v>
+        <v>0.9888397324081185</v>
       </c>
       <c r="D17">
-        <v>1.012397565704849</v>
+        <v>1.012840096274405</v>
       </c>
       <c r="E17">
-        <v>1.007484717509137</v>
+        <v>1.007977243361255</v>
       </c>
       <c r="F17">
-        <v>1.019031858080722</v>
+        <v>1.019381627490246</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.041176826091117</v>
+        <v>1.041363378571811</v>
       </c>
       <c r="J17">
-        <v>1.016125495087919</v>
+        <v>1.016733643434894</v>
       </c>
       <c r="K17">
-        <v>1.026191657267457</v>
+        <v>1.026626676307854</v>
       </c>
       <c r="L17">
-        <v>1.021362772997086</v>
+        <v>1.021846833529823</v>
       </c>
       <c r="M17">
-        <v>1.032714220585039</v>
+        <v>1.033058151473788</v>
       </c>
       <c r="N17">
-        <v>1.009325611300845</v>
+        <v>1.01176366405845</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035601422332746</v>
+        <v>1.035873296301521</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029670607835469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029994933801035</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019527028432364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9887769420252085</v>
+        <v>0.9893887198434697</v>
       </c>
       <c r="D18">
-        <v>1.012721746805942</v>
+        <v>1.013141578114845</v>
       </c>
       <c r="E18">
-        <v>1.007703001371339</v>
+        <v>1.008179398605862</v>
       </c>
       <c r="F18">
-        <v>1.018990721976117</v>
+        <v>1.019329213059517</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041214441961772</v>
+        <v>1.041392157254113</v>
       </c>
       <c r="J18">
-        <v>1.016270752244637</v>
+        <v>1.016858690553006</v>
       </c>
       <c r="K18">
-        <v>1.026324440989235</v>
+        <v>1.026737261921138</v>
       </c>
       <c r="L18">
-        <v>1.021390082606185</v>
+        <v>1.021858422954856</v>
       </c>
       <c r="M18">
-        <v>1.032489509175933</v>
+        <v>1.032822436610919</v>
       </c>
       <c r="N18">
-        <v>1.00935594881965</v>
+        <v>1.01174227325517</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035184929870585</v>
+        <v>1.035448161038307</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029752752414828</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03006024971237</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019531879671288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9886836021832847</v>
+        <v>0.9893073746218886</v>
       </c>
       <c r="D19">
-        <v>1.012628856740682</v>
+        <v>1.013063660251365</v>
       </c>
       <c r="E19">
-        <v>1.007299739410658</v>
+        <v>1.007786414889568</v>
       </c>
       <c r="F19">
-        <v>1.018196744133331</v>
+        <v>1.018542909832528</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041139048882652</v>
+        <v>1.04132384239585</v>
       </c>
       <c r="J19">
-        <v>1.016043881275801</v>
+        <v>1.016643483361936</v>
       </c>
       <c r="K19">
-        <v>1.026169709130412</v>
+        <v>1.026597289524743</v>
       </c>
       <c r="L19">
-        <v>1.020929774428859</v>
+        <v>1.021408254939456</v>
       </c>
       <c r="M19">
-        <v>1.031645700267116</v>
+        <v>1.031986195256888</v>
       </c>
       <c r="N19">
-        <v>1.009255820291535</v>
+        <v>1.011655418409944</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03419027312633</v>
+        <v>1.034459576607688</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029649802494441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029968360086896</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019483303091382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9867195693285215</v>
+        <v>0.9874467548097525</v>
       </c>
       <c r="D20">
-        <v>1.011344149275442</v>
+        <v>1.01189737678095</v>
       </c>
       <c r="E20">
-        <v>1.005175981384254</v>
+        <v>1.005745272518716</v>
       </c>
       <c r="F20">
-        <v>1.015374344620465</v>
+        <v>1.015780291395231</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040739232170195</v>
+        <v>1.040974994611677</v>
       </c>
       <c r="J20">
-        <v>1.014772205659507</v>
+        <v>1.015470309214459</v>
       </c>
       <c r="K20">
-        <v>1.025190415932777</v>
+        <v>1.025734202146633</v>
       </c>
       <c r="L20">
-        <v>1.019128423916754</v>
+        <v>1.019687844960507</v>
       </c>
       <c r="M20">
-        <v>1.0291521365019</v>
+        <v>1.029551224924962</v>
       </c>
       <c r="N20">
-        <v>1.008788128823024</v>
+        <v>1.011373341696762</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.031685523916074</v>
+        <v>1.032001363576638</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028961348407036</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029362461266278</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019279446667746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9823327811779475</v>
+        <v>0.9833337392163202</v>
       </c>
       <c r="D21">
-        <v>1.00860008775744</v>
+        <v>1.009432483129622</v>
       </c>
       <c r="E21">
-        <v>1.001686201204594</v>
+        <v>1.002472357646185</v>
       </c>
       <c r="F21">
-        <v>1.011796033290687</v>
+        <v>1.012357482418499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040050983079003</v>
+        <v>1.040405180371593</v>
       </c>
       <c r="J21">
-        <v>1.012588193930383</v>
+        <v>1.013545183040791</v>
       </c>
       <c r="K21">
-        <v>1.02342034027948</v>
+        <v>1.02423733095277</v>
       </c>
       <c r="L21">
-        <v>1.01663569825114</v>
+        <v>1.017407041354394</v>
       </c>
       <c r="M21">
-        <v>1.026557320129758</v>
+        <v>1.027108460511375</v>
       </c>
       <c r="N21">
-        <v>1.008039623587267</v>
+        <v>1.011266593915149</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.02959064392276</v>
+        <v>1.03002684118006</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027713071579753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028307684346583</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018985213710616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9795482390144289</v>
+        <v>0.9807227307558544</v>
       </c>
       <c r="D22">
-        <v>1.006859716471421</v>
+        <v>1.007869483546545</v>
       </c>
       <c r="E22">
-        <v>0.9995087749313976</v>
+        <v>1.00043249279729</v>
       </c>
       <c r="F22">
-        <v>1.009602370668048</v>
+        <v>1.010262643499291</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039605563255327</v>
+        <v>1.040035058623391</v>
       </c>
       <c r="J22">
-        <v>1.011213085675929</v>
+        <v>1.012332975439453</v>
       </c>
       <c r="K22">
-        <v>1.022296494971335</v>
+        <v>1.023286639963936</v>
       </c>
       <c r="L22">
-        <v>1.015089969371278</v>
+        <v>1.015995386787023</v>
       </c>
       <c r="M22">
-        <v>1.024985972978276</v>
+        <v>1.025633500536837</v>
       </c>
       <c r="N22">
-        <v>1.007568958653912</v>
+        <v>1.011194973904469</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028347007686443</v>
+        <v>1.028859490979027</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026904812299714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027620558566575</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018796631071739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9810221858822108</v>
+        <v>0.9820929575389593</v>
       </c>
       <c r="D23">
-        <v>1.007774658211094</v>
+        <v>1.008681785227476</v>
       </c>
       <c r="E23">
-        <v>1.000660312870711</v>
+        <v>1.001501558886461</v>
       </c>
       <c r="F23">
-        <v>1.01076394638044</v>
+        <v>1.011364986304541</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039838714974133</v>
+        <v>1.040224516706592</v>
       </c>
       <c r="J23">
-        <v>1.011937701121865</v>
+        <v>1.012960155408238</v>
       </c>
       <c r="K23">
-        <v>1.022884374545038</v>
+        <v>1.023774320382351</v>
       </c>
       <c r="L23">
-        <v>1.01590619168294</v>
+        <v>1.01673120487036</v>
       </c>
       <c r="M23">
-        <v>1.025817197306335</v>
+        <v>1.026406936674029</v>
       </c>
       <c r="N23">
-        <v>1.007816151274863</v>
+        <v>1.011188504590469</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029004877038922</v>
+        <v>1.029471623652416</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027310747440216</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.02795470512521</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018891749996119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9867271127654398</v>
+        <v>0.9874545714366674</v>
       </c>
       <c r="D24">
-        <v>1.011334969475526</v>
+        <v>1.01188865739153</v>
       </c>
       <c r="E24">
-        <v>1.005134225941291</v>
+        <v>1.005703857852865</v>
       </c>
       <c r="F24">
-        <v>1.015280454672494</v>
+        <v>1.015686706040926</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040726507367132</v>
+        <v>1.040962610330816</v>
       </c>
       <c r="J24">
-        <v>1.01474584167225</v>
+        <v>1.015444249141728</v>
       </c>
       <c r="K24">
-        <v>1.025165911999905</v>
+        <v>1.025710162693971</v>
       </c>
       <c r="L24">
-        <v>1.019071774764122</v>
+        <v>1.019631542335266</v>
       </c>
       <c r="M24">
-        <v>1.029044439011256</v>
+        <v>1.02944383405909</v>
       </c>
       <c r="N24">
-        <v>1.008775318340554</v>
+        <v>1.01135940405738</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031559059365096</v>
+        <v>1.031875157680951</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028916361100535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029315133155519</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019270231171395</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9931329193466776</v>
+        <v>0.9936334472796418</v>
       </c>
       <c r="D25">
-        <v>1.015349747612166</v>
+        <v>1.015619414064494</v>
       </c>
       <c r="E25">
-        <v>1.010189601031079</v>
+        <v>1.010582219107905</v>
       </c>
       <c r="F25">
-        <v>1.020397194599038</v>
+        <v>1.020676648342694</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041679921451108</v>
+        <v>1.041797452227941</v>
       </c>
       <c r="J25">
-        <v>1.017893619004099</v>
+        <v>1.01837698750831</v>
       </c>
       <c r="K25">
-        <v>1.027714361608683</v>
+        <v>1.027980002673488</v>
       </c>
       <c r="L25">
-        <v>1.022631769393783</v>
+        <v>1.023018451163377</v>
       </c>
       <c r="M25">
-        <v>1.032686912055491</v>
+        <v>1.032962246612357</v>
       </c>
       <c r="N25">
-        <v>1.009849983039919</v>
+        <v>1.012107815722522</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034441862972959</v>
+        <v>1.034659773632299</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.030715390051235</v>
+        <v>1.030916857890959</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019713595907659</v>
       </c>
     </row>
   </sheetData>
